--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -6452,7 +6452,7 @@
   <dimension ref="A1:B178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
@@ -6475,9 +6475,6 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>112</v>
-      </c>
       <c r="B3" t="s">
         <v>163</v>
       </c>
@@ -7293,6 +7290,9 @@
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>102</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -6449,11 +6449,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B178"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6470,18 +6470,24 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
       <c r="B2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
         <v>228</v>
@@ -6489,7 +6495,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
         <v>105</v>
@@ -6497,7 +6503,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -6505,7 +6511,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>2012</v>
       </c>
       <c r="B7" t="s">
         <v>110</v>
@@ -6513,7 +6519,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
         <v>263</v>
@@ -6521,7 +6527,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
         <v>212</v>
@@ -6529,7 +6535,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>2012</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
         <v>269</v>
@@ -6537,7 +6543,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>213</v>
@@ -6545,7 +6551,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="B12" t="s">
         <v>2017</v>
@@ -6553,7 +6559,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
         <v>194</v>
@@ -6561,7 +6567,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -6569,7 +6575,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -6577,7 +6583,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -6585,7 +6591,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -6593,7 +6599,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -6601,7 +6607,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s">
         <v>181</v>
@@ -6609,7 +6615,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>2013</v>
       </c>
       <c r="B20" t="s">
         <v>135</v>
@@ -6617,7 +6623,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
         <v>176</v>
@@ -6625,7 +6631,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>220</v>
@@ -6633,7 +6639,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>2013</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
         <v>229</v>
@@ -6641,7 +6647,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
         <v>80</v>
@@ -6649,7 +6655,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
         <v>99</v>
@@ -6657,7 +6663,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>241</v>
@@ -6665,7 +6671,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -6673,7 +6679,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -6681,7 +6687,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
         <v>82</v>
@@ -6689,7 +6695,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -6697,7 +6703,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
         <v>100</v>
@@ -6705,7 +6711,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s">
         <v>266</v>
@@ -6713,7 +6719,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -6721,947 +6727,935 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B35" t="s">
-        <v>2015</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B37" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="B43" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>265</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>56</v>
+      <c r="A52" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B53" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>251</v>
+        <v>2018</v>
       </c>
       <c r="B54" t="s">
-        <v>235</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>258</v>
+      <c r="A55" t="s">
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>2018</v>
+        <v>250</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>232</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>215</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B67" t="s">
-        <v>218</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="B72" t="s">
-        <v>267</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>81</v>
+      <c r="A74" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
-        <v>259</v>
+      <c r="A77" t="s">
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B78" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="B80" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B86" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B88" t="s">
-        <v>61</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="B91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="B94" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="B96" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>63</v>
+        <v>2021</v>
       </c>
       <c r="B98" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>2021</v>
+        <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B104" t="s">
-        <v>2023</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="B105" t="s">
-        <v>112</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>162</v>
+        <v>144</v>
+      </c>
+      <c r="B106" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>154</v>
+      <c r="A114" s="2" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>131</v>
+      <c r="A115" s="6" t="s">
+        <v>2020</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
-        <v>260</v>
+      <c r="A117" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="6" t="s">
-        <v>2020</v>
+      <c r="A118" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>246</v>
+        <v>74</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>190</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>74</v>
+      <c r="A144" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>182</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>2014</v>
+        <v>91</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="2" t="s">
-        <v>257</v>
+      <c r="A147" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>247</v>
+        <v>117</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>196</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>95</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>121</v>
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>208</v>
+        <v>123</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>156</v>
+      <c r="A174" s="2" t="s">
+        <v>2022</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="2" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
         <v>254</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A179">
+  <sortState ref="A2:A176">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="2024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="2025">
   <si>
     <t>Al Williamson</t>
   </si>
@@ -6097,6 +6097,9 @@
   </si>
   <si>
     <t>Will Elder</t>
+  </si>
+  <si>
+    <t>Lee Elias</t>
   </si>
 </sst>
 </file>
@@ -6449,11 +6452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B175"/>
+  <dimension ref="A1:B176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6470,9 +6473,6 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>107</v>
-      </c>
       <c r="B2" t="s">
         <v>193</v>
       </c>
@@ -7313,6 +7313,9 @@
       <c r="A107" t="s">
         <v>170</v>
       </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
@@ -7652,6 +7655,11 @@
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="2025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="2026">
   <si>
     <t>Al Williamson</t>
   </si>
@@ -6100,6 +6100,9 @@
   </si>
   <si>
     <t>Lee Elias</t>
+  </si>
+  <si>
+    <t>Jamie Hewlett</t>
   </si>
 </sst>
 </file>
@@ -6452,11 +6455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B176"/>
+  <dimension ref="A1:B174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6473,13 +6476,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
       <c r="B2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
         <v>163</v>
@@ -6487,7 +6493,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
         <v>228</v>
@@ -6495,7 +6501,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>2012</v>
       </c>
       <c r="B5" t="s">
         <v>105</v>
@@ -6503,7 +6509,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -6511,7 +6517,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2012</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
         <v>110</v>
@@ -6519,7 +6525,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
         <v>263</v>
@@ -6527,7 +6533,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
         <v>212</v>
@@ -6535,7 +6541,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s">
         <v>269</v>
@@ -6543,7 +6549,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
         <v>213</v>
@@ -6551,7 +6557,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
         <v>2017</v>
@@ -6559,7 +6565,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
         <v>194</v>
@@ -6567,7 +6573,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -6575,7 +6581,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -6583,7 +6589,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -6591,7 +6597,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -6599,7 +6605,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>2013</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -6607,7 +6613,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
         <v>181</v>
@@ -6615,7 +6621,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>2013</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>135</v>
@@ -6623,7 +6629,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
         <v>176</v>
@@ -6631,7 +6637,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
         <v>220</v>
@@ -6639,7 +6645,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
         <v>229</v>
@@ -6647,7 +6653,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
         <v>80</v>
@@ -6655,7 +6661,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s">
         <v>99</v>
@@ -6663,7 +6669,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>241</v>
@@ -6671,7 +6677,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>253</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -6679,7 +6685,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -6687,7 +6693,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
         <v>82</v>
@@ -6695,7 +6701,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -6703,7 +6709,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s">
         <v>100</v>
@@ -6711,7 +6717,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
         <v>266</v>
@@ -6719,7 +6725,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -6727,7 +6733,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="B34" t="s">
         <v>112</v>
@@ -6735,7 +6741,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -6743,7 +6749,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
         <v>111</v>
@@ -6751,920 +6757,916 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s">
-        <v>2015</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B39" t="s">
-        <v>2016</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>214</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="B45" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>245</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="B49" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>245</v>
+      <c r="A50" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>258</v>
+      <c r="A52" t="s">
+        <v>2018</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>2018</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>235</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="B57" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="B60" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>232</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>255</v>
+        <v>160</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>218</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>233</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>141</v>
+      <c r="A72" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>259</v>
+      <c r="A74" t="s">
+        <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>267</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="B78" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="B80" t="s">
-        <v>221</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B81" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>205</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="B84" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B85" t="s">
-        <v>268</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="B88" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c r="B90" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="B91" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B92" t="s">
-        <v>27</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>238</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="B94" t="s">
-        <v>115</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>159</v>
+        <v>2021</v>
       </c>
       <c r="B96" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>2021</v>
+        <v>108</v>
       </c>
       <c r="B98" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>240</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>2024</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="B105" t="s">
-        <v>2023</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>161</v>
+        <v>145</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2023</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>145</v>
+        <v>92</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>89</v>
+      <c r="A113" s="2" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
-        <v>260</v>
+      <c r="A114" s="6" t="s">
+        <v>2020</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="6" t="s">
-        <v>2020</v>
+      <c r="A115" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>203</v>
+        <v>64</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>246</v>
+        <v>83</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>190</v>
+        <v>74</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>2014</v>
+      <c r="A143" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="2" t="s">
-        <v>257</v>
+      <c r="A144" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>247</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>196</v>
+        <v>95</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>78</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>264</v>
+        <v>133</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>147</v>
+      <c r="A173" s="2" t="s">
+        <v>2022</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="2" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+      <c r="A174" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>2024</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:A176">
-    <sortCondition ref="A2"/>
+  <sortState ref="A2:A174">
+    <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -6459,7 +6459,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6476,9 +6476,6 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>122</v>
-      </c>
       <c r="B2" t="s">
         <v>193</v>
       </c>
@@ -7342,6 +7339,9 @@
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>154</v>
+      </c>
+      <c r="B110" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -6455,11 +6455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B174"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6476,13 +6476,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
       <c r="B2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>2012</v>
       </c>
       <c r="B3" t="s">
         <v>163</v>
@@ -6490,7 +6493,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
         <v>228</v>
@@ -6498,7 +6501,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2012</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>105</v>
@@ -6506,7 +6509,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -6514,7 +6517,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>110</v>
@@ -6522,7 +6525,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
         <v>263</v>
@@ -6530,7 +6533,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
         <v>212</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
         <v>269</v>
@@ -6546,7 +6549,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>213</v>
@@ -6554,7 +6557,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>2017</v>
@@ -6562,7 +6565,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
         <v>194</v>
@@ -6570,7 +6573,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -6578,7 +6581,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -6586,7 +6589,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>2013</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -6594,7 +6597,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -6602,7 +6605,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>2013</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -6610,7 +6613,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
         <v>181</v>
@@ -6618,7 +6621,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
         <v>135</v>
@@ -6626,7 +6629,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
         <v>176</v>
@@ -6634,7 +6637,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s">
         <v>220</v>
@@ -6642,7 +6645,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s">
         <v>229</v>
@@ -6650,7 +6653,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s">
         <v>80</v>
@@ -6658,7 +6661,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>253</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
         <v>99</v>
@@ -6666,7 +6669,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>241</v>
@@ -6674,7 +6677,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -6682,7 +6685,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -6690,7 +6693,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s">
         <v>82</v>
@@ -6698,7 +6701,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -6706,7 +6709,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s">
         <v>100</v>
@@ -6714,7 +6717,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s">
         <v>266</v>
@@ -6722,7 +6725,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -6730,7 +6733,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>112</v>
@@ -6738,7 +6741,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -6746,7 +6749,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="B36" t="s">
         <v>111</v>
@@ -6754,7 +6757,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B37" t="s">
         <v>107</v>
@@ -6762,7 +6765,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s">
         <v>2015</v>
@@ -6770,7 +6773,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
@@ -6778,7 +6781,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -6786,7 +6789,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
         <v>2016</v>
@@ -6794,7 +6797,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -6802,7 +6805,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
@@ -6818,7 +6821,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
         <v>214</v>
@@ -6826,7 +6829,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>245</v>
       </c>
       <c r="B46" t="s">
         <v>234</v>
@@ -6834,15 +6837,15 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="B47" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>245</v>
+      <c r="A48" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="B48" t="s">
         <v>55</v>
@@ -6850,15 +6853,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B49" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>258</v>
+      <c r="A50" t="s">
+        <v>2018</v>
       </c>
       <c r="B50" t="s">
         <v>217</v>
@@ -6866,7 +6869,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
         <v>230</v>
@@ -6874,7 +6877,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>2018</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -6882,7 +6885,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
@@ -6890,7 +6893,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
         <v>49</v>
@@ -6898,7 +6901,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="B55" t="s">
         <v>46</v>
@@ -6906,7 +6909,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
         <v>43</v>
@@ -6914,7 +6917,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s">
         <v>219</v>
@@ -6922,7 +6925,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="B58" t="s">
         <v>235</v>
@@ -6930,7 +6933,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
         <v>231</v>
@@ -6938,7 +6941,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>255</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
@@ -6946,7 +6949,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
@@ -6954,7 +6957,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="B62" t="s">
         <v>216</v>
@@ -6962,7 +6965,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="B63" t="s">
         <v>232</v>
@@ -6970,7 +6973,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -6978,7 +6981,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
@@ -6986,7 +6989,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
         <v>2025</v>
@@ -7002,7 +7005,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s">
         <v>215</v>
@@ -7010,15 +7013,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>141</v>
+      <c r="A70" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
@@ -7026,15 +7029,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>259</v>
+      <c r="A72" t="s">
+        <v>109</v>
       </c>
       <c r="B72" t="s">
         <v>218</v>
@@ -7042,7 +7045,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
         <v>233</v>
@@ -7050,7 +7053,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B74" t="s">
         <v>41</v>
@@ -7058,7 +7061,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -7066,7 +7069,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="B76" t="s">
         <v>21</v>
@@ -7074,7 +7077,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
         <v>267</v>
@@ -7082,7 +7085,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -7090,7 +7093,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B79" t="s">
         <v>23</v>
@@ -7098,7 +7101,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="B80" t="s">
         <v>24</v>
@@ -7106,7 +7109,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="B81" t="s">
         <v>223</v>
@@ -7114,7 +7117,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="B82" t="s">
         <v>25</v>
@@ -7122,7 +7125,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B83" t="s">
         <v>221</v>
@@ -7130,7 +7133,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="B84" t="s">
         <v>236</v>
@@ -7138,7 +7141,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B85" t="s">
         <v>205</v>
@@ -7146,7 +7149,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="B86" t="s">
         <v>225</v>
@@ -7154,7 +7157,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B87" t="s">
         <v>222</v>
@@ -7162,7 +7165,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c r="B88" t="s">
         <v>268</v>
@@ -7170,7 +7173,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
@@ -7178,7 +7181,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B90" t="s">
         <v>227</v>
@@ -7186,7 +7189,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B91" t="s">
         <v>262</v>
@@ -7194,7 +7197,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
         <v>204</v>
@@ -7202,7 +7205,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="B93" t="s">
         <v>61</v>
@@ -7210,7 +7213,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>159</v>
+        <v>2021</v>
       </c>
       <c r="B94" t="s">
         <v>237</v>
@@ -7218,7 +7221,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
         <v>27</v>
@@ -7226,7 +7229,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>2021</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
         <v>238</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
         <v>115</v>
@@ -7242,7 +7245,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B98" t="s">
         <v>28</v>
@@ -7250,7 +7253,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>2024</v>
       </c>
       <c r="B99" t="s">
         <v>239</v>
@@ -7258,7 +7261,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="B100" t="s">
         <v>35</v>
@@ -7266,7 +7269,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>2024</v>
+        <v>62</v>
       </c>
       <c r="B101" t="s">
         <v>211</v>
@@ -7274,7 +7277,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B102" t="s">
         <v>29</v>
@@ -7282,7 +7285,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
         <v>240</v>
@@ -7290,7 +7293,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B104" t="s">
         <v>48</v>
@@ -7298,7 +7301,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B105" t="s">
         <v>30</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B106" t="s">
         <v>202</v>
@@ -7314,7 +7317,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="B107" t="s">
         <v>34</v>
@@ -7322,7 +7325,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B108" t="s">
         <v>2023</v>
@@ -7330,7 +7333,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="B109" t="s">
         <v>31</v>
@@ -7338,329 +7341,322 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="B110" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>131</v>
+      <c r="A111" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B111" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>89</v>
+      <c r="A112" s="6" t="s">
+        <v>2020</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
-        <v>260</v>
+      <c r="A113" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="6" t="s">
-        <v>2020</v>
+      <c r="A114" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>199</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>64</v>
+        <v>246</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>244</v>
+        <v>83</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>74</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>182</v>
+      <c r="A141" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>2014</v>
+        <v>67</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="2" t="s">
-        <v>257</v>
+      <c r="A143" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>121</v>
+        <v>261</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>261</v>
+        <v>133</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>264</v>
+        <v>126</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>128</v>
+      <c r="A171" s="2" t="s">
+        <v>2022</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" s="2" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
         <v>254</v>
       </c>
     </row>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -6373,7 +6373,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="B2:E127" headerRowCount="0" totalsRowShown="0">
   <sortState ref="B2:C127">
-    <sortCondition ref="B115"/>
+    <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Column1"/>
@@ -6648,9 +6648,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6670,7 +6670,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -6686,7 +6686,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -6710,7 +6710,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -6718,7 +6718,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -6726,7 +6726,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -6742,7 +6742,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -6758,7 +6758,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -6766,7 +6766,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -6774,7 +6774,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -6782,7 +6782,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -6798,7 +6798,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -6854,7 +6854,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
@@ -6862,7 +6862,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>50</v>
@@ -6870,7 +6870,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
         <v>54</v>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
         <v>56</v>
@@ -6894,7 +6894,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
         <v>60</v>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
         <v>62</v>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>66</v>
@@ -6934,7 +6934,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
         <v>68</v>
@@ -6942,7 +6942,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
         <v>70</v>
@@ -6950,7 +6950,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
         <v>74</v>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
         <v>76</v>
@@ -6974,15 +6974,15 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>85</v>
+      <c r="A41" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B41" t="s">
         <v>80</v>
@@ -6990,15 +6990,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>89</v>
+      <c r="A43" t="s">
+        <v>93</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
@@ -7006,7 +7006,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
         <v>86</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
         <v>90</v>
@@ -7030,7 +7030,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -7038,804 +7038,800 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>129</v>
+      <c r="A63" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>133</v>
+      <c r="A65" t="s">
+        <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B97" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B102" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B103" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B105" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>219</v>
+      </c>
+      <c r="B106" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>211</v>
-      </c>
-      <c r="B104" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>213</v>
-      </c>
-      <c r="B105" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B106" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B107" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B108" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B109" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B113" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>222</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>232</v>
+        <v>234</v>
+      </c>
+      <c r="B117" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>233</v>
+        <v>235</v>
+      </c>
+      <c r="B118" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C127" s="4"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>248</v>
+      <c r="A133" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="2" t="s">
-        <v>250</v>
+      <c r="A135" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>278</v>
+      <c r="A163" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
         <v>281</v>
       </c>
     </row>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="2027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="2028">
   <si>
     <t>WANT</t>
   </si>
@@ -6106,6 +6106,9 @@
   </si>
   <si>
     <t>Zot!</t>
+  </si>
+  <si>
+    <t>Rick Sealock</t>
   </si>
 </sst>
 </file>
@@ -6383,7 +6386,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="B2:E127" headerRowCount="0" totalsRowShown="0">
   <sortState ref="B2:C127">
-    <sortCondition ref="B121"/>
+    <sortCondition ref="B122"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Column1"/>
@@ -6661,7 +6664,7 @@
   <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7491,7 +7494,7 @@
         <v>206</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -7499,7 +7502,7 @@
         <v>208</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -7507,7 +7510,7 @@
         <v>210</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -7515,7 +7518,7 @@
         <v>212</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -7523,7 +7526,7 @@
         <v>214</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -7531,7 +7534,7 @@
         <v>216</v>
       </c>
       <c r="B108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -7539,7 +7542,7 @@
         <v>218</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -7547,7 +7550,7 @@
         <v>220</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -7555,7 +7558,7 @@
         <v>222</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -7563,7 +7566,7 @@
         <v>224</v>
       </c>
       <c r="B112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -7571,7 +7574,7 @@
         <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -7579,7 +7582,7 @@
         <v>228</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -7587,7 +7590,7 @@
         <v>230</v>
       </c>
       <c r="B115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -7595,7 +7598,7 @@
         <v>232</v>
       </c>
       <c r="B116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -7603,7 +7606,7 @@
         <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -7611,7 +7614,7 @@
         <v>236</v>
       </c>
       <c r="B118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -7619,7 +7622,7 @@
         <v>238</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -7627,7 +7630,7 @@
         <v>240</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -7635,13 +7638,16 @@
         <v>241</v>
       </c>
       <c r="B121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>242</v>
       </c>
+      <c r="B122" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
@@ -7845,6 +7851,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A162">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -6664,7 +6664,7 @@
   <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6682,9 +6682,6 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -7652,6 +7649,9 @@
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>243</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -6386,7 +6386,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="B2:E127" headerRowCount="0" totalsRowShown="0">
   <sortState ref="B2:C127">
-    <sortCondition ref="B122"/>
+    <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Column1"/>
@@ -6661,10 +6661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6682,13 +6682,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -6696,7 +6699,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -6712,7 +6715,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -6720,7 +6723,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -6728,7 +6731,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -6736,7 +6739,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -6744,7 +6747,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -6752,7 +6755,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -6760,7 +6763,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -6768,7 +6771,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -6776,7 +6779,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -6784,7 +6787,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -6792,7 +6795,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -6800,7 +6803,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -6808,7 +6811,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -6816,7 +6819,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -6824,7 +6827,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -6832,7 +6835,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
@@ -6840,7 +6843,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
@@ -6848,7 +6851,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -6864,7 +6867,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -6872,7 +6875,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -6880,7 +6883,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>53</v>
@@ -6888,7 +6891,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
@@ -6896,7 +6899,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
@@ -6904,7 +6907,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -6912,7 +6915,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
@@ -6920,7 +6923,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
@@ -6928,7 +6931,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
@@ -6936,7 +6939,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -6944,7 +6947,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
@@ -6952,7 +6955,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
@@ -6960,23 +6963,23 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>76</v>
+      <c r="A38" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>78</v>
+      <c r="A39" t="s">
+        <v>80</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
@@ -6984,7 +6987,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
@@ -6992,7 +6995,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
@@ -7000,7 +7003,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
@@ -7008,7 +7011,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
@@ -7016,7 +7019,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
@@ -7024,7 +7027,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
@@ -7032,7 +7035,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
@@ -7040,7 +7043,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
@@ -7048,7 +7051,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
         <v>95</v>
@@ -7056,7 +7059,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
         <v>97</v>
@@ -7064,7 +7067,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
@@ -7072,7 +7075,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
@@ -7080,7 +7083,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
@@ -7088,7 +7091,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
@@ -7096,7 +7099,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
         <v>107</v>
@@ -7104,7 +7107,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>109</v>
@@ -7112,7 +7115,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -7120,7 +7123,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
         <v>111</v>
@@ -7128,725 +7131,720 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>120</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B61" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B100" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>202</v>
-      </c>
-      <c r="B101" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B103" t="s">
-        <v>2027</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C127" s="5"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>250</v>
+      <c r="A130" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="2" t="s">
-        <v>251</v>
+      <c r="A131" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>280</v>
+      <c r="A160" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+      <c r="A161" t="s">
         <v>282</v>
       </c>
     </row>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -6663,8 +6663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6682,9 +6682,6 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -7660,6 +7657,9 @@
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>245</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -6384,9 +6384,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="B2:E127" headerRowCount="0" totalsRowShown="0">
-  <sortState ref="B2:C127">
-    <sortCondition ref="B2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="B2:E177" headerRowCount="0" totalsRowShown="0">
+  <sortState ref="B2:C156">
+    <sortCondition ref="B125"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Column1"/>
@@ -6661,11 +6661,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6682,13 +6680,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -6696,7 +6697,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -6704,7 +6705,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -6712,7 +6713,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -6720,7 +6721,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -6728,7 +6729,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -6736,7 +6737,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -6744,7 +6745,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -6752,7 +6753,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -6760,7 +6761,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -6768,7 +6769,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -6776,7 +6777,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -6784,7 +6785,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -6792,7 +6793,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -6800,7 +6801,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -6808,7 +6809,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -6816,7 +6817,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -6824,7 +6825,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -6832,7 +6833,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
@@ -6840,7 +6841,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
@@ -6848,7 +6849,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
@@ -6856,7 +6857,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -6864,7 +6865,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -6872,7 +6873,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -6880,7 +6881,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>53</v>
@@ -6888,7 +6889,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
@@ -6896,7 +6897,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
@@ -6904,7 +6905,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -6912,7 +6913,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
@@ -6920,7 +6921,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
@@ -6928,7 +6929,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
@@ -6936,7 +6937,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -6944,15 +6945,15 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>74</v>
+      <c r="A36" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
@@ -6960,15 +6961,15 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>78</v>
+      <c r="A38" t="s">
+        <v>82</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
@@ -6976,7 +6977,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
@@ -6984,7 +6985,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
@@ -6992,7 +6993,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
@@ -7000,7 +7001,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
@@ -7008,7 +7009,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
@@ -7016,7 +7017,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
@@ -7024,7 +7025,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
@@ -7032,7 +7033,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
@@ -7040,7 +7041,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
@@ -7048,7 +7049,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
         <v>95</v>
@@ -7056,7 +7057,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
         <v>97</v>
@@ -7064,7 +7065,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
@@ -7072,7 +7073,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
@@ -7080,7 +7081,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
@@ -7088,7 +7089,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
@@ -7096,7 +7097,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B54" t="s">
         <v>107</v>
@@ -7104,7 +7105,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>109</v>
@@ -7112,7 +7113,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -7120,15 +7121,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>118</v>
+      <c r="A58" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
@@ -7136,720 +7137,715 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B83" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B90" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B94" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B95" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B97" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B98" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>200</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>202</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B101" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B102" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B104" t="s">
-        <v>2027</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B106" t="s">
-        <v>205</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B107" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B108" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B109" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B110" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B111" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B112" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>232</v>
+      </c>
+      <c r="B113" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>234</v>
+      </c>
+      <c r="B114" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>228</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>236</v>
+      </c>
+      <c r="B115" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>230</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>232</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>234</v>
-      </c>
-      <c r="B116" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>236</v>
-      </c>
-      <c r="B117" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>242</v>
+      </c>
+      <c r="B119" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>238</v>
-      </c>
-      <c r="B118" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>243</v>
+      </c>
+      <c r="B120" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>240</v>
-      </c>
-      <c r="B119" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>244</v>
+      </c>
+      <c r="B121" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>241</v>
-      </c>
-      <c r="B120" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>242</v>
-      </c>
-      <c r="B121" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>246</v>
+      </c>
+      <c r="B123" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>243</v>
-      </c>
-      <c r="B122" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>244</v>
-      </c>
-      <c r="B123" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>245</v>
-      </c>
-      <c r="B124" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>248</v>
-      </c>
-      <c r="C127" s="5"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="2" t="s">
-        <v>251</v>
+      <c r="A130" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>279</v>
+      <c r="A158" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
         <v>282</v>
       </c>
     </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C177" s="5"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:A162">
+  <sortState ref="A2:A161">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -1143,7 +1143,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C2:F177" headerRowCount="0" totalsRowShown="0">
   <sortState ref="C2:D177">
-    <sortCondition ref="C128"/>
+    <sortCondition ref="C129"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Column1"/>
@@ -1421,7 +1421,7 @@
   <dimension ref="A1:D177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
         <v>49</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
         <v>51</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>53</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>55</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
         <v>57</v>
@@ -1667,23 +1667,23 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>60</v>
+      <c r="A31" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>62</v>
+      <c r="A32" t="s">
+        <v>64</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -1692,7 +1692,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
         <v>67</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
         <v>69</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
         <v>71</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
         <v>73</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
         <v>75</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
         <v>77</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
         <v>79</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
         <v>81</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
         <v>83</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
         <v>85</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
         <v>87</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
         <v>89</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
         <v>91</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
         <v>93</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
         <v>95</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
         <v>97</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
         <v>99</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
         <v>101</v>
@@ -1844,23 +1844,23 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>104</v>
+      <c r="A53" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C53" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>106</v>
+      <c r="A54" t="s">
+        <v>108</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
@@ -1869,7 +1869,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>109</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
         <v>111</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
         <v>113</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
         <v>115</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
         <v>117</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s">
         <v>119</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
         <v>121</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
         <v>123</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>125</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -1949,659 +1949,660 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>186</v>
-      </c>
-      <c r="C94" t="s">
-        <v>185</v>
-      </c>
-    </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
-        <v>188</v>
+      <c r="A95" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="6" t="s">
-        <v>190</v>
+      <c r="A96" t="s">
+        <v>192</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C122" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C123" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>244</v>
-      </c>
-      <c r="C123" t="s">
-        <v>243</v>
-      </c>
-    </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="3" t="s">
-        <v>246</v>
+      <c r="A124" t="s">
+        <v>248</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C128" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>256</v>
+      </c>
+      <c r="C129" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>279</v>
+      <c r="A153" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="3" t="s">
-        <v>280</v>
+      <c r="A154" t="s">
+        <v>281</v>
       </c>
       <c r="B154" s="3"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D177" s="7"/>
     </row>
   </sheetData>
+  <sortState ref="A2:A155">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Creators" sheetId="1" r:id="rId1"/>
+    <sheet name="Dark Horse" sheetId="2" r:id="rId2"/>
+    <sheet name="Image" sheetId="3" r:id="rId3"/>
+    <sheet name="PC" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="319">
   <si>
     <t>WANT</t>
   </si>
@@ -873,6 +876,114 @@
   </si>
   <si>
     <t>Earl Norem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Folio </t>
+  </si>
+  <si>
+    <t>Alien Worlds</t>
+  </si>
+  <si>
+    <t>Berni Wrightson: Master of the Macabre</t>
+  </si>
+  <si>
+    <t>Bold Adventure</t>
+  </si>
+  <si>
+    <t>Captain Victory and the Galactic Rangers</t>
+  </si>
+  <si>
+    <t>A Corben Special</t>
+  </si>
+  <si>
+    <t>Darklon the Mystic</t>
+  </si>
+  <si>
+    <t>Demon Dreams</t>
+  </si>
+  <si>
+    <t>Edge of Chaos</t>
+  </si>
+  <si>
+    <t>Elric</t>
+  </si>
+  <si>
+    <t>Famous Movie Stars of the 30's</t>
+  </si>
+  <si>
+    <t>Ghita of Alizarr</t>
+  </si>
+  <si>
+    <t>Groo the Wanderer</t>
+  </si>
+  <si>
+    <t>Heroes of Sports</t>
+  </si>
+  <si>
+    <t>Jerry Iger's Famous Features</t>
+  </si>
+  <si>
+    <t>Ms. Mystic</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Pacific Presents</t>
+  </si>
+  <si>
+    <t>Pathways to Fantasy</t>
+  </si>
+  <si>
+    <t>Planet Comics</t>
+  </si>
+  <si>
+    <t>Ravens and Rainbows</t>
+  </si>
+  <si>
+    <t>Silver Star</t>
+  </si>
+  <si>
+    <t>Silverheels</t>
+  </si>
+  <si>
+    <t>Skateman</t>
+  </si>
+  <si>
+    <t>Somerset Holmes</t>
+  </si>
+  <si>
+    <t>Starslayer</t>
+  </si>
+  <si>
+    <t>Sun Runners</t>
+  </si>
+  <si>
+    <t>Three Dimensional Alien Worlds</t>
+  </si>
+  <si>
+    <t>Thrillogy</t>
+  </si>
+  <si>
+    <t>Twisted Tales</t>
+  </si>
+  <si>
+    <t>Vanguard Illustrated</t>
+  </si>
+  <si>
+    <t>Vanity</t>
+  </si>
+  <si>
+    <t>Wild Animals</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Art of Al Williamson</t>
+  </si>
+  <si>
+    <t>Complete Rog 2000</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2609,4 +2720,377 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1">
+        <v>1984</v>
+      </c>
+      <c r="C1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2">
+        <v>1982</v>
+      </c>
+      <c r="C2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3">
+        <v>1983</v>
+      </c>
+      <c r="C3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4">
+        <v>1983</v>
+      </c>
+      <c r="C4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5">
+        <v>1983</v>
+      </c>
+      <c r="C5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6">
+        <v>1981</v>
+      </c>
+      <c r="C6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7">
+        <v>1982</v>
+      </c>
+      <c r="C7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8">
+        <v>1984</v>
+      </c>
+      <c r="C8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9">
+        <v>1983</v>
+      </c>
+      <c r="C9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15">
+        <v>1982</v>
+      </c>
+      <c r="C15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19">
+        <v>1977</v>
+      </c>
+      <c r="C19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B22">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24">
+        <v>1983</v>
+      </c>
+      <c r="C24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25">
+        <v>1983</v>
+      </c>
+      <c r="C25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>306</v>
+      </c>
+      <c r="B26">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B27">
+        <v>1983</v>
+      </c>
+      <c r="C27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>308</v>
+      </c>
+      <c r="B28">
+        <v>1982</v>
+      </c>
+      <c r="C28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>309</v>
+      </c>
+      <c r="B29">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B30">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>311</v>
+      </c>
+      <c r="B31">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>312</v>
+      </c>
+      <c r="B32">
+        <v>1982</v>
+      </c>
+      <c r="C32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B33">
+        <v>1983</v>
+      </c>
+      <c r="C33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>314</v>
+      </c>
+      <c r="B34">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>315</v>
+      </c>
+      <c r="B35">
+        <v>1982</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Creators" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="319">
   <si>
     <t>WANT</t>
   </si>
@@ -1531,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2750,8 +2750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2865,6 +2865,9 @@
       <c r="B10">
         <v>1984</v>
       </c>
+      <c r="C10" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -2873,6 +2876,9 @@
       <c r="B11">
         <v>1983</v>
       </c>
+      <c r="C11" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -2880,6 +2886,9 @@
       </c>
       <c r="B12">
         <v>1983</v>
+      </c>
+      <c r="C12" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Creators" sheetId="1" r:id="rId1"/>
     <sheet name="Dark Horse" sheetId="2" r:id="rId2"/>
     <sheet name="Image" sheetId="3" r:id="rId3"/>
     <sheet name="PC" sheetId="4" r:id="rId4"/>
+    <sheet name="Warren" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="341">
   <si>
     <t>WANT</t>
   </si>
@@ -984,6 +985,72 @@
   </si>
   <si>
     <t>Complete Rog 2000</t>
+  </si>
+  <si>
+    <t>Blazing Combat</t>
+  </si>
+  <si>
+    <t>Comix International</t>
+  </si>
+  <si>
+    <t>Creepy</t>
+  </si>
+  <si>
+    <t>Dracula</t>
+  </si>
+  <si>
+    <t>Eerie</t>
+  </si>
+  <si>
+    <t>Famous Monsters of Filmland</t>
+  </si>
+  <si>
+    <t>Galactic Wars Comix</t>
+  </si>
+  <si>
+    <t>The Goblin</t>
+  </si>
+  <si>
+    <t>Hanna-Barbera The Flintstones at the New York World's Fair</t>
+  </si>
+  <si>
+    <t>Help!</t>
+  </si>
+  <si>
+    <t>Monster World</t>
+  </si>
+  <si>
+    <t>Mr. Chips and the Mystery of the Chocolate Mountain</t>
+  </si>
+  <si>
+    <t>The Odd Comic World of Richard Corben</t>
+  </si>
+  <si>
+    <t>The Rook Magazine</t>
+  </si>
+  <si>
+    <t>The Spirit</t>
+  </si>
+  <si>
+    <t>The Spirit Special</t>
+  </si>
+  <si>
+    <t>Teen Love Stories</t>
+  </si>
+  <si>
+    <t>U.F.O. and Alien Comix</t>
+  </si>
+  <si>
+    <t>Vampirella</t>
+  </si>
+  <si>
+    <t>Warren Presents</t>
+  </si>
+  <si>
+    <t>Warren Presents: Future World Comix</t>
+  </si>
+  <si>
+    <t>Warren Presents: Star Quest Comix</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1211,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1154,6 +1221,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1531,7 +1601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3102,4 +3172,224 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="54.08984375" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="8">
+        <v>1984</v>
+      </c>
+      <c r="B1" s="8">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>1994</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1964</v>
+      </c>
+      <c r="C5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1966</v>
+      </c>
+      <c r="C7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>337</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1969</v>
+      </c>
+      <c r="C21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>338</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>340</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1978</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="342">
   <si>
     <t>WANT</t>
   </si>
@@ -762,9 +762,6 @@
     <t>Wally Wood</t>
   </si>
   <si>
-    <t>Richard Pryor</t>
-  </si>
-  <si>
     <t>Walter Simonson</t>
   </si>
   <si>
@@ -1051,6 +1048,12 @@
   </si>
   <si>
     <t>Warren Presents: Star Quest Comix</t>
+  </si>
+  <si>
+    <t>Rich Larson</t>
+  </si>
+  <si>
+    <t>Steve Fastner</t>
   </si>
 </sst>
 </file>
@@ -1601,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1680,7 +1683,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -2588,7 +2591,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="C122" t="s">
         <v>239</v>
@@ -2596,7 +2599,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C123" t="s">
         <v>241</v>
@@ -2604,7 +2607,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
@@ -2613,176 +2616,181 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C125" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C126" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C128" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C129" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="3" t="s">
+      <c r="B154" s="3"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>281</v>
-      </c>
-      <c r="B154" s="3"/>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D177" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A2:A155">
-    <sortCondition ref="A2"/>
+    <sortCondition ref="A155"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2831,139 +2839,139 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B1">
         <v>1984</v>
       </c>
       <c r="C1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2">
         <v>1982</v>
       </c>
       <c r="C2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B3">
         <v>1983</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4">
         <v>1983</v>
       </c>
       <c r="C4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5">
         <v>1983</v>
       </c>
       <c r="C5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6">
         <v>1981</v>
       </c>
       <c r="C6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B7">
         <v>1982</v>
       </c>
       <c r="C7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B8">
         <v>1984</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B9">
         <v>1983</v>
       </c>
       <c r="C9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10">
         <v>1984</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B11">
         <v>1983</v>
       </c>
       <c r="C11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B12">
         <v>1983</v>
       </c>
       <c r="C12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B13">
         <v>1984</v>
@@ -2971,7 +2979,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B14">
         <v>1983</v>
@@ -2979,18 +2987,18 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B15">
         <v>1982</v>
       </c>
       <c r="C15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B16">
         <v>1984</v>
@@ -2998,7 +3006,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B17">
         <v>1984</v>
@@ -3006,7 +3014,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B18">
         <v>1982</v>
@@ -3014,18 +3022,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B19">
         <v>1977</v>
       </c>
       <c r="C19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B20">
         <v>1982</v>
@@ -3033,7 +3041,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B21">
         <v>1984</v>
@@ -3041,7 +3049,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B22">
         <v>1984</v>
@@ -3049,7 +3057,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B23">
         <v>1983</v>
@@ -3057,29 +3065,29 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B24">
         <v>1983</v>
       </c>
       <c r="C24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B25">
         <v>1983</v>
       </c>
       <c r="C25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B26">
         <v>1983</v>
@@ -3087,29 +3095,29 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B27">
         <v>1983</v>
       </c>
       <c r="C27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B28">
         <v>1982</v>
       </c>
       <c r="C28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B29">
         <v>1984</v>
@@ -3117,7 +3125,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B30">
         <v>1984</v>
@@ -3125,7 +3133,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B31">
         <v>1984</v>
@@ -3133,29 +3141,29 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B32">
         <v>1982</v>
       </c>
       <c r="C32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B33">
         <v>1983</v>
       </c>
       <c r="C33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B34">
         <v>1984</v>
@@ -3163,7 +3171,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B35">
         <v>1982</v>
@@ -3178,8 +3186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3195,6 +3203,9 @@
       <c r="B1" s="8">
         <v>1978</v>
       </c>
+      <c r="C1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
@@ -3203,10 +3214,13 @@
       <c r="B2" s="8">
         <v>1980</v>
       </c>
+      <c r="C2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="8">
         <v>1965</v>
@@ -3214,7 +3228,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B4" s="8">
         <v>1974</v>
@@ -3222,18 +3236,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B5" s="8">
         <v>1964</v>
       </c>
       <c r="C5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="8">
         <v>1972</v>
@@ -3241,18 +3255,18 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B7" s="8">
         <v>1966</v>
       </c>
       <c r="C7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8" s="8">
         <v>1958</v>
@@ -3260,7 +3274,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9" s="8">
         <v>1978</v>
@@ -3268,7 +3282,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B10" s="8">
         <v>1982</v>
@@ -3276,7 +3290,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B11" s="8">
         <v>1964</v>
@@ -3284,7 +3298,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B12" s="8">
         <v>1960</v>
@@ -3292,7 +3306,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B13" s="8">
         <v>1964</v>
@@ -3300,7 +3314,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B14" s="8">
         <v>1965</v>
@@ -3308,7 +3322,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B15" s="8">
         <v>1977</v>
@@ -3316,7 +3330,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B16" s="8">
         <v>1979</v>
@@ -3324,7 +3338,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B17" s="8">
         <v>1974</v>
@@ -3332,7 +3346,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B18" s="8">
         <v>1975</v>
@@ -3340,7 +3354,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B19" s="8">
         <v>1967</v>
@@ -3348,7 +3362,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B20" s="8">
         <v>1977</v>
@@ -3356,18 +3370,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B21" s="8">
         <v>1969</v>
       </c>
       <c r="C21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B22" s="8">
         <v>1979</v>
@@ -3375,7 +3389,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B23" s="8">
         <v>1978</v>
@@ -3383,7 +3397,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B24" s="8">
         <v>1978</v>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="342">
   <si>
     <t>WANT</t>
   </si>
@@ -3187,7 +3187,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3225,6 +3225,9 @@
       <c r="B3" s="8">
         <v>1965</v>
       </c>
+      <c r="C3" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="342">
   <si>
     <t xml:space="preserve">WANT</t>
   </si>
@@ -3028,12 +3028,12 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.54"/>
   </cols>
@@ -3190,6 +3190,9 @@
       </c>
       <c r="B17" s="7" t="n">
         <v>1974</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="770" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Creators" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Vertigo" sheetId="7" r:id="rId8"/>
     <sheet name="Warren" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="1949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1948">
   <si>
     <t>WANT</t>
   </si>
@@ -4676,9 +4676,6 @@
   </si>
   <si>
     <t>Wild Animals</t>
-  </si>
-  <si>
-    <t>100%</t>
   </si>
   <si>
     <t>100 Bullets</t>
@@ -6041,7 +6038,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -6061,6 +6058,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent 1 5" xfId="1"/>
@@ -7620,9 +7620,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7631,11 +7634,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -8649,7 +8656,7 @@
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
@@ -8734,10 +8741,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -13894,7 +13901,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -14124,10 +14134,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -14144,7 +14154,10 @@
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -14504,16 +14517,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A382"/>
+  <dimension ref="A1:B382"/>
   <sheetViews>
-    <sheetView topLeftCell="A325" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14522,89 +14538,104 @@
     <col min="2" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="11">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="B2" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="B3" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="B4" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="B5" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>1553</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>1554</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>1555</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>1556</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>1559</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>1562</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
@@ -14614,757 +14645,757 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="8" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="8" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="8" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="8" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="8" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="8" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="8" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="8" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="8" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="8" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
@@ -15374,1268 +15405,1267 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="8" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="8" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="8" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="8" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="8" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="8" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="8" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="8" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="8" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="8" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" s="8" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" s="8" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" s="8" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="8" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" s="8" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" s="8" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" s="8" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" s="8" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" s="8" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" s="8" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" s="8" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" s="8" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" s="8" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" s="8" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" s="8" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" s="8" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" s="8" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" s="9" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" s="8" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" s="8" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" s="8" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" s="8" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" s="8" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" s="8" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" s="8" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" s="8" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" s="8" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" s="8" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" s="8" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" s="8" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" s="8" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" s="8" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" s="8" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" s="8" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" s="8" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" s="8" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" s="8" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" s="8" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" s="8" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" s="8" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="8" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="8" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="8" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="8" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="8" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="8" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" s="8" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" s="8" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" s="8" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" s="8" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" s="8" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" s="8" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" s="8" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" s="8" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" s="8" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" s="8" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" s="8" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" s="8" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" s="8" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" s="8" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" s="8" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" s="9" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" s="9" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" s="8" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" s="8" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" s="8" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" s="8" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" s="8" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" s="8" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" s="8" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" s="8" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" s="8" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" s="8" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" s="8" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" s="8" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" s="8" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" s="8" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" s="8" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" s="8" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A264" s="8" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" s="8" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" s="8" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" s="8" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" s="8" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" s="8" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" s="8" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" s="8" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" s="8" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" s="8" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" s="8" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" s="8" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" s="8" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" s="8" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" s="8" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" s="8" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" s="8" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" s="8" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282" s="8" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283" s="8" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284" s="8" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285" s="8" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286" s="8" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287" s="8" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" s="8" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289" s="8" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290" s="8" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291" s="8" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292" s="8" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293" s="8" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294" s="8" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295" s="8" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296" s="8" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297" s="8" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298" s="8" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299" s="8" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300" s="8" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301" s="8" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302" s="8" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303" s="8" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304" s="8" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305" s="8" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306" s="8" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307" s="8" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308" s="8" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309" s="8" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310" s="8" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311" s="8" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312" s="8" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313" s="8" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314" s="8" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315" s="8" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316" s="8" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317" s="8" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318" s="8" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319" s="8" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320" s="8" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321" s="8" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322" s="8" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323" s="8" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324" s="8" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A325" s="8" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A326" s="8" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327" s="8" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A328" s="8" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A329" s="10" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A330" s="8" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A331" s="8" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A332" s="8" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A333" s="8" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A334" s="8" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A335" s="8" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A336" s="8" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337" s="8" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338" s="8" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339" s="8" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340" s="8" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342" s="8" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343" s="8" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344" s="8" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345" s="8" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346" s="8" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347" s="8" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A348" s="8" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A349" s="8" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A350" s="8" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A351" s="8" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352" s="8" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A353" s="8" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A354" s="8" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A355" s="8" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A356" s="8" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A357" s="8" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A358" s="8" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A359" s="8" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A360" s="8" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A361" s="8" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A362" s="8" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A363" s="8" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A364" s="8" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A365" s="8" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A366" s="8" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A367" s="8" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A368" s="8" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369" s="8" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370" s="8" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371" s="8" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372" s="8" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373" s="8" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374" s="8" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375" s="8" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376" s="8" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377" s="8" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378" s="8" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379" s="8" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380" s="8" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381" s="8" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382" s="8" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3" location="Brother_Lono"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5"/>
-    <hyperlink ref="A12" r:id="rId6"/>
-    <hyperlink ref="A13" r:id="rId7"/>
-    <hyperlink ref="A14" r:id="rId8"/>
-    <hyperlink ref="A15" r:id="rId9"/>
-    <hyperlink ref="A16" r:id="rId10"/>
-    <hyperlink ref="A17" r:id="rId11"/>
-    <hyperlink ref="A18" r:id="rId12"/>
-    <hyperlink ref="A19" r:id="rId13"/>
-    <hyperlink ref="A20" r:id="rId14"/>
-    <hyperlink ref="A21" r:id="rId15"/>
-    <hyperlink ref="A22" r:id="rId16"/>
-    <hyperlink ref="A23" r:id="rId17"/>
-    <hyperlink ref="A24" r:id="rId18"/>
-    <hyperlink ref="A25" r:id="rId19"/>
-    <hyperlink ref="A26" r:id="rId20"/>
-    <hyperlink ref="A27" r:id="rId21"/>
-    <hyperlink ref="A28" r:id="rId22"/>
-    <hyperlink ref="A29" r:id="rId23"/>
-    <hyperlink ref="A30" r:id="rId24"/>
-    <hyperlink ref="A31" r:id="rId25"/>
-    <hyperlink ref="A32" r:id="rId26"/>
-    <hyperlink ref="A35" r:id="rId27"/>
-    <hyperlink ref="A36" r:id="rId28"/>
-    <hyperlink ref="A38" r:id="rId29"/>
-    <hyperlink ref="A40" r:id="rId30"/>
-    <hyperlink ref="A41" r:id="rId31"/>
-    <hyperlink ref="A43" r:id="rId32"/>
-    <hyperlink ref="A45" r:id="rId33"/>
-    <hyperlink ref="A48" r:id="rId34"/>
-    <hyperlink ref="A49" r:id="rId35"/>
-    <hyperlink ref="A50" r:id="rId36"/>
-    <hyperlink ref="A52" r:id="rId37"/>
-    <hyperlink ref="A53" r:id="rId38"/>
-    <hyperlink ref="A54" r:id="rId39"/>
-    <hyperlink ref="A55" r:id="rId40"/>
-    <hyperlink ref="A56" r:id="rId41"/>
-    <hyperlink ref="A57" r:id="rId42"/>
-    <hyperlink ref="A58" r:id="rId43"/>
-    <hyperlink ref="A59" r:id="rId44"/>
-    <hyperlink ref="A60" r:id="rId45"/>
-    <hyperlink ref="A61" r:id="rId46"/>
-    <hyperlink ref="A62" r:id="rId47"/>
-    <hyperlink ref="A65" r:id="rId48"/>
-    <hyperlink ref="A66" r:id="rId49"/>
-    <hyperlink ref="A67" r:id="rId50"/>
-    <hyperlink ref="A69" r:id="rId51"/>
-    <hyperlink ref="A70" r:id="rId52"/>
-    <hyperlink ref="A71" r:id="rId53"/>
-    <hyperlink ref="A73" r:id="rId54"/>
-    <hyperlink ref="A75" r:id="rId55"/>
-    <hyperlink ref="A76" r:id="rId56"/>
-    <hyperlink ref="A77" r:id="rId57" location="Collected_editions"/>
-    <hyperlink ref="A78" r:id="rId58"/>
-    <hyperlink ref="A79" r:id="rId59"/>
-    <hyperlink ref="A80" r:id="rId60"/>
-    <hyperlink ref="A82" r:id="rId61"/>
-    <hyperlink ref="A83" r:id="rId62"/>
-    <hyperlink ref="A84" r:id="rId63"/>
-    <hyperlink ref="A85" r:id="rId64"/>
-    <hyperlink ref="A87" r:id="rId65"/>
-    <hyperlink ref="A91" r:id="rId66"/>
-    <hyperlink ref="A92" r:id="rId67"/>
-    <hyperlink ref="A94" r:id="rId68"/>
-    <hyperlink ref="A95" r:id="rId69"/>
-    <hyperlink ref="A97" r:id="rId70"/>
-    <hyperlink ref="A101" r:id="rId71"/>
-    <hyperlink ref="A102" r:id="rId72"/>
-    <hyperlink ref="A103" r:id="rId73"/>
-    <hyperlink ref="A104" r:id="rId74"/>
-    <hyperlink ref="A111" r:id="rId75"/>
-    <hyperlink ref="A115" r:id="rId76"/>
-    <hyperlink ref="A116" r:id="rId77"/>
-    <hyperlink ref="A117" r:id="rId78"/>
-    <hyperlink ref="A118" r:id="rId79"/>
-    <hyperlink ref="A119" r:id="rId80"/>
-    <hyperlink ref="A121" r:id="rId81"/>
-    <hyperlink ref="A123" r:id="rId82"/>
-    <hyperlink ref="A127" r:id="rId83"/>
-    <hyperlink ref="A130" r:id="rId84"/>
-    <hyperlink ref="A135" r:id="rId85"/>
-    <hyperlink ref="A137" r:id="rId86"/>
-    <hyperlink ref="A138" r:id="rId87"/>
-    <hyperlink ref="A139" r:id="rId88"/>
-    <hyperlink ref="A143" r:id="rId89"/>
-    <hyperlink ref="A144" r:id="rId90"/>
-    <hyperlink ref="A146" r:id="rId91"/>
-    <hyperlink ref="A148" r:id="rId92"/>
-    <hyperlink ref="A150" r:id="rId93"/>
-    <hyperlink ref="A151" r:id="rId94"/>
-    <hyperlink ref="A152" r:id="rId95"/>
-    <hyperlink ref="A153" r:id="rId96"/>
-    <hyperlink ref="A154" r:id="rId97"/>
-    <hyperlink ref="A155" r:id="rId98"/>
-    <hyperlink ref="A156" r:id="rId99"/>
-    <hyperlink ref="A157" r:id="rId100"/>
-    <hyperlink ref="A160" r:id="rId101"/>
-    <hyperlink ref="A161" r:id="rId102"/>
-    <hyperlink ref="A162" r:id="rId103"/>
-    <hyperlink ref="A166" r:id="rId104"/>
-    <hyperlink ref="A168" r:id="rId105"/>
-    <hyperlink ref="A170" r:id="rId106"/>
-    <hyperlink ref="A171" r:id="rId107"/>
-    <hyperlink ref="A175" r:id="rId108"/>
-    <hyperlink ref="A176" r:id="rId109"/>
-    <hyperlink ref="A177" r:id="rId110"/>
-    <hyperlink ref="A179" r:id="rId111"/>
-    <hyperlink ref="A180" r:id="rId112"/>
-    <hyperlink ref="A183" r:id="rId113"/>
-    <hyperlink ref="A185" r:id="rId114"/>
-    <hyperlink ref="A186" r:id="rId115"/>
-    <hyperlink ref="A188" r:id="rId116"/>
-    <hyperlink ref="A190" r:id="rId117"/>
-    <hyperlink ref="A191" r:id="rId118"/>
-    <hyperlink ref="A192" r:id="rId119"/>
-    <hyperlink ref="A193" r:id="rId120"/>
-    <hyperlink ref="A194" r:id="rId121"/>
-    <hyperlink ref="A195" r:id="rId122"/>
-    <hyperlink ref="A198" r:id="rId123"/>
-    <hyperlink ref="A201" r:id="rId124"/>
-    <hyperlink ref="A203" r:id="rId125"/>
-    <hyperlink ref="A204" r:id="rId126"/>
-    <hyperlink ref="A207" r:id="rId127"/>
-    <hyperlink ref="A208" r:id="rId128"/>
-    <hyperlink ref="A209" r:id="rId129"/>
-    <hyperlink ref="A210" r:id="rId130"/>
-    <hyperlink ref="A211" r:id="rId131"/>
-    <hyperlink ref="A215" r:id="rId132"/>
-    <hyperlink ref="A219" r:id="rId133"/>
-    <hyperlink ref="A220" r:id="rId134"/>
-    <hyperlink ref="A222" r:id="rId135"/>
-    <hyperlink ref="A224" r:id="rId136"/>
-    <hyperlink ref="A225" r:id="rId137"/>
-    <hyperlink ref="A226" r:id="rId138"/>
-    <hyperlink ref="A228" r:id="rId139"/>
-    <hyperlink ref="A229" r:id="rId140"/>
-    <hyperlink ref="A230" r:id="rId141"/>
-    <hyperlink ref="A232" r:id="rId142"/>
-    <hyperlink ref="A239" r:id="rId143"/>
-    <hyperlink ref="A240" r:id="rId144"/>
-    <hyperlink ref="A242" r:id="rId145"/>
-    <hyperlink ref="A244" r:id="rId146"/>
-    <hyperlink ref="A249" r:id="rId147"/>
-    <hyperlink ref="A253" r:id="rId148"/>
-    <hyperlink ref="A254" r:id="rId149"/>
-    <hyperlink ref="A256" r:id="rId150"/>
-    <hyperlink ref="A257" r:id="rId151" location="Comic_book_adaptation"/>
-    <hyperlink ref="A258" r:id="rId152"/>
-    <hyperlink ref="A259" r:id="rId153"/>
-    <hyperlink ref="A260" r:id="rId154"/>
-    <hyperlink ref="A263" r:id="rId155"/>
-    <hyperlink ref="A274" r:id="rId156"/>
-    <hyperlink ref="A275" r:id="rId157"/>
-    <hyperlink ref="A276" r:id="rId158"/>
-    <hyperlink ref="A277" r:id="rId159"/>
-    <hyperlink ref="A278" r:id="rId160"/>
-    <hyperlink ref="A279" r:id="rId161"/>
-    <hyperlink ref="A281" r:id="rId162"/>
-    <hyperlink ref="A285" r:id="rId163"/>
-    <hyperlink ref="A286" r:id="rId164"/>
-    <hyperlink ref="A290" r:id="rId165"/>
-    <hyperlink ref="A291" r:id="rId166"/>
-    <hyperlink ref="A295" r:id="rId167"/>
-    <hyperlink ref="A296" r:id="rId168"/>
-    <hyperlink ref="A299" r:id="rId169"/>
-    <hyperlink ref="A301" r:id="rId170"/>
-    <hyperlink ref="A303" r:id="rId171"/>
-    <hyperlink ref="A304" r:id="rId172"/>
-    <hyperlink ref="A309" r:id="rId173"/>
-    <hyperlink ref="A311" r:id="rId174"/>
-    <hyperlink ref="A315" r:id="rId175"/>
-    <hyperlink ref="A317" r:id="rId176"/>
-    <hyperlink ref="A318" r:id="rId177"/>
-    <hyperlink ref="A321" r:id="rId178"/>
-    <hyperlink ref="A322" r:id="rId179"/>
-    <hyperlink ref="A325" r:id="rId180"/>
-    <hyperlink ref="A326" r:id="rId181"/>
-    <hyperlink ref="A329" r:id="rId182"/>
-    <hyperlink ref="A331" r:id="rId183"/>
-    <hyperlink ref="A332" r:id="rId184"/>
-    <hyperlink ref="A335" r:id="rId185"/>
-    <hyperlink ref="A356" r:id="rId186"/>
-    <hyperlink ref="A357" r:id="rId187"/>
-    <hyperlink ref="A358" r:id="rId188"/>
-    <hyperlink ref="A360" r:id="rId189"/>
-    <hyperlink ref="A368" r:id="rId190"/>
-    <hyperlink ref="A369" r:id="rId191"/>
-    <hyperlink ref="A371" r:id="rId192"/>
-    <hyperlink ref="A376" r:id="rId193"/>
-    <hyperlink ref="A378" r:id="rId194"/>
-    <hyperlink ref="A381" r:id="rId195"/>
-    <hyperlink ref="A382" r:id="rId196"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2" location="Brother_Lono"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="A12" r:id="rId5"/>
+    <hyperlink ref="A13" r:id="rId6"/>
+    <hyperlink ref="A14" r:id="rId7"/>
+    <hyperlink ref="A15" r:id="rId8"/>
+    <hyperlink ref="A16" r:id="rId9"/>
+    <hyperlink ref="A17" r:id="rId10"/>
+    <hyperlink ref="A18" r:id="rId11"/>
+    <hyperlink ref="A19" r:id="rId12"/>
+    <hyperlink ref="A20" r:id="rId13"/>
+    <hyperlink ref="A21" r:id="rId14"/>
+    <hyperlink ref="A22" r:id="rId15"/>
+    <hyperlink ref="A23" r:id="rId16"/>
+    <hyperlink ref="A24" r:id="rId17"/>
+    <hyperlink ref="A25" r:id="rId18"/>
+    <hyperlink ref="A26" r:id="rId19"/>
+    <hyperlink ref="A27" r:id="rId20"/>
+    <hyperlink ref="A28" r:id="rId21"/>
+    <hyperlink ref="A29" r:id="rId22"/>
+    <hyperlink ref="A30" r:id="rId23"/>
+    <hyperlink ref="A31" r:id="rId24"/>
+    <hyperlink ref="A32" r:id="rId25"/>
+    <hyperlink ref="A35" r:id="rId26"/>
+    <hyperlink ref="A36" r:id="rId27"/>
+    <hyperlink ref="A38" r:id="rId28"/>
+    <hyperlink ref="A40" r:id="rId29"/>
+    <hyperlink ref="A41" r:id="rId30"/>
+    <hyperlink ref="A43" r:id="rId31"/>
+    <hyperlink ref="A45" r:id="rId32"/>
+    <hyperlink ref="A48" r:id="rId33"/>
+    <hyperlink ref="A49" r:id="rId34"/>
+    <hyperlink ref="A50" r:id="rId35"/>
+    <hyperlink ref="A52" r:id="rId36"/>
+    <hyperlink ref="A53" r:id="rId37"/>
+    <hyperlink ref="A54" r:id="rId38"/>
+    <hyperlink ref="A55" r:id="rId39"/>
+    <hyperlink ref="A56" r:id="rId40"/>
+    <hyperlink ref="A57" r:id="rId41"/>
+    <hyperlink ref="A58" r:id="rId42"/>
+    <hyperlink ref="A59" r:id="rId43"/>
+    <hyperlink ref="A60" r:id="rId44"/>
+    <hyperlink ref="A61" r:id="rId45"/>
+    <hyperlink ref="A62" r:id="rId46"/>
+    <hyperlink ref="A65" r:id="rId47"/>
+    <hyperlink ref="A66" r:id="rId48"/>
+    <hyperlink ref="A67" r:id="rId49"/>
+    <hyperlink ref="A69" r:id="rId50"/>
+    <hyperlink ref="A70" r:id="rId51"/>
+    <hyperlink ref="A71" r:id="rId52"/>
+    <hyperlink ref="A73" r:id="rId53"/>
+    <hyperlink ref="A75" r:id="rId54"/>
+    <hyperlink ref="A76" r:id="rId55"/>
+    <hyperlink ref="A77" r:id="rId56" location="Collected_editions"/>
+    <hyperlink ref="A78" r:id="rId57"/>
+    <hyperlink ref="A79" r:id="rId58"/>
+    <hyperlink ref="A80" r:id="rId59"/>
+    <hyperlink ref="A82" r:id="rId60"/>
+    <hyperlink ref="A83" r:id="rId61"/>
+    <hyperlink ref="A84" r:id="rId62"/>
+    <hyperlink ref="A85" r:id="rId63"/>
+    <hyperlink ref="A87" r:id="rId64"/>
+    <hyperlink ref="A91" r:id="rId65"/>
+    <hyperlink ref="A92" r:id="rId66"/>
+    <hyperlink ref="A94" r:id="rId67"/>
+    <hyperlink ref="A95" r:id="rId68"/>
+    <hyperlink ref="A97" r:id="rId69"/>
+    <hyperlink ref="A101" r:id="rId70"/>
+    <hyperlink ref="A102" r:id="rId71"/>
+    <hyperlink ref="A103" r:id="rId72"/>
+    <hyperlink ref="A104" r:id="rId73"/>
+    <hyperlink ref="A111" r:id="rId74"/>
+    <hyperlink ref="A115" r:id="rId75"/>
+    <hyperlink ref="A116" r:id="rId76"/>
+    <hyperlink ref="A117" r:id="rId77"/>
+    <hyperlink ref="A118" r:id="rId78"/>
+    <hyperlink ref="A119" r:id="rId79"/>
+    <hyperlink ref="A121" r:id="rId80"/>
+    <hyperlink ref="A123" r:id="rId81"/>
+    <hyperlink ref="A127" r:id="rId82"/>
+    <hyperlink ref="A130" r:id="rId83"/>
+    <hyperlink ref="A135" r:id="rId84"/>
+    <hyperlink ref="A137" r:id="rId85"/>
+    <hyperlink ref="A138" r:id="rId86"/>
+    <hyperlink ref="A139" r:id="rId87"/>
+    <hyperlink ref="A143" r:id="rId88"/>
+    <hyperlink ref="A144" r:id="rId89"/>
+    <hyperlink ref="A146" r:id="rId90"/>
+    <hyperlink ref="A148" r:id="rId91"/>
+    <hyperlink ref="A150" r:id="rId92"/>
+    <hyperlink ref="A151" r:id="rId93"/>
+    <hyperlink ref="A152" r:id="rId94"/>
+    <hyperlink ref="A153" r:id="rId95"/>
+    <hyperlink ref="A154" r:id="rId96"/>
+    <hyperlink ref="A155" r:id="rId97"/>
+    <hyperlink ref="A156" r:id="rId98"/>
+    <hyperlink ref="A157" r:id="rId99"/>
+    <hyperlink ref="A160" r:id="rId100"/>
+    <hyperlink ref="A161" r:id="rId101"/>
+    <hyperlink ref="A162" r:id="rId102"/>
+    <hyperlink ref="A166" r:id="rId103"/>
+    <hyperlink ref="A168" r:id="rId104"/>
+    <hyperlink ref="A170" r:id="rId105"/>
+    <hyperlink ref="A171" r:id="rId106"/>
+    <hyperlink ref="A175" r:id="rId107"/>
+    <hyperlink ref="A176" r:id="rId108"/>
+    <hyperlink ref="A177" r:id="rId109"/>
+    <hyperlink ref="A179" r:id="rId110"/>
+    <hyperlink ref="A180" r:id="rId111"/>
+    <hyperlink ref="A183" r:id="rId112"/>
+    <hyperlink ref="A185" r:id="rId113"/>
+    <hyperlink ref="A186" r:id="rId114"/>
+    <hyperlink ref="A188" r:id="rId115"/>
+    <hyperlink ref="A190" r:id="rId116"/>
+    <hyperlink ref="A191" r:id="rId117"/>
+    <hyperlink ref="A192" r:id="rId118"/>
+    <hyperlink ref="A193" r:id="rId119"/>
+    <hyperlink ref="A194" r:id="rId120"/>
+    <hyperlink ref="A195" r:id="rId121"/>
+    <hyperlink ref="A198" r:id="rId122"/>
+    <hyperlink ref="A201" r:id="rId123"/>
+    <hyperlink ref="A203" r:id="rId124"/>
+    <hyperlink ref="A204" r:id="rId125"/>
+    <hyperlink ref="A207" r:id="rId126"/>
+    <hyperlink ref="A208" r:id="rId127"/>
+    <hyperlink ref="A209" r:id="rId128"/>
+    <hyperlink ref="A210" r:id="rId129"/>
+    <hyperlink ref="A211" r:id="rId130"/>
+    <hyperlink ref="A215" r:id="rId131"/>
+    <hyperlink ref="A219" r:id="rId132"/>
+    <hyperlink ref="A220" r:id="rId133"/>
+    <hyperlink ref="A222" r:id="rId134"/>
+    <hyperlink ref="A224" r:id="rId135"/>
+    <hyperlink ref="A225" r:id="rId136"/>
+    <hyperlink ref="A226" r:id="rId137"/>
+    <hyperlink ref="A228" r:id="rId138"/>
+    <hyperlink ref="A229" r:id="rId139"/>
+    <hyperlink ref="A230" r:id="rId140"/>
+    <hyperlink ref="A232" r:id="rId141"/>
+    <hyperlink ref="A239" r:id="rId142"/>
+    <hyperlink ref="A240" r:id="rId143"/>
+    <hyperlink ref="A242" r:id="rId144"/>
+    <hyperlink ref="A244" r:id="rId145"/>
+    <hyperlink ref="A249" r:id="rId146"/>
+    <hyperlink ref="A253" r:id="rId147"/>
+    <hyperlink ref="A254" r:id="rId148"/>
+    <hyperlink ref="A256" r:id="rId149"/>
+    <hyperlink ref="A257" r:id="rId150" location="Comic_book_adaptation"/>
+    <hyperlink ref="A258" r:id="rId151"/>
+    <hyperlink ref="A259" r:id="rId152"/>
+    <hyperlink ref="A260" r:id="rId153"/>
+    <hyperlink ref="A263" r:id="rId154"/>
+    <hyperlink ref="A274" r:id="rId155"/>
+    <hyperlink ref="A275" r:id="rId156"/>
+    <hyperlink ref="A276" r:id="rId157"/>
+    <hyperlink ref="A277" r:id="rId158"/>
+    <hyperlink ref="A278" r:id="rId159"/>
+    <hyperlink ref="A279" r:id="rId160"/>
+    <hyperlink ref="A281" r:id="rId161"/>
+    <hyperlink ref="A285" r:id="rId162"/>
+    <hyperlink ref="A286" r:id="rId163"/>
+    <hyperlink ref="A290" r:id="rId164"/>
+    <hyperlink ref="A291" r:id="rId165"/>
+    <hyperlink ref="A295" r:id="rId166"/>
+    <hyperlink ref="A296" r:id="rId167"/>
+    <hyperlink ref="A299" r:id="rId168"/>
+    <hyperlink ref="A301" r:id="rId169"/>
+    <hyperlink ref="A303" r:id="rId170"/>
+    <hyperlink ref="A304" r:id="rId171"/>
+    <hyperlink ref="A309" r:id="rId172"/>
+    <hyperlink ref="A311" r:id="rId173"/>
+    <hyperlink ref="A315" r:id="rId174"/>
+    <hyperlink ref="A317" r:id="rId175"/>
+    <hyperlink ref="A318" r:id="rId176"/>
+    <hyperlink ref="A321" r:id="rId177"/>
+    <hyperlink ref="A322" r:id="rId178"/>
+    <hyperlink ref="A325" r:id="rId179"/>
+    <hyperlink ref="A326" r:id="rId180"/>
+    <hyperlink ref="A329" r:id="rId181"/>
+    <hyperlink ref="A331" r:id="rId182"/>
+    <hyperlink ref="A332" r:id="rId183"/>
+    <hyperlink ref="A335" r:id="rId184"/>
+    <hyperlink ref="A356" r:id="rId185"/>
+    <hyperlink ref="A357" r:id="rId186"/>
+    <hyperlink ref="A358" r:id="rId187"/>
+    <hyperlink ref="A360" r:id="rId188"/>
+    <hyperlink ref="A368" r:id="rId189"/>
+    <hyperlink ref="A369" r:id="rId190"/>
+    <hyperlink ref="A371" r:id="rId191"/>
+    <hyperlink ref="A376" r:id="rId192"/>
+    <hyperlink ref="A378" r:id="rId193"/>
+    <hyperlink ref="A381" r:id="rId194"/>
+    <hyperlink ref="A382" r:id="rId195"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId196"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -16679,7 +16709,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B3" s="7">
         <v>1965</v>
@@ -16690,7 +16720,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B4" s="7">
         <v>1974</v>
@@ -16701,7 +16731,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B5" s="7">
         <v>1964</v>
@@ -16712,7 +16742,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B6" s="7">
         <v>1972</v>
@@ -16720,7 +16750,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B7" s="7">
         <v>1966</v>
@@ -16731,7 +16761,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B8" s="7">
         <v>1958</v>
@@ -16739,7 +16769,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B9" s="7">
         <v>1978</v>
@@ -16747,7 +16777,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B10" s="7">
         <v>1982</v>
@@ -16755,7 +16785,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B11" s="7">
         <v>1964</v>
@@ -16763,7 +16793,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B12" s="7">
         <v>1960</v>
@@ -16771,7 +16801,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B13" s="7">
         <v>1964</v>
@@ -16779,7 +16809,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B14" s="7">
         <v>1965</v>
@@ -16787,7 +16817,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B15" s="7">
         <v>1977</v>
@@ -16795,7 +16825,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B16" s="7">
         <v>1979</v>
@@ -16803,7 +16833,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B17" s="7">
         <v>1974</v>
@@ -16814,7 +16844,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B18" s="7">
         <v>1967</v>
@@ -16822,7 +16852,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B19" s="7">
         <v>1967</v>
@@ -16830,7 +16860,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B20" s="7">
         <v>1977</v>
@@ -16838,7 +16868,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B21" s="7">
         <v>1969</v>
@@ -16849,7 +16879,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B22" s="7">
         <v>1979</v>
@@ -16857,7 +16887,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B23" s="7">
         <v>1978</v>
@@ -16870,6 +16900,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="1948">
   <si>
     <t>WANT</t>
   </si>
@@ -5185,9 +5185,6 @@
     <t>In the Shadow of Edgar Allan Poe</t>
   </si>
   <si>
-    <t>The Invisibles</t>
-  </si>
-  <si>
     <t>I, Paparazzi</t>
   </si>
   <si>
@@ -5401,9 +5398,6 @@
     <t>Punk Rock Jesus</t>
   </si>
   <si>
-    <t>The Quitter</t>
-  </si>
-  <si>
     <t>Rat Catcher</t>
   </si>
   <si>
@@ -5876,6 +5870,12 @@
   </si>
   <si>
     <t>Vengeance Squad</t>
+  </si>
+  <si>
+    <t>Invisibles (the)</t>
+  </si>
+  <si>
+    <t>Quitter (the)</t>
   </si>
 </sst>
 </file>
@@ -8656,7 +8656,7 @@
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
@@ -14528,8 +14528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B382"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B300" sqref="B300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14582,6 +14582,9 @@
       <c r="A6" s="8" t="s">
         <v>1552</v>
       </c>
+      <c r="B6" t="s">
+        <v>1513</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
@@ -14597,6 +14600,9 @@
       <c r="A9" s="8" t="s">
         <v>1555</v>
       </c>
+      <c r="B9" t="s">
+        <v>1513</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
@@ -14622,2047 +14628,2150 @@
       <c r="A14" s="8" t="s">
         <v>1560</v>
       </c>
+      <c r="B14" t="s">
+        <v>1513</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>1561</v>
       </c>
+      <c r="B15" t="s">
+        <v>1513</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>1565</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>1567</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>1575</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>1577</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>1579</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>1581</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>1586</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>1587</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>1588</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>1589</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>1590</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>1591</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>1592</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>1594</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>1595</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>1601</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>1604</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>1606</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>1613</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>1617</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>1631</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
         <v>1638</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
         <v>1645</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>1646</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="8" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
         <v>1648</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
         <v>1650</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
         <v>1651</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
         <v>1652</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
         <v>1653</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
         <v>1654</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
         <v>1655</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
         <v>1656</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
         <v>1657</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
         <v>1658</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>1659</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
         <v>1660</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
         <v>1661</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
         <v>1662</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
         <v>1663</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
         <v>1666</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
         <v>1667</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B122" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
         <v>1668</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>1670</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
         <v>1672</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
         <v>1673</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
         <v>1674</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
         <v>1675</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
         <v>1676</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
         <v>1677</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
         <v>1679</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
         <v>1680</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
         <v>1681</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B136" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
         <v>1682</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
         <v>1683</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
         <v>1684</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
         <v>1685</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
         <v>1686</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
         <v>1688</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
         <v>1689</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
         <v>1690</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B145" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
         <v>1691</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
         <v>1692</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
         <v>1693</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
         <v>1694</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
         <v>1695</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B150" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
         <v>1697</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
         <v>1698</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="8" t="s">
         <v>1699</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="8" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="8" t="s">
         <v>1703</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
         <v>1705</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="8" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="8" t="s">
         <v>1707</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
         <v>1708</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="8" t="s">
         <v>1709</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B164" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
         <v>1710</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B165" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="8" t="s">
         <v>1711</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B166" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
         <v>1712</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="8" t="s">
         <v>1713</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B168" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="8" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="8" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B170" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="8" t="s">
         <v>1716</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B172" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="8" t="s">
         <v>1717</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="8" t="s">
+      <c r="B174" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="8" t="s">
         <v>1718</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="8" t="s">
+      <c r="B175" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="8" t="s">
         <v>1719</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="8" t="s">
+      <c r="B176" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="8" t="s">
         <v>1720</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="8" t="s">
+      <c r="B177" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="8" t="s">
         <v>1721</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="8" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="8" t="s">
         <v>1722</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="8" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="8" t="s">
         <v>1723</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="8" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="8" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="8" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="8" t="s">
         <v>1725</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="8" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="8" t="s">
         <v>1726</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="8" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="8" t="s">
         <v>1727</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="8" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="8" t="s">
         <v>1728</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="8" t="s">
+      <c r="B185" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="8" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" s="8" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="8" t="s">
         <v>1730</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" s="8" t="s">
+      <c r="B187" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="8" t="s">
         <v>1731</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" s="8" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="8" t="s">
         <v>1732</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" s="8" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="8" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" s="8" t="s">
+      <c r="B190" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="8" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" s="8" t="s">
+      <c r="B191" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="8" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" s="8" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="8" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" s="8" t="s">
+      <c r="B193" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="8" t="s">
         <v>1737</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" s="8" t="s">
+      <c r="B194" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="8" t="s">
         <v>1738</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" s="8" t="s">
+      <c r="B195" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="8" t="s">
         <v>1739</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" s="8" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="8" t="s">
         <v>1740</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" s="8" t="s">
+      <c r="B197" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="8" t="s">
         <v>1741</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" s="8" t="s">
+      <c r="B198" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="8" t="s">
         <v>1742</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" s="8" t="s">
+      <c r="B199" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="8" t="s">
         <v>1743</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" s="8" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="8" t="s">
         <v>1744</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" s="8" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="9" t="s">
         <v>1745</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" s="9" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="8" t="s">
         <v>1746</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203" s="8" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="8" t="s">
         <v>1747</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204" s="8" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="8" t="s">
         <v>1748</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" s="8" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="8" t="s">
         <v>1749</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" s="8" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="8" t="s">
         <v>1750</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A207" s="8" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="8" t="s">
         <v>1751</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208" s="8" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="8" t="s">
         <v>1752</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" s="8" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="8" t="s">
         <v>1753</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" s="8" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="8" t="s">
         <v>1754</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" s="8" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="8" t="s">
         <v>1755</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" s="8" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="8" t="s">
         <v>1756</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" s="8" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="8" t="s">
         <v>1757</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" s="8" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="8" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" s="8" t="s">
+      <c r="B215" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="8" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" s="8" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="8" t="s">
         <v>1760</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" s="8" t="s">
+      <c r="B217" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="8" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" s="8" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="8" t="s">
         <v>1762</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" s="8" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="8" t="s">
         <v>1763</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" s="8" t="s">
+      <c r="B220" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="8" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221" s="8" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="8" t="s">
         <v>1765</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222" s="8" t="s">
+      <c r="B222" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="8" t="s">
         <v>1766</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223" s="8" t="s">
+      <c r="B223" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="8" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A224" s="8" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="8" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" s="8" t="s">
+      <c r="B225" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="8" t="s">
         <v>1769</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226" s="8" t="s">
+      <c r="B226" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="8" t="s">
         <v>1770</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" s="8" t="s">
+      <c r="B227" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="8" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" s="8" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="8" t="s">
         <v>1772</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" s="8" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="8" t="s">
         <v>1773</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230" s="8" t="s">
+      <c r="B230" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="8" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231" s="8" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="8" t="s">
         <v>1775</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232" s="8" t="s">
+      <c r="B232" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="8" t="s">
         <v>1776</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233" s="8" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="8" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234" s="8" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="8" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235" s="8" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="8" t="s">
         <v>1779</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236" s="8" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="8" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237" s="8" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="8" t="s">
         <v>1781</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238" s="8" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="8" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239" s="8" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="8" t="s">
         <v>1783</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A240" s="8" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="8" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A241" s="8" t="s">
+      <c r="B241" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="8" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A242" s="8" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="8" t="s">
         <v>1786</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243" s="8" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="8" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A244" s="8" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="8" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="9" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A245" s="8" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="9" t="s">
         <v>1789</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246" s="9" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="8" t="s">
         <v>1790</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247" s="9" t="s">
+      <c r="B248" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="8" t="s">
         <v>1791</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248" s="8" t="s">
+      <c r="B249" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="8" t="s">
         <v>1792</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249" s="8" t="s">
+      <c r="B250" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="8" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A250" s="8" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="8" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A251" s="8" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="8" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A252" s="8" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="8" t="s">
         <v>1796</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253" s="8" t="s">
+      <c r="B254" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="8" t="s">
         <v>1797</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A254" s="8" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="8" t="s">
         <v>1798</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A255" s="8" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A256" s="8" t="s">
-        <v>1800</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" s="8" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" s="8" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" s="8" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" s="8" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" s="8" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" s="8" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" s="8" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" s="8" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" s="8" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" s="8" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" s="8" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" s="8" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" s="8" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" s="8" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" s="8" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" s="8" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="8" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="8" t="s">
         <v>1816</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A273" s="8" t="s">
+      <c r="B274" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="8" t="s">
         <v>1817</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A274" s="8" t="s">
+      <c r="B275" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="8" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A275" s="8" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="8" t="s">
         <v>1819</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A276" s="8" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="8" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A277" s="8" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="8" t="s">
         <v>1821</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A278" s="8" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="8" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A279" s="8" t="s">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="8" t="s">
         <v>1823</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A280" s="8" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="8" t="s">
         <v>1824</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A281" s="8" t="s">
+      <c r="B282" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="8" t="s">
         <v>1825</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A282" s="8" t="s">
+      <c r="B283" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="8" t="s">
         <v>1826</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A283" s="8" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="8" t="s">
         <v>1827</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A284" s="8" t="s">
+      <c r="B285" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="8" t="s">
         <v>1828</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A285" s="8" t="s">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="8" t="s">
         <v>1829</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A286" s="8" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="8" t="s">
         <v>1830</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A287" s="8" t="s">
+      <c r="B288" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" s="8" t="s">
         <v>1831</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A288" s="8" t="s">
+      <c r="B289" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" s="8" t="s">
         <v>1832</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A289" s="8" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" s="8" t="s">
         <v>1833</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A290" s="8" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" s="8" t="s">
         <v>1834</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A291" s="8" t="s">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" s="8" t="s">
         <v>1835</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A292" s="8" t="s">
+      <c r="B293" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" s="8" t="s">
         <v>1836</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A293" s="8" t="s">
+      <c r="B294" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" s="8" t="s">
         <v>1837</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A294" s="8" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" s="8" t="s">
         <v>1838</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A295" s="8" t="s">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" s="8" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" s="8" t="s">
         <v>1839</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A296" s="8" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="8" t="s">
         <v>1840</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A297" s="8" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A298" s="8" t="s">
+      <c r="B299" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" s="8" t="s">
         <v>1841</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A299" s="8" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" s="8" t="s">
         <v>1842</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A300" s="8" t="s">
+      <c r="B301" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" s="8" t="s">
         <v>1843</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A301" s="8" t="s">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" s="8" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A302" s="8" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" s="8" t="s">
         <v>1845</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A303" s="8" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A304" s="8" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305" s="8" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306" s="8" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307" s="8" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308" s="8" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309" s="8" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310" s="8" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311" s="8" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312" s="8" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313" s="8" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314" s="8" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315" s="8" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316" s="8" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317" s="8" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318" s="8" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319" s="8" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320" s="8" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321" s="8" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322" s="8" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323" s="8" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324" s="8" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A325" s="8" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A326" s="8" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327" s="8" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A328" s="8" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A329" s="10" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A330" s="8" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A331" s="8" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A332" s="8" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A333" s="8" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A334" s="8" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A335" s="8" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A336" s="8" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337" s="8" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338" s="8" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339" s="8" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340" s="8" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341" s="8" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342" s="8" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343" s="8" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344" s="8" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345" s="8" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346" s="8" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347" s="8" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A348" s="8" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A349" s="8" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A350" s="8" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A351" s="8" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352" s="8" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A353" s="8" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A354" s="8" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A355" s="8" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A356" s="8" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A357" s="8" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A358" s="8" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A359" s="8" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A360" s="8" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A361" s="8" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A362" s="8" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A363" s="8" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A364" s="8" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A365" s="8" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A366" s="8" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A367" s="8" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A368" s="8" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369" s="8" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370" s="8" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371" s="8" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372" s="8" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373" s="8" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374" s="8" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375" s="8" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376" s="8" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377" s="8" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378" s="8" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379" s="8" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380" s="8" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381" s="8" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382" s="8" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2" location="Brother_Lono"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A12" r:id="rId5"/>
-    <hyperlink ref="A13" r:id="rId6"/>
-    <hyperlink ref="A14" r:id="rId7"/>
-    <hyperlink ref="A15" r:id="rId8"/>
-    <hyperlink ref="A16" r:id="rId9"/>
-    <hyperlink ref="A17" r:id="rId10"/>
-    <hyperlink ref="A18" r:id="rId11"/>
-    <hyperlink ref="A19" r:id="rId12"/>
-    <hyperlink ref="A20" r:id="rId13"/>
-    <hyperlink ref="A21" r:id="rId14"/>
-    <hyperlink ref="A22" r:id="rId15"/>
-    <hyperlink ref="A23" r:id="rId16"/>
-    <hyperlink ref="A24" r:id="rId17"/>
-    <hyperlink ref="A25" r:id="rId18"/>
-    <hyperlink ref="A26" r:id="rId19"/>
-    <hyperlink ref="A27" r:id="rId20"/>
-    <hyperlink ref="A28" r:id="rId21"/>
-    <hyperlink ref="A29" r:id="rId22"/>
-    <hyperlink ref="A30" r:id="rId23"/>
-    <hyperlink ref="A31" r:id="rId24"/>
-    <hyperlink ref="A32" r:id="rId25"/>
-    <hyperlink ref="A35" r:id="rId26"/>
-    <hyperlink ref="A36" r:id="rId27"/>
-    <hyperlink ref="A38" r:id="rId28"/>
-    <hyperlink ref="A40" r:id="rId29"/>
-    <hyperlink ref="A41" r:id="rId30"/>
-    <hyperlink ref="A43" r:id="rId31"/>
-    <hyperlink ref="A45" r:id="rId32"/>
-    <hyperlink ref="A48" r:id="rId33"/>
-    <hyperlink ref="A49" r:id="rId34"/>
-    <hyperlink ref="A50" r:id="rId35"/>
-    <hyperlink ref="A52" r:id="rId36"/>
-    <hyperlink ref="A53" r:id="rId37"/>
-    <hyperlink ref="A54" r:id="rId38"/>
-    <hyperlink ref="A55" r:id="rId39"/>
-    <hyperlink ref="A56" r:id="rId40"/>
-    <hyperlink ref="A57" r:id="rId41"/>
-    <hyperlink ref="A58" r:id="rId42"/>
-    <hyperlink ref="A59" r:id="rId43"/>
-    <hyperlink ref="A60" r:id="rId44"/>
-    <hyperlink ref="A61" r:id="rId45"/>
-    <hyperlink ref="A62" r:id="rId46"/>
-    <hyperlink ref="A65" r:id="rId47"/>
-    <hyperlink ref="A66" r:id="rId48"/>
-    <hyperlink ref="A67" r:id="rId49"/>
-    <hyperlink ref="A69" r:id="rId50"/>
-    <hyperlink ref="A70" r:id="rId51"/>
-    <hyperlink ref="A71" r:id="rId52"/>
-    <hyperlink ref="A73" r:id="rId53"/>
-    <hyperlink ref="A75" r:id="rId54"/>
-    <hyperlink ref="A76" r:id="rId55"/>
-    <hyperlink ref="A77" r:id="rId56" location="Collected_editions"/>
-    <hyperlink ref="A78" r:id="rId57"/>
-    <hyperlink ref="A79" r:id="rId58"/>
-    <hyperlink ref="A80" r:id="rId59"/>
-    <hyperlink ref="A82" r:id="rId60"/>
-    <hyperlink ref="A83" r:id="rId61"/>
-    <hyperlink ref="A84" r:id="rId62"/>
-    <hyperlink ref="A85" r:id="rId63"/>
-    <hyperlink ref="A87" r:id="rId64"/>
-    <hyperlink ref="A91" r:id="rId65"/>
-    <hyperlink ref="A92" r:id="rId66"/>
-    <hyperlink ref="A94" r:id="rId67"/>
-    <hyperlink ref="A95" r:id="rId68"/>
-    <hyperlink ref="A97" r:id="rId69"/>
-    <hyperlink ref="A101" r:id="rId70"/>
-    <hyperlink ref="A102" r:id="rId71"/>
-    <hyperlink ref="A103" r:id="rId72"/>
-    <hyperlink ref="A104" r:id="rId73"/>
-    <hyperlink ref="A111" r:id="rId74"/>
-    <hyperlink ref="A115" r:id="rId75"/>
-    <hyperlink ref="A116" r:id="rId76"/>
-    <hyperlink ref="A117" r:id="rId77"/>
-    <hyperlink ref="A118" r:id="rId78"/>
-    <hyperlink ref="A119" r:id="rId79"/>
-    <hyperlink ref="A121" r:id="rId80"/>
-    <hyperlink ref="A123" r:id="rId81"/>
-    <hyperlink ref="A127" r:id="rId82"/>
-    <hyperlink ref="A130" r:id="rId83"/>
-    <hyperlink ref="A135" r:id="rId84"/>
-    <hyperlink ref="A137" r:id="rId85"/>
-    <hyperlink ref="A138" r:id="rId86"/>
-    <hyperlink ref="A139" r:id="rId87"/>
-    <hyperlink ref="A143" r:id="rId88"/>
-    <hyperlink ref="A144" r:id="rId89"/>
-    <hyperlink ref="A146" r:id="rId90"/>
-    <hyperlink ref="A148" r:id="rId91"/>
-    <hyperlink ref="A150" r:id="rId92"/>
-    <hyperlink ref="A151" r:id="rId93"/>
-    <hyperlink ref="A152" r:id="rId94"/>
-    <hyperlink ref="A153" r:id="rId95"/>
-    <hyperlink ref="A154" r:id="rId96"/>
-    <hyperlink ref="A155" r:id="rId97"/>
-    <hyperlink ref="A156" r:id="rId98"/>
-    <hyperlink ref="A157" r:id="rId99"/>
-    <hyperlink ref="A160" r:id="rId100"/>
-    <hyperlink ref="A161" r:id="rId101"/>
-    <hyperlink ref="A162" r:id="rId102"/>
-    <hyperlink ref="A166" r:id="rId103"/>
-    <hyperlink ref="A168" r:id="rId104"/>
-    <hyperlink ref="A170" r:id="rId105"/>
-    <hyperlink ref="A171" r:id="rId106"/>
-    <hyperlink ref="A175" r:id="rId107"/>
-    <hyperlink ref="A176" r:id="rId108"/>
-    <hyperlink ref="A177" r:id="rId109"/>
-    <hyperlink ref="A179" r:id="rId110"/>
-    <hyperlink ref="A180" r:id="rId111"/>
-    <hyperlink ref="A183" r:id="rId112"/>
-    <hyperlink ref="A185" r:id="rId113"/>
-    <hyperlink ref="A186" r:id="rId114"/>
-    <hyperlink ref="A188" r:id="rId115"/>
-    <hyperlink ref="A190" r:id="rId116"/>
-    <hyperlink ref="A191" r:id="rId117"/>
-    <hyperlink ref="A192" r:id="rId118"/>
-    <hyperlink ref="A193" r:id="rId119"/>
-    <hyperlink ref="A194" r:id="rId120"/>
-    <hyperlink ref="A195" r:id="rId121"/>
-    <hyperlink ref="A198" r:id="rId122"/>
-    <hyperlink ref="A201" r:id="rId123"/>
-    <hyperlink ref="A203" r:id="rId124"/>
-    <hyperlink ref="A204" r:id="rId125"/>
-    <hyperlink ref="A207" r:id="rId126"/>
-    <hyperlink ref="A208" r:id="rId127"/>
-    <hyperlink ref="A209" r:id="rId128"/>
-    <hyperlink ref="A210" r:id="rId129"/>
-    <hyperlink ref="A211" r:id="rId130"/>
-    <hyperlink ref="A215" r:id="rId131"/>
-    <hyperlink ref="A219" r:id="rId132"/>
-    <hyperlink ref="A220" r:id="rId133"/>
-    <hyperlink ref="A222" r:id="rId134"/>
-    <hyperlink ref="A224" r:id="rId135"/>
-    <hyperlink ref="A225" r:id="rId136"/>
-    <hyperlink ref="A226" r:id="rId137"/>
-    <hyperlink ref="A228" r:id="rId138"/>
-    <hyperlink ref="A229" r:id="rId139"/>
-    <hyperlink ref="A230" r:id="rId140"/>
-    <hyperlink ref="A232" r:id="rId141"/>
-    <hyperlink ref="A239" r:id="rId142"/>
-    <hyperlink ref="A240" r:id="rId143"/>
-    <hyperlink ref="A242" r:id="rId144"/>
-    <hyperlink ref="A244" r:id="rId145"/>
-    <hyperlink ref="A249" r:id="rId146"/>
-    <hyperlink ref="A253" r:id="rId147"/>
-    <hyperlink ref="A254" r:id="rId148"/>
-    <hyperlink ref="A256" r:id="rId149"/>
-    <hyperlink ref="A257" r:id="rId150" location="Comic_book_adaptation"/>
-    <hyperlink ref="A258" r:id="rId151"/>
-    <hyperlink ref="A259" r:id="rId152"/>
-    <hyperlink ref="A260" r:id="rId153"/>
-    <hyperlink ref="A263" r:id="rId154"/>
-    <hyperlink ref="A274" r:id="rId155"/>
-    <hyperlink ref="A275" r:id="rId156"/>
-    <hyperlink ref="A276" r:id="rId157"/>
-    <hyperlink ref="A277" r:id="rId158"/>
-    <hyperlink ref="A278" r:id="rId159"/>
-    <hyperlink ref="A279" r:id="rId160"/>
-    <hyperlink ref="A281" r:id="rId161"/>
-    <hyperlink ref="A285" r:id="rId162"/>
-    <hyperlink ref="A286" r:id="rId163"/>
-    <hyperlink ref="A290" r:id="rId164"/>
-    <hyperlink ref="A291" r:id="rId165"/>
-    <hyperlink ref="A295" r:id="rId166"/>
-    <hyperlink ref="A296" r:id="rId167"/>
-    <hyperlink ref="A299" r:id="rId168"/>
-    <hyperlink ref="A301" r:id="rId169"/>
-    <hyperlink ref="A303" r:id="rId170"/>
-    <hyperlink ref="A304" r:id="rId171"/>
-    <hyperlink ref="A309" r:id="rId172"/>
-    <hyperlink ref="A311" r:id="rId173"/>
-    <hyperlink ref="A315" r:id="rId174"/>
-    <hyperlink ref="A317" r:id="rId175"/>
-    <hyperlink ref="A318" r:id="rId176"/>
-    <hyperlink ref="A321" r:id="rId177"/>
-    <hyperlink ref="A322" r:id="rId178"/>
-    <hyperlink ref="A325" r:id="rId179"/>
-    <hyperlink ref="A326" r:id="rId180"/>
-    <hyperlink ref="A329" r:id="rId181"/>
-    <hyperlink ref="A331" r:id="rId182"/>
-    <hyperlink ref="A332" r:id="rId183"/>
-    <hyperlink ref="A335" r:id="rId184"/>
-    <hyperlink ref="A356" r:id="rId185"/>
-    <hyperlink ref="A357" r:id="rId186"/>
-    <hyperlink ref="A358" r:id="rId187"/>
-    <hyperlink ref="A360" r:id="rId188"/>
-    <hyperlink ref="A368" r:id="rId189"/>
-    <hyperlink ref="A369" r:id="rId190"/>
-    <hyperlink ref="A371" r:id="rId191"/>
-    <hyperlink ref="A376" r:id="rId192"/>
-    <hyperlink ref="A378" r:id="rId193"/>
-    <hyperlink ref="A381" r:id="rId194"/>
-    <hyperlink ref="A382" r:id="rId195"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId196"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
@@ -16709,7 +16818,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="B3" s="7">
         <v>1965</v>
@@ -16720,7 +16829,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="B4" s="7">
         <v>1974</v>
@@ -16731,7 +16840,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="B5" s="7">
         <v>1964</v>
@@ -16742,7 +16851,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="B6" s="7">
         <v>1972</v>
@@ -16750,7 +16859,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="B7" s="7">
         <v>1966</v>
@@ -16761,7 +16870,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="B8" s="7">
         <v>1958</v>
@@ -16769,7 +16878,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="B9" s="7">
         <v>1978</v>
@@ -16777,7 +16886,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="B10" s="7">
         <v>1982</v>
@@ -16785,7 +16894,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="B11" s="7">
         <v>1964</v>
@@ -16793,7 +16902,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B12" s="7">
         <v>1960</v>
@@ -16801,7 +16910,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="B13" s="7">
         <v>1964</v>
@@ -16809,7 +16918,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="B14" s="7">
         <v>1965</v>
@@ -16817,7 +16926,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="B15" s="7">
         <v>1977</v>
@@ -16825,7 +16934,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B16" s="7">
         <v>1979</v>
@@ -16833,7 +16942,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="B17" s="7">
         <v>1974</v>
@@ -16844,7 +16953,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="B18" s="7">
         <v>1967</v>
@@ -16852,7 +16961,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B19" s="7">
         <v>1967</v>
@@ -16860,7 +16969,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="B20" s="7">
         <v>1977</v>
@@ -16868,7 +16977,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="B21" s="7">
         <v>1969</v>
@@ -16879,7 +16988,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="B22" s="7">
         <v>1979</v>
@@ -16887,7 +16996,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="B23" s="7">
         <v>1978</v>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="1948">
   <si>
     <t>WANT</t>
   </si>
@@ -14528,8 +14528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B300" sqref="B300"/>
+    <sheetView tabSelected="1" topLeftCell="A376" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B382" sqref="B382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16141,7 +16141,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A264" s="8" t="s">
         <v>1806</v>
       </c>
@@ -16379,162 +16379,174 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="8" t="s">
         <v>1846</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="8" t="s">
         <v>1847</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="8" t="s">
         <v>1848</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="8" t="s">
         <v>1849</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="8" t="s">
         <v>1850</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="8" t="s">
         <v>1851</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="8" t="s">
         <v>1852</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B311" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="8" t="s">
         <v>1853</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="8" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="8" t="s">
         <v>1855</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="8" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="8" t="s">
         <v>1857</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="8" t="s">
         <v>1858</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="8" t="s">
         <v>1859</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="8" t="s">
         <v>1860</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="8" t="s">
         <v>1861</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="8" t="s">
         <v>1862</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="8" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="8" t="s">
         <v>1864</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="8" t="s">
         <v>1865</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="8" t="s">
         <v>1866</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B325" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="8" t="s">
         <v>1867</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="8" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B327" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="8" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="10" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B329" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="8" t="s">
         <v>1871</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="8" t="s">
         <v>1872</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="8" t="s">
         <v>1873</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="8" t="s">
         <v>1874</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="8" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="8" t="s">
         <v>1876</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="8" t="s">
         <v>1877</v>
       </c>
@@ -16619,152 +16631,167 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="8" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="8" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="8" t="s">
         <v>1896</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="8" t="s">
         <v>1897</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="8" t="s">
         <v>1898</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B357" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="8" t="s">
         <v>1899</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B358" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="8" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="8" t="s">
         <v>1901</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="8" t="s">
         <v>1902</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="8" t="s">
         <v>1903</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="8" t="s">
         <v>1904</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="8" t="s">
         <v>1905</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="8" t="s">
         <v>1906</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="8" t="s">
         <v>1907</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="8" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="8" t="s">
         <v>1909</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="8" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="8" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="8" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="8" t="s">
         <v>1913</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="8" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="8" t="s">
         <v>1915</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="8" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="8" t="s">
         <v>1917</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="8" t="s">
         <v>1918</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="8" t="s">
         <v>1919</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B378" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="8" t="s">
         <v>1920</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="8" t="s">
         <v>1921</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B380" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="8" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B381" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="8" t="s">
         <v>1923</v>
       </c>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="1948">
   <si>
     <t>WANT</t>
   </si>
@@ -14529,7 +14529,7 @@
   <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A376" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B382" sqref="B382"/>
+      <selection activeCell="A382" sqref="A382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16794,6 +16794,9 @@
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="8" t="s">
         <v>1923</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1513</v>
       </c>
     </row>
   </sheetData>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1948">
   <si>
     <t>WANT</t>
   </si>
@@ -14528,8 +14528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A382" sqref="A382"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14589,6 +14589,9 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>1553</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1513</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="1948">
   <si>
     <t>WANT</t>
   </si>
@@ -14528,8 +14528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B382"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14598,6 +14598,9 @@
       <c r="A8" s="8" t="s">
         <v>1554</v>
       </c>
+      <c r="B8" t="s">
+        <v>1513</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
@@ -14659,6 +14662,9 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>598</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1513</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="1948">
   <si>
     <t xml:space="preserve">WANT</t>
   </si>
@@ -14385,12 +14385,12 @@
   <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
   </cols>
   <sheetData>
@@ -14520,6 +14520,9 @@
       <c r="A17" s="9" t="s">
         <v>1564</v>
       </c>
+      <c r="B17" s="0" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
@@ -14541,26 +14544,41 @@
       <c r="A20" s="9" t="s">
         <v>1566</v>
       </c>
+      <c r="B20" s="0" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
         <v>1567</v>
       </c>
+      <c r="B21" s="0" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
         <v>1568</v>
       </c>
+      <c r="B22" s="0" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
         <v>1569</v>
       </c>
+      <c r="B23" s="0" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
         <v>1570</v>
       </c>
+      <c r="B24" s="0" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
@@ -14573,6 +14591,9 @@
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
         <v>1572</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16694,7 +16715,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.54"/>
   </cols>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="1948">
   <si>
     <t xml:space="preserve">WANT</t>
   </si>
@@ -14384,8 +14384,8 @@
   </sheetPr>
   <dimension ref="A1:B382"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14600,6 +14600,9 @@
       <c r="A27" s="9" t="s">
         <v>1573</v>
       </c>
+      <c r="B27" s="0" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
@@ -14621,6 +14624,9 @@
       <c r="A30" s="9" t="s">
         <v>1576</v>
       </c>
+      <c r="B30" s="0" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
@@ -14633,6 +14639,9 @@
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
         <v>1578</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="1948">
   <si>
     <t xml:space="preserve">WANT</t>
   </si>
@@ -14385,7 +14385,7 @@
   <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14648,11 +14648,17 @@
       <c r="A33" s="9" t="s">
         <v>1579</v>
       </c>
+      <c r="B33" s="0" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
         <v>1580</v>
       </c>
+      <c r="B34" s="0" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
@@ -14666,6 +14672,9 @@
       <c r="A36" s="9" t="s">
         <v>1582</v>
       </c>
+      <c r="B36" s="0" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
@@ -14686,6 +14695,9 @@
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
         <v>1585</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1948">
   <si>
     <t xml:space="preserve">WANT</t>
   </si>
@@ -14384,8 +14384,8 @@
   </sheetPr>
   <dimension ref="A1:B382"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14732,15 +14732,24 @@
       <c r="A45" s="9" t="s">
         <v>1591</v>
       </c>
+      <c r="B45" s="0" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
         <v>1592</v>
       </c>
+      <c r="B46" s="0" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
         <v>1593</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Creators" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="1948">
   <si>
     <t>WANT</t>
   </si>
@@ -4510,9 +4510,6 @@
     <t>Moon Girl</t>
   </si>
   <si>
-    <t>Old Testament edition published by DC Comics</t>
-  </si>
-  <si>
     <t>Panic</t>
   </si>
   <si>
@@ -4540,15 +4537,6 @@
     <t>Terror Illustrated</t>
   </si>
   <si>
-    <t>The Crypt of Terror/Tales from the Crypt</t>
-  </si>
-  <si>
-    <t>The Haunt of Fear</t>
-  </si>
-  <si>
-    <t>The Vault of Horror</t>
-  </si>
-  <si>
     <t>Three Dimensional E.C. Classics/Three Dimensional Tales from the Crypt of Terror</t>
   </si>
   <si>
@@ -5876,6 +5864,18 @@
   </si>
   <si>
     <t>Warren Presents: Star Quest Comix</t>
+  </si>
+  <si>
+    <t>Old Testament</t>
+  </si>
+  <si>
+    <t>Crypt of Terror/Tales from the Crypt</t>
+  </si>
+  <si>
+    <t>Haunt of Fear</t>
+  </si>
+  <si>
+    <t>Vault of Horror</t>
   </si>
 </sst>
 </file>
@@ -13914,229 +13914,256 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="79.453125" customWidth="1"/>
+    <col min="1" max="1" width="45.36328125" customWidth="1"/>
     <col min="2" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="B32" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B40" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>1512</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A1:B42">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
@@ -14171,7 +14198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -14183,139 +14210,139 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="B1">
         <v>1984</v>
       </c>
       <c r="C1" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="B2">
         <v>1982</v>
       </c>
       <c r="C2" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="B3">
         <v>1983</v>
       </c>
       <c r="C3" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="B4">
         <v>1983</v>
       </c>
       <c r="C4" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="B5">
         <v>1983</v>
       </c>
       <c r="C5" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="B6">
         <v>1981</v>
       </c>
       <c r="C6" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="B7">
         <v>1982</v>
       </c>
       <c r="C7" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="B8">
         <v>1984</v>
       </c>
       <c r="C8" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="B9">
         <v>1983</v>
       </c>
       <c r="C9" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B10">
         <v>1984</v>
       </c>
       <c r="C10" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="B11">
         <v>1983</v>
       </c>
       <c r="C11" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="B12">
         <v>1983</v>
       </c>
       <c r="C12" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="B13">
         <v>1984</v>
@@ -14323,7 +14350,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="B14">
         <v>1983</v>
@@ -14331,18 +14358,18 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="B15">
         <v>1982</v>
       </c>
       <c r="C15" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="B16">
         <v>1984</v>
@@ -14350,7 +14377,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="B17">
         <v>1984</v>
@@ -14358,29 +14385,29 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B18">
         <v>1982</v>
       </c>
       <c r="C18" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B19">
         <v>1977</v>
       </c>
       <c r="C19" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="B20">
         <v>1982</v>
@@ -14388,7 +14415,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="B21">
         <v>1984</v>
@@ -14396,7 +14423,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="B22">
         <v>1984</v>
@@ -14404,7 +14431,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="B23">
         <v>1983</v>
@@ -14412,29 +14439,29 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="B24">
         <v>1983</v>
       </c>
       <c r="C24" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="B25">
         <v>1983</v>
       </c>
       <c r="C25" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="B26">
         <v>1983</v>
@@ -14442,40 +14469,40 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="B27">
         <v>1983</v>
       </c>
       <c r="C27" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="B28">
         <v>1982</v>
       </c>
       <c r="C28" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="B29">
         <v>1984</v>
       </c>
       <c r="C29" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="B30">
         <v>1984</v>
@@ -14483,7 +14510,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="B31">
         <v>1984</v>
@@ -14491,29 +14518,29 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="B32">
         <v>1982</v>
       </c>
       <c r="C32" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="B33">
         <v>1983</v>
       </c>
       <c r="C33" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="B34">
         <v>1984</v>
@@ -14521,7 +14548,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="B35">
         <v>1982</v>
@@ -14555,129 +14582,129 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="B2" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="B3" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="B4" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="B5" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="B6" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="B7" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="B8" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="B9" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="B12" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="B13" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="B14" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="B15" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="B16" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="B17" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -14685,969 +14712,969 @@
         <v>599</v>
       </c>
       <c r="B18" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="B19" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="B20" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="B21" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="B22" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="B23" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="B24" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="B25" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="B26" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="B27" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="B28" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="B29" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="B30" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="B31" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="B32" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="B33" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="B34" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="B35" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="B36" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="B37" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="B38" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="B39" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="B40" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="B45" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="B46" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="B47" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="B48" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="B52" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="B53" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="B54" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="B55" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="B57" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="B60" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="B62" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="B65" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="B67" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="B68" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="B69" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="B70" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="B71" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="B72" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="B73" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="B74" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="B75" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="B78" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="B81" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="B87" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="B92" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="B97" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="B100" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="B101" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="B103" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="B108" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="B114" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="B117" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="B120" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="B122" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="B123" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="B126" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="B134" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="B136" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="B138" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="B140" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="9" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="9" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="B145" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="B150" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="9" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="9" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="9" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="9" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="9" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="9" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="B159" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="9" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="9" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="9" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="9" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B164" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="B165" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="B166" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="B168" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="9" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -15655,1226 +15682,1226 @@
         <v>1010</v>
       </c>
       <c r="B170" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="9" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="9" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="B172" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="9" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="B173" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="9" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="B174" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="9" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="B175" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="9" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="B176" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="9" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="B177" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="9" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="9" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="9" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="9" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="9" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="9" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="9" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="B185" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="9" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="9" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="B187" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="9" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="9" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="9" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="B190" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="9" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="B191" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="9" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="9" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="B193" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="9" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="B194" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="9" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="B195" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="9" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="9" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="B197" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="9" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="B198" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="9" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="B199" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="9" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="9" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="10" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="9" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="9" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="9" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="9" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="9" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="9" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="9" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="9" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="9" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="9" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="9" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="9" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="9" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="B215" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="9" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="9" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B217" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="9" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="9" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="9" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="B220" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="9" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="9" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="B222" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="9" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="B223" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="9" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="9" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="B225" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="9" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="B226" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="9" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="B227" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="9" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="9" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="9" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="B230" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="9" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="9" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="B232" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="9" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="9" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="9" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="9" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="9" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="9" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="9" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="9" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="9" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="B241" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="9" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="9" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="9" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="9" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="B245" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="10" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="10" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="9" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="B248" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="9" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="B249" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="9" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="B250" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="9" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="9" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="9" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="9" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="B254" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="9" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="9" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" s="9" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" s="9" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" s="9" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" s="9" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" s="9" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" s="9" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A264" s="9" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" s="9" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" s="9" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" s="9" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" s="9" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" s="9" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" s="9" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" s="9" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" s="9" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="9" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="9" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="B274" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="9" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="B275" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="9" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="9" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="9" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="9" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="9" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="9" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="9" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="B282" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="9" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="B283" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="9" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="9" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="B285" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="9" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="9" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="9" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="B288" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="9" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="B289" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="9" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="9" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="9" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="9" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="B293" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="9" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="B294" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="9" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="9" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="9" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="9" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="9" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="B299" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="9" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="9" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="B301" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="9" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="9" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="9" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="9" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="9" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="9" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="9" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="9" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="9" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="9" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="B311" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="9" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="9" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="9" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="9" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="9" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="9" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="9" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="9" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="9" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="9" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="9" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="9" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="9" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="9" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="B325" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="9" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="9" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="B327" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="9" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="11" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
       <c r="B329" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="9" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="9" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="9" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="9" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="9" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="9" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="9" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337" s="9" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338" s="9" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339" s="9" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340" s="9" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341" s="9" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342" s="9" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343" s="9" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344" s="9" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345" s="9" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346" s="9" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347" s="9" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A348" s="9" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A349" s="9" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A350" s="9" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A351" s="9" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352" s="9" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="9" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="9" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="9" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="9" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="9" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="B357" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="9" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="B358" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="9" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="9" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="9" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="9" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="9" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="9" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="9" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="9" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="9" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="9" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="9" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="9" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="9" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="9" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="9" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="9" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="9" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="9" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="9" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="9" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="B378" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="9" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="9" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="B380" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="9" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="B381" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="9" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="B382" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
   </sheetData>
@@ -16910,7 +16937,7 @@
         <v>1978</v>
       </c>
       <c r="C1" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -16921,45 +16948,45 @@
         <v>1980</v>
       </c>
       <c r="C2" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="B3" s="7">
         <v>1965</v>
       </c>
       <c r="C3" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="B4" s="7">
         <v>1974</v>
       </c>
       <c r="C4" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="B5" s="7">
         <v>1964</v>
       </c>
       <c r="C5" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="B6" s="7">
         <v>1972</v>
@@ -16967,18 +16994,18 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="B7" s="7">
         <v>1966</v>
       </c>
       <c r="C7" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="B8" s="7">
         <v>1958</v>
@@ -16986,7 +17013,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="B9" s="7">
         <v>1978</v>
@@ -16994,7 +17021,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="B10" s="7">
         <v>1982</v>
@@ -17002,7 +17029,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="B11" s="7">
         <v>1964</v>
@@ -17010,7 +17037,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
       <c r="B12" s="7">
         <v>1960</v>
@@ -17018,7 +17045,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
       <c r="B13" s="7">
         <v>1964</v>
@@ -17026,7 +17053,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="B14" s="7">
         <v>1965</v>
@@ -17034,7 +17061,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="B15" s="7">
         <v>1977</v>
@@ -17042,7 +17069,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="B16" s="7">
         <v>1979</v>
@@ -17050,18 +17077,18 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
       <c r="B17" s="7">
         <v>1974</v>
       </c>
       <c r="C17" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="B18" s="7">
         <v>1967</v>
@@ -17069,7 +17096,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="B19" s="7">
         <v>1967</v>
@@ -17077,7 +17104,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="B20" s="7">
         <v>1977</v>
@@ -17085,18 +17112,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="B21" s="7">
         <v>1969</v>
       </c>
       <c r="C21" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="B22" s="7">
         <v>1979</v>
@@ -17104,7 +17131,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="B23" s="7">
         <v>1978</v>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="1948">
   <si>
     <t>WANT</t>
   </si>
@@ -13917,7 +13917,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14154,10 +14154,16 @@
       <c r="A41" t="s">
         <v>1507</v>
       </c>
+      <c r="B41" t="s">
+        <v>1510</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1508</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1510</v>
       </c>
     </row>
   </sheetData>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="1949">
   <si>
     <t>WANT</t>
   </si>
@@ -4453,9 +4453,6 @@
     <t>Animal Fables</t>
   </si>
   <si>
-    <t>Animated Comics (1947)</t>
-  </si>
-  <si>
     <t>Blackstone the Magician Detective Fights Crime</t>
   </si>
   <si>
@@ -5876,6 +5873,12 @@
   </si>
   <si>
     <t>Vault of Horror</t>
+  </si>
+  <si>
+    <t>Animated Comics</t>
+  </si>
+  <si>
+    <t>weak</t>
   </si>
 </sst>
 </file>
@@ -13916,8 +13919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13931,239 +13934,254 @@
         <v>1471</v>
       </c>
       <c r="B1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1472</v>
       </c>
+      <c r="B2" t="s">
+        <v>1509</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1473</v>
+        <v>1947</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1474</v>
+        <v>1473</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1475</v>
+        <v>1474</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1948</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1476</v>
+        <v>1475</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B9" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B16" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B21" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B32" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B38" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B40" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B41" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B42" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
   </sheetData>
@@ -14216,139 +14234,139 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B1">
         <v>1984</v>
       </c>
       <c r="C1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B2">
         <v>1982</v>
       </c>
       <c r="C2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B3">
         <v>1983</v>
       </c>
       <c r="C3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B4">
         <v>1983</v>
       </c>
       <c r="C4" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B5">
         <v>1983</v>
       </c>
       <c r="C5" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B6">
         <v>1981</v>
       </c>
       <c r="C6" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B7">
         <v>1982</v>
       </c>
       <c r="C7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B8">
         <v>1984</v>
       </c>
       <c r="C8" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B9">
         <v>1983</v>
       </c>
       <c r="C9" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B10">
         <v>1984</v>
       </c>
       <c r="C10" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B11">
         <v>1983</v>
       </c>
       <c r="C11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B12">
         <v>1983</v>
       </c>
       <c r="C12" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B13">
         <v>1984</v>
@@ -14356,7 +14374,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B14">
         <v>1983</v>
@@ -14364,18 +14382,18 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B15">
         <v>1982</v>
       </c>
       <c r="C15" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B16">
         <v>1984</v>
@@ -14383,7 +14401,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B17">
         <v>1984</v>
@@ -14391,29 +14409,29 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B18">
         <v>1982</v>
       </c>
       <c r="C18" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B19">
         <v>1977</v>
       </c>
       <c r="C19" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B20">
         <v>1982</v>
@@ -14421,7 +14439,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B21">
         <v>1984</v>
@@ -14429,7 +14447,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B22">
         <v>1984</v>
@@ -14437,7 +14455,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B23">
         <v>1983</v>
@@ -14445,29 +14463,29 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B24">
         <v>1983</v>
       </c>
       <c r="C24" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B25">
         <v>1983</v>
       </c>
       <c r="C25" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B26">
         <v>1983</v>
@@ -14475,40 +14493,40 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B27">
         <v>1983</v>
       </c>
       <c r="C27" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B28">
         <v>1982</v>
       </c>
       <c r="C28" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B29">
         <v>1984</v>
       </c>
       <c r="C29" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B30">
         <v>1984</v>
@@ -14516,7 +14534,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B31">
         <v>1984</v>
@@ -14524,29 +14542,29 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B32">
         <v>1982</v>
       </c>
       <c r="C32" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B33">
         <v>1983</v>
       </c>
       <c r="C33" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B34">
         <v>1984</v>
@@ -14554,7 +14572,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B35">
         <v>1982</v>
@@ -14588,129 +14606,129 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B4" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B5" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B6" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B8" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B9" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B12" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B13" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B14" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B15" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B16" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B17" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -14718,969 +14736,969 @@
         <v>599</v>
       </c>
       <c r="B18" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B19" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B20" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B21" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B22" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B23" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B24" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B25" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B26" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B27" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B28" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B29" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B30" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B31" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B32" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B33" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B34" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B35" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B36" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B37" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B38" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B39" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B40" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B45" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B46" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B47" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B48" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B52" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B53" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B54" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B55" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B57" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B60" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B62" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B65" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B67" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B68" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B69" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B70" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B71" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B72" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B73" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B74" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B75" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B78" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B81" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B87" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B92" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B97" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B100" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B101" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B103" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B108" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B114" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B117" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B120" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B122" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B123" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B126" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B134" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B136" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B138" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B140" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="9" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B145" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B150" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="9" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="9" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="9" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="9" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="9" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="9" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B159" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="9" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="9" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="9" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="9" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B164" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B165" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B166" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B168" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="9" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -15688,1226 +15706,1226 @@
         <v>1010</v>
       </c>
       <c r="B170" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="9" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="9" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B172" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="9" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B173" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="9" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B174" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="9" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B175" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="9" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B176" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="9" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B177" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="9" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="9" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="9" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="9" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="9" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="9" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="9" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B185" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="9" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="9" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B187" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="9" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="9" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="9" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B190" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="9" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B191" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="9" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="9" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B193" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="9" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B194" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="9" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B195" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="9" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="9" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B197" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="9" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B198" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="9" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B199" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="9" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="10" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="9" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="9" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="9" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="9" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="9" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="9" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="9" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="9" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="9" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="9" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="9" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="9" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="9" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B215" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="9" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="9" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B217" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="9" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="9" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="9" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B220" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="9" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="9" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B222" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="9" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B223" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="9" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="9" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B225" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="9" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B226" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="9" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B227" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="9" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="9" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="9" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B230" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="9" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="9" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B232" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="9" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="9" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="9" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="9" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="9" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="9" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="9" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="9" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="9" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B241" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="9" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="9" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="9" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="9" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B245" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="10" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="10" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="9" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B248" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="9" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B249" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="9" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B250" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="9" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="9" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="9" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="9" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B254" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="9" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="9" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" s="9" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" s="9" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" s="9" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" s="9" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" s="9" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" s="9" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A264" s="9" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" s="9" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" s="9" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" s="9" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" s="9" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" s="9" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" s="9" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" s="9" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" s="9" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="9" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="9" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B274" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="9" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B275" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="9" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="9" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="9" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="9" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="9" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="9" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="9" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B282" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="9" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B283" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="9" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="9" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B285" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="9" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="9" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="9" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B288" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="9" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B289" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="9" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="9" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="9" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="9" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B293" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="9" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B294" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="9" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="9" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="9" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="9" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="9" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B299" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="9" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="9" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B301" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="9" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="9" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="9" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="9" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="9" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="9" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="9" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="9" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="9" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="9" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B311" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="9" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="9" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="9" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="9" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="9" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="9" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="9" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="9" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="9" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="9" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="9" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="9" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="9" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="9" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B325" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="9" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="9" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B327" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="9" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="11" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B329" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="9" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="9" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="9" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="9" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="9" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="9" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="9" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337" s="9" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338" s="9" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339" s="9" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340" s="9" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341" s="9" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342" s="9" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343" s="9" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344" s="9" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345" s="9" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346" s="9" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347" s="9" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A348" s="9" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A349" s="9" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A350" s="9" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A351" s="9" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352" s="9" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="9" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="9" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="9" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="9" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="9" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B357" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="9" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B358" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="9" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="9" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="9" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="9" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="9" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="9" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="9" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="9" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="9" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="9" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="9" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="9" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="9" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="9" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="9" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="9" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="9" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="9" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="9" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B378" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="9" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="9" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B380" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="9" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B381" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="9" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B382" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
   </sheetData>
@@ -16943,7 +16961,7 @@
         <v>1978</v>
       </c>
       <c r="C1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -16954,45 +16972,45 @@
         <v>1980</v>
       </c>
       <c r="C2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B3" s="7">
         <v>1965</v>
       </c>
       <c r="C3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B4" s="7">
         <v>1974</v>
       </c>
       <c r="C4" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B5" s="7">
         <v>1964</v>
       </c>
       <c r="C5" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B6" s="7">
         <v>1972</v>
@@ -17000,18 +17018,18 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B7" s="7">
         <v>1966</v>
       </c>
       <c r="C7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B8" s="7">
         <v>1958</v>
@@ -17019,7 +17037,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B9" s="7">
         <v>1978</v>
@@ -17027,7 +17045,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B10" s="7">
         <v>1982</v>
@@ -17035,7 +17053,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B11" s="7">
         <v>1964</v>
@@ -17043,7 +17061,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B12" s="7">
         <v>1960</v>
@@ -17051,7 +17069,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B13" s="7">
         <v>1964</v>
@@ -17059,7 +17077,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B14" s="7">
         <v>1965</v>
@@ -17067,7 +17085,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B15" s="7">
         <v>1977</v>
@@ -17075,7 +17093,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B16" s="7">
         <v>1979</v>
@@ -17083,18 +17101,18 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B17" s="7">
         <v>1974</v>
       </c>
       <c r="C17" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B18" s="7">
         <v>1967</v>
@@ -17102,7 +17120,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B19" s="7">
         <v>1967</v>
@@ -17110,7 +17128,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B20" s="7">
         <v>1977</v>
@@ -17118,18 +17136,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B21" s="7">
         <v>1969</v>
       </c>
       <c r="C21" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B22" s="7">
         <v>1979</v>
@@ -17137,7 +17155,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B23" s="7">
         <v>1978</v>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="1949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="1949">
   <si>
     <t>WANT</t>
   </si>
@@ -13920,7 +13920,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13988,6 +13988,9 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1477</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="1949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="1949">
   <si>
     <t>WANT</t>
   </si>
@@ -13920,7 +13920,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14004,6 +14004,9 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1478</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="1949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="1949">
   <si>
     <t>WANT</t>
   </si>
@@ -13920,7 +13920,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14013,10 +14013,16 @@
       <c r="A11" t="s">
         <v>1479</v>
       </c>
+      <c r="B11" t="s">
+        <v>1948</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1480</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="1949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="1949">
   <si>
     <t>WANT</t>
   </si>
@@ -13920,7 +13920,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14028,6 +14028,9 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1481</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Creators" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <sheet name="PC" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Vertigo" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Warren" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Fox" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="1949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="1950">
   <si>
     <t xml:space="preserve">WANT</t>
   </si>
@@ -5875,6 +5876,9 @@
   </si>
   <si>
     <t xml:space="preserve">Warren Presents: Star Quest Comix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic Comics</t>
   </si>
 </sst>
 </file>
@@ -7450,6 +7454,41 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.97"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -13755,13 +13794,13 @@
   </sheetPr>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
   </cols>
   <sheetData>
@@ -13936,6 +13975,9 @@
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>1497</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>1472</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14462,7 +14504,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
   </cols>
   <sheetData>
@@ -16817,7 +16859,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.54"/>
   </cols>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="1950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="2038">
   <si>
     <t xml:space="preserve">WANT</t>
   </si>
@@ -5878,16 +5878,281 @@
     <t xml:space="preserve">Warren Presents: Star Quest Comix</t>
   </si>
   <si>
+    <t xml:space="preserve">A Feature Presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Album of Crime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Album of Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Good Comics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Great Comics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Great Jungle Adventures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Real Confession Magazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Top Comics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Your Comics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All-Famous Crime Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All-Great Confessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All-Great Crime Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almanac of Crime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal Crackers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book of All-Comics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book of Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burning Romances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captain Kidd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cody of the Pony Express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colossal Features Magazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosmo Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crime Incorporated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crimes by Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crimes Incorporated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daring Love Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorothy Lamour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everybody's Comics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exciting Romance Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Famous Crimes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Famous Love</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fantastic Comics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature Presentations Magazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature Stories Magazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank Buck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Color Comics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Douglas MacArthur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoot Gibson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoot Gibson's Western Round Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Loved Real Confession Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inside Crime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intimate Confessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo-Jo Comics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Crime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judy Canova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jungle Jo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jungle Lil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior [Junior Comics]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krazy Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li'l Pan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life With Snarky Parker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love Problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love Thrills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March of Crime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Kane, Private Eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meet Corliss Archer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murder Incorporated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Confession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Confessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Desire Intimate Confessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Great Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Intimate Affair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Life True Stories in Pictures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Love Affair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Love Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Love Memoirs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Love Secret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Love Story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Past Thrilling Confessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Private Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Secret Affair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Secret Romance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Secret Story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Story True Romances in Pictures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My True Love Thrilling Confession Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mystery Men Comics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuttylife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phantom Lady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin-Up Cartoons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revealing Love Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Book of Comics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bouncer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Eagle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Green Mask</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
+    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -6106,7 +6371,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6153,6 +6418,14 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -7459,26 +7732,1195 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="7" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>1949</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1472</v>
-      </c>
+      <c r="B1" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B2" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B3" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B4" s="12" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B6" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B8" s="12" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B10" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B11" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B12" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B13" s="12" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B14" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B15" s="12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B17" s="12" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B18" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B19" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B20" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B21" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B22" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B23" s="12" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B24" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B25" s="12" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B26" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B27" s="12" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B28" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B29" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B30" s="12" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B31" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B32" s="12" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B33" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B34" s="12" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B35" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B36" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B37" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B38" s="12" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B39" s="12" t="n">
+        <v>1951</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B40" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B41" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B42" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B43" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B44" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B45" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B46" s="12" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B47" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B48" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B49" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B50" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B51" s="12" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B52" s="12" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B53" s="12" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B54" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="10" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B55" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="10" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B56" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B57" s="12" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B58" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="10" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B59" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="10" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B60" s="12" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="10" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B61" s="12" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="10" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B62" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="10" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B63" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="10" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B64" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="10" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B65" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="13"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="10" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B66" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="10" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B67" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="10" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B68" s="12" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="10" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B69" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="10" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B70" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="10" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B71" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="10" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B72" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="10" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B73" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="10" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B74" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B75" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="10" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B76" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B77" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="10" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B78" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="10" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B79" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="10" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B80" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="10" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B81" s="12" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="10" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B82" s="12" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="10" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B83" s="12" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="10" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B84" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="10" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B85" s="12" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="10" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B86" s="12" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B87" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="10" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B88" s="12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="10" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B89" s="12" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="10" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B90" s="12" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="10" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B91" s="12" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="10" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B92" s="12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="10" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B93" s="12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="10"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="10"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="10"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="10"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="10"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="10"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="13"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="10"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="A Feature Presentation"/>
+    <hyperlink ref="A2" r:id="rId2" display="Album of Crime"/>
+    <hyperlink ref="A3" r:id="rId3" display="Album of Love"/>
+    <hyperlink ref="A4" r:id="rId4" display="All Good Comics"/>
+    <hyperlink ref="A5" r:id="rId5" display="All Great Comics"/>
+    <hyperlink ref="A6" r:id="rId6" display="All Great Jungle Adventures"/>
+    <hyperlink ref="A7" r:id="rId7" display="All Real Confession Magazine"/>
+    <hyperlink ref="A8" r:id="rId8" display="All Top Comics"/>
+    <hyperlink ref="A9" r:id="rId9" display="All Your Comics"/>
+    <hyperlink ref="A10" r:id="rId10" display="All-Famous Crime Stories"/>
+    <hyperlink ref="A11" r:id="rId11" display="All-Great Confessions"/>
+    <hyperlink ref="A12" r:id="rId12" display="All-Great Crime Stories"/>
+    <hyperlink ref="A13" r:id="rId13" display="Almanac of Crime"/>
+    <hyperlink ref="A14" r:id="rId14" display="Animal Crackers"/>
+    <hyperlink ref="A15" r:id="rId15" display="Big 3"/>
+    <hyperlink ref="A16" r:id="rId16" display="Blue Beetle"/>
+    <hyperlink ref="A17" r:id="rId17" display="Book of All-Comics"/>
+    <hyperlink ref="A18" r:id="rId18" display="Book of Love"/>
+    <hyperlink ref="A19" r:id="rId19" display="Burning Romances"/>
+    <hyperlink ref="A20" r:id="rId20" display="Captain Kidd"/>
+    <hyperlink ref="A21" r:id="rId21" display="Cody of the Pony Express"/>
+    <hyperlink ref="A22" r:id="rId22" display="Colossal Features Magazine"/>
+    <hyperlink ref="A23" r:id="rId23" display="Cosmo Cat"/>
+    <hyperlink ref="A24" r:id="rId24" display="Crime Incorporated"/>
+    <hyperlink ref="A25" r:id="rId25" display="Crimes by Women"/>
+    <hyperlink ref="A26" r:id="rId26" display="Crimes Incorporated"/>
+    <hyperlink ref="A27" r:id="rId27" display="Dagar"/>
+    <hyperlink ref="A28" r:id="rId28" display="Daring Love Stories"/>
+    <hyperlink ref="A29" r:id="rId29" display="Dorothy Lamour"/>
+    <hyperlink ref="A30" r:id="rId30" display="Everybody's Comics"/>
+    <hyperlink ref="A31" r:id="rId31" display="Exciting Romance Stories"/>
+    <hyperlink ref="A32" r:id="rId32" display="Famous Crimes"/>
+    <hyperlink ref="A33" r:id="rId33" display="Famous Love"/>
+    <hyperlink ref="A34" r:id="rId34" display="Fantastic Comics"/>
+    <hyperlink ref="A35" r:id="rId35" display="Feature Presentations Magazine"/>
+    <hyperlink ref="A36" r:id="rId36" display="Feature Stories Magazine"/>
+    <hyperlink ref="A37" r:id="rId37" display="Frank Buck"/>
+    <hyperlink ref="A38" r:id="rId38" display="Full Color Comics"/>
+    <hyperlink ref="A39" r:id="rId39" display="General Douglas MacArthur"/>
+    <hyperlink ref="A40" r:id="rId40" display="Hoot Gibson"/>
+    <hyperlink ref="A41" r:id="rId41" display="Hoot Gibson's Western Round Up"/>
+    <hyperlink ref="A42" r:id="rId42" display="Hunted"/>
+    <hyperlink ref="A43" r:id="rId43" display="I Loved Real Confession Stories"/>
+    <hyperlink ref="A44" r:id="rId44" display="Inside Crime"/>
+    <hyperlink ref="A45" r:id="rId45" display="Intimate Confessions"/>
+    <hyperlink ref="A46" r:id="rId46" display="Jo-Jo Comics"/>
+    <hyperlink ref="A47" r:id="rId47" display="Journal of Crime"/>
+    <hyperlink ref="A48" r:id="rId48" display="Judy Canova"/>
+    <hyperlink ref="A49" r:id="rId49" display="Jungle Jo"/>
+    <hyperlink ref="A50" r:id="rId50" display="Jungle Lil"/>
+    <hyperlink ref="A51" r:id="rId51" display="Junior [Junior Comics]"/>
+    <hyperlink ref="A52" r:id="rId52" display="Krazy Life"/>
+    <hyperlink ref="A53" r:id="rId53" display="Li'l Pan"/>
+    <hyperlink ref="A54" r:id="rId54" display="Life With Snarky Parker"/>
+    <hyperlink ref="A55" r:id="rId55" display="Love Problems"/>
+    <hyperlink ref="A56" r:id="rId56" display="Love Thrills"/>
+    <hyperlink ref="A57" r:id="rId57" display="March of Crime"/>
+    <hyperlink ref="A58" r:id="rId58" display="March of Crime"/>
+    <hyperlink ref="A59" r:id="rId59" display="Martin Kane, Private Eye"/>
+    <hyperlink ref="A60" r:id="rId60" display="Meet Corliss Archer"/>
+    <hyperlink ref="A61" r:id="rId61" display="Murder Incorporated"/>
+    <hyperlink ref="A62" r:id="rId62" display="My Confession"/>
+    <hyperlink ref="A63" r:id="rId63" display="My Confessions"/>
+    <hyperlink ref="A64" r:id="rId64" display="My Desire Intimate Confessions"/>
+    <hyperlink ref="A65" r:id="rId65" display="My Experience"/>
+    <hyperlink ref="A66" r:id="rId66" display="My Great Love"/>
+    <hyperlink ref="A67" r:id="rId67" display="My Intimate Affair"/>
+    <hyperlink ref="A68" r:id="rId68" display="My Life True Stories in Pictures"/>
+    <hyperlink ref="A69" r:id="rId69" display="My Love Affair"/>
+    <hyperlink ref="A70" r:id="rId70" display="My Love Life"/>
+    <hyperlink ref="A71" r:id="rId71" display="My Love Memoirs"/>
+    <hyperlink ref="A72" r:id="rId72" display="My Love Secret"/>
+    <hyperlink ref="A73" r:id="rId73" display="My Love Story"/>
+    <hyperlink ref="A74" r:id="rId74" display="My Past Thrilling Confessions"/>
+    <hyperlink ref="A75" r:id="rId75" display="My Private Life"/>
+    <hyperlink ref="A76" r:id="rId76" display="My Secret Affair"/>
+    <hyperlink ref="A77" r:id="rId77" display="My Secret Life"/>
+    <hyperlink ref="A78" r:id="rId78" display="My Secret Romance"/>
+    <hyperlink ref="A79" r:id="rId79" display="My Secret Story"/>
+    <hyperlink ref="A80" r:id="rId80" display="My Story True Romances in Pictures"/>
+    <hyperlink ref="A81" r:id="rId81" display="My True Love Thrilling Confession Stories"/>
+    <hyperlink ref="A82" r:id="rId82" display="Mystery Men Comics"/>
+    <hyperlink ref="A83" r:id="rId83" display="Nuttylife"/>
+    <hyperlink ref="A84" r:id="rId84" display="Pedro"/>
+    <hyperlink ref="A85" r:id="rId85" display="Phantom Lady"/>
+    <hyperlink ref="A86" r:id="rId86" display="Pin-Up Cartoons"/>
+    <hyperlink ref="A87" r:id="rId87" display="Range Busters"/>
+    <hyperlink ref="A88" r:id="rId88" display="Revealing Love Stories"/>
+    <hyperlink ref="A89" r:id="rId89" display="The Book of Comics"/>
+    <hyperlink ref="A90" r:id="rId90" display="The Bouncer"/>
+    <hyperlink ref="A91" r:id="rId91" display="The Eagle"/>
+    <hyperlink ref="A92" r:id="rId92" display="The Flame"/>
+    <hyperlink ref="A93" r:id="rId93" display="The Green Mask"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8629,6 +8629,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C2:F177" headerRowCount="0" totalsRowShown="0">
+  <sortState ref="C2:D177">
+    <sortCondition ref="C2"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -8904,8 +8907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9449,7 +9452,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
         <v>133</v>
@@ -9457,7 +9460,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s">
         <v>135</v>
@@ -9465,7 +9468,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
         <v>137</v>
@@ -9473,7 +9476,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C70" t="s">
         <v>139</v>
@@ -9481,7 +9484,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
         <v>141</v>
@@ -9489,7 +9492,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
         <v>143</v>
@@ -9497,7 +9500,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
         <v>145</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C74" t="s">
         <v>147</v>
@@ -9513,7 +9516,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
         <v>149</v>
@@ -9521,7 +9524,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C76" t="s">
         <v>151</v>
@@ -9529,7 +9532,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C77" t="s">
         <v>153</v>
@@ -9537,7 +9540,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C78" t="s">
         <v>155</v>
@@ -9545,7 +9548,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
         <v>157</v>
@@ -9553,7 +9556,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C80" t="s">
         <v>159</v>
@@ -9561,7 +9564,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C81" t="s">
         <v>161</v>
@@ -9569,7 +9572,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
         <v>163</v>
@@ -9577,7 +9580,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s">
         <v>165</v>
@@ -9585,7 +9588,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
         <v>167</v>
@@ -9593,7 +9596,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
         <v>169</v>
@@ -9601,7 +9604,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
         <v>171</v>
@@ -9609,7 +9612,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
         <v>173</v>
@@ -9617,7 +9620,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C88" t="s">
         <v>175</v>
@@ -9625,7 +9628,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C89" t="s">
         <v>177</v>
@@ -9633,521 +9636,513 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C101" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C103" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C104" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C105" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>214</v>
+      </c>
       <c r="C106" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C107" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C108" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C109" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C110" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C111" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C112" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C113" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C114" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C115" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C116" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C117" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C118" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C119" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C120" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C121" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C122" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C123" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C125" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C126" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C127" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C128" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C129" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>258</v>
+      <c r="A130" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="C130" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C131" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C132" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>263</v>
+        <v>267</v>
+      </c>
+      <c r="C133" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" s="3" t="s">
-        <v>264</v>
+      <c r="A134" t="s">
+        <v>268</v>
+      </c>
+      <c r="C134" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>265</v>
+        <v>269</v>
+      </c>
+      <c r="C135" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B154" s="3"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>292</v>
+      <c r="A162" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
         <v>297</v>
       </c>
     </row>
@@ -10155,6 +10150,9 @@
       <c r="D177" s="6"/>
     </row>
   </sheetData>
+  <sortState ref="A2:A167">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
@@ -11356,10 +11354,10 @@
     <hyperlink ref="A93" r:id="rId93"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId94"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11888,7 +11886,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -12274,9 +12275,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential</oddFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -13700,10 +13701,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -18858,9 +18859,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential</oddFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -19160,10 +19161,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -25088,9 +25089,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential</oddFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -25455,9 +25456,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential</oddFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -27805,10 +27806,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -28041,9 +28042,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential</oddFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Creators" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="2762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="2762">
   <si>
     <t>WANT</t>
   </si>
@@ -12274,7 +12274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
@@ -18766,13 +18766,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.08984375" customWidth="1"/>
+    <col min="1" max="1" width="68.81640625" customWidth="1"/>
     <col min="2" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18910,10 +18910,16 @@
       <c r="A18" t="s">
         <v>1521</v>
       </c>
+      <c r="B18" t="s">
+        <v>1503</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1522</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Creators" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="2762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3643" uniqueCount="2762">
   <si>
     <t>WANT</t>
   </si>
@@ -18766,8 +18766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25002,7 +25002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -25214,6 +25216,9 @@
       <c r="B20">
         <v>1982</v>
       </c>
+      <c r="C20" t="s">
+        <v>1503</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -25308,6 +25313,9 @@
       </c>
       <c r="B30">
         <v>1984</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Creators" sheetId="1" r:id="rId1"/>
@@ -25002,8 +25002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25377,8 +25377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B382"/>
   <sheetViews>
-    <sheetView topLeftCell="A361" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A361" sqref="A361"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3643" uniqueCount="2762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="2762">
   <si>
     <t>WANT</t>
   </si>
@@ -25377,8 +25377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B382"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25463,6 +25463,9 @@
       <c r="A10" s="11" t="s">
         <v>2211</v>
       </c>
+      <c r="B10" t="s">
+        <v>1503</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
@@ -25942,6 +25945,9 @@
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
         <v>2275</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Creators" sheetId="1" r:id="rId1"/>
     <sheet name="Atlas = Done" sheetId="2" r:id="rId2"/>
-    <sheet name="Charlton" sheetId="3" r:id="rId3"/>
-    <sheet name="Dark Horse" sheetId="4" r:id="rId4"/>
-    <sheet name="EC" sheetId="5" r:id="rId5"/>
-    <sheet name="Image" sheetId="6" r:id="rId6"/>
-    <sheet name="PC" sheetId="7" r:id="rId7"/>
-    <sheet name="Vertigo" sheetId="8" r:id="rId8"/>
-    <sheet name="Warren" sheetId="9" r:id="rId9"/>
-    <sheet name="Fox" sheetId="10" r:id="rId10"/>
-    <sheet name="Stanley Morse" sheetId="11" r:id="rId11"/>
+    <sheet name="Centaur" sheetId="12" r:id="rId3"/>
+    <sheet name="Charlton" sheetId="3" r:id="rId4"/>
+    <sheet name="Dark Horse" sheetId="4" r:id="rId5"/>
+    <sheet name="EC" sheetId="5" r:id="rId6"/>
+    <sheet name="Image" sheetId="6" r:id="rId7"/>
+    <sheet name="PC" sheetId="7" r:id="rId8"/>
+    <sheet name="Vertigo" sheetId="8" r:id="rId9"/>
+    <sheet name="Warren" sheetId="9" r:id="rId10"/>
+    <sheet name="Fox" sheetId="10" r:id="rId11"/>
+    <sheet name="Stanley Morse" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="2762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3719" uniqueCount="2801">
   <si>
     <t>WANT</t>
   </si>
@@ -8320,6 +8321,123 @@
   </si>
   <si>
     <t>November 1954 - May 1955</t>
+  </si>
+  <si>
+    <t>Amazing Adventure Funnies [m]</t>
+  </si>
+  <si>
+    <t>Amazing Man Comics</t>
+  </si>
+  <si>
+    <t>Amazing Mystery Funnies</t>
+  </si>
+  <si>
+    <t>Amazing Mystery Funnies [m]</t>
+  </si>
+  <si>
+    <t>The Arrow</t>
+  </si>
+  <si>
+    <t>C-M-O Comics</t>
+  </si>
+  <si>
+    <t>Cheers [m]</t>
+  </si>
+  <si>
+    <t>13 issues (0 indexed)</t>
+  </si>
+  <si>
+    <t>Comic Pages [m]</t>
+  </si>
+  <si>
+    <t>Cowboy Comics [m]</t>
+  </si>
+  <si>
+    <t>Detective Eye</t>
+  </si>
+  <si>
+    <t>Fantoman [m]</t>
+  </si>
+  <si>
+    <t>Funny Pages [m]</t>
+  </si>
+  <si>
+    <t>26 issues (26 indexed)</t>
+  </si>
+  <si>
+    <t>Funny Picture Stories [m]</t>
+  </si>
+  <si>
+    <t>Funny Picture Stories [Laundromat Giveaway] [m]</t>
+  </si>
+  <si>
+    <t>Jeeps! [m]</t>
+  </si>
+  <si>
+    <t>Keen Detective Funnies</t>
+  </si>
+  <si>
+    <t>Keen Komics</t>
+  </si>
+  <si>
+    <t>Keep 'Em Laughing! [m]</t>
+  </si>
+  <si>
+    <t>Khaki Komics</t>
+  </si>
+  <si>
+    <t>Khaki Wacky</t>
+  </si>
+  <si>
+    <t>Liberty Guards Comics [m]</t>
+  </si>
+  <si>
+    <t>Liberty Scouts Comics [m]</t>
+  </si>
+  <si>
+    <t>Little Giant Comics</t>
+  </si>
+  <si>
+    <t>Little Giant Detective Funnies</t>
+  </si>
+  <si>
+    <t>Little Giant Movie Funnies</t>
+  </si>
+  <si>
+    <t>Man of War Comics</t>
+  </si>
+  <si>
+    <t>Masked Marvel [m]</t>
+  </si>
+  <si>
+    <t>Star Comics [m]</t>
+  </si>
+  <si>
+    <t>Star Ranger [m]</t>
+  </si>
+  <si>
+    <t>Star Ranger Funnies [m]</t>
+  </si>
+  <si>
+    <t>Stars and Stripes Comics</t>
+  </si>
+  <si>
+    <t>Super Spy</t>
+  </si>
+  <si>
+    <t>Uncle Joe's Funnies</t>
+  </si>
+  <si>
+    <t>Wham Comics</t>
+  </si>
+  <si>
+    <t>What's Cookin'! [m]</t>
+  </si>
+  <si>
+    <t>World Famous Heroes Magazine</t>
+  </si>
+  <si>
+    <t>Yoo Hoo! [m]</t>
   </si>
 </sst>
 </file>
@@ -10154,6 +10272,241 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="54.08984375" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="8" customWidth="1"/>
+    <col min="3" max="1025" width="8.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="8">
+        <v>1984</v>
+      </c>
+      <c r="B1" s="8">
+        <v>1978</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>1994</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1980</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1965</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1974</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1964</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1966</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1974</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1969</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="8">
+        <v>1978</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -11350,7 +11703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -12272,6 +12625,437 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="46.08984375" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B1">
+        <v>1940</v>
+      </c>
+      <c r="C1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B2">
+        <v>1939</v>
+      </c>
+      <c r="C2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B3">
+        <v>1938</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B4">
+        <v>1942</v>
+      </c>
+      <c r="C4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B5">
+        <v>1940</v>
+      </c>
+      <c r="C5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B6">
+        <v>1942</v>
+      </c>
+      <c r="C6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B7">
+        <v>1942</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B8">
+        <v>1939</v>
+      </c>
+      <c r="C8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B9">
+        <v>1938</v>
+      </c>
+      <c r="C9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B10">
+        <v>1940</v>
+      </c>
+      <c r="C10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B11">
+        <v>1940</v>
+      </c>
+      <c r="C11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B12">
+        <v>1938</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B13">
+        <v>1938</v>
+      </c>
+      <c r="C13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B14">
+        <v>1938</v>
+      </c>
+      <c r="C14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B15">
+        <v>1942</v>
+      </c>
+      <c r="C15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B16">
+        <v>1938</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B17">
+        <v>1939</v>
+      </c>
+      <c r="C17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B18">
+        <v>1942</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B19">
+        <v>1941</v>
+      </c>
+      <c r="C19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B20">
+        <v>1941</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B21">
+        <v>1942</v>
+      </c>
+      <c r="C21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B22">
+        <v>1941</v>
+      </c>
+      <c r="C22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B23">
+        <v>1938</v>
+      </c>
+      <c r="C23" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B24">
+        <v>1938</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B25">
+        <v>1938</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B26">
+        <v>1941</v>
+      </c>
+      <c r="C26" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B27">
+        <v>1940</v>
+      </c>
+      <c r="C27" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B28">
+        <v>1938</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B29">
+        <v>1938</v>
+      </c>
+      <c r="C29" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B30">
+        <v>1938</v>
+      </c>
+      <c r="C30" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B31">
+        <v>1941</v>
+      </c>
+      <c r="C31" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B32">
+        <v>1940</v>
+      </c>
+      <c r="C32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B33">
+        <v>1938</v>
+      </c>
+      <c r="C33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B34">
+        <v>1940</v>
+      </c>
+      <c r="C34" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B35">
+        <v>1942</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B36">
+        <v>1941</v>
+      </c>
+      <c r="C36" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B37">
+        <v>1942</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -13605,7 +14389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1027"/>
   <sheetViews>
@@ -18762,7 +19546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
@@ -19071,7 +19855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK400"/>
   <sheetViews>
@@ -24998,7 +25782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
@@ -25373,11 +26157,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
@@ -27728,239 +28512,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="54.08984375" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="8" customWidth="1"/>
-    <col min="3" max="1025" width="8.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="8">
-        <v>1984</v>
-      </c>
-      <c r="B1" s="8">
-        <v>1978</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
-        <v>1994</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1980</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2580</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1965</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2581</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1974</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2582</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1964</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2583</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2584</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1966</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>2585</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>2586</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>2587</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>2588</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2589</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>2590</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>2591</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>2592</v>
-      </c>
-      <c r="B15" s="8">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>2593</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>2594</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1974</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>2595</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>2596</v>
-      </c>
-      <c r="B19" s="8">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>2597</v>
-      </c>
-      <c r="B20" s="8">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>2598</v>
-      </c>
-      <c r="B21" s="8">
-        <v>1969</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>2599</v>
-      </c>
-      <c r="B22" s="8">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>2600</v>
-      </c>
-      <c r="B23" s="8">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="8">
-        <v>1978</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="850"/>
   </bookViews>
   <sheets>
-    <sheet name="Creators" sheetId="1" r:id="rId1"/>
-    <sheet name="Atlas = Done" sheetId="2" r:id="rId2"/>
-    <sheet name="Centaur" sheetId="12" r:id="rId3"/>
-    <sheet name="Charlton" sheetId="3" r:id="rId4"/>
-    <sheet name="Dark Horse" sheetId="4" r:id="rId5"/>
-    <sheet name="EC" sheetId="5" r:id="rId6"/>
-    <sheet name="Image" sheetId="6" r:id="rId7"/>
-    <sheet name="PC" sheetId="7" r:id="rId8"/>
-    <sheet name="Vertigo" sheetId="8" r:id="rId9"/>
-    <sheet name="Warren" sheetId="9" r:id="rId10"/>
-    <sheet name="Fox" sheetId="10" r:id="rId11"/>
-    <sheet name="Stanley Morse" sheetId="11" r:id="rId12"/>
+    <sheet name="Publishers" sheetId="13" r:id="rId1"/>
+    <sheet name="Creators" sheetId="1" r:id="rId2"/>
+    <sheet name="Atlas = Done" sheetId="2" r:id="rId3"/>
+    <sheet name="Centaur" sheetId="12" r:id="rId4"/>
+    <sheet name="Charlton" sheetId="3" r:id="rId5"/>
+    <sheet name="Dark Horse" sheetId="4" r:id="rId6"/>
+    <sheet name="EC" sheetId="5" r:id="rId7"/>
+    <sheet name="Image" sheetId="6" r:id="rId8"/>
+    <sheet name="PC" sheetId="7" r:id="rId9"/>
+    <sheet name="Vertigo" sheetId="8" r:id="rId10"/>
+    <sheet name="Warren" sheetId="9" r:id="rId11"/>
+    <sheet name="Fox" sheetId="10" r:id="rId12"/>
+    <sheet name="Stanley Morse" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3719" uniqueCount="2801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3942" uniqueCount="3010">
   <si>
     <t>WANT</t>
   </si>
@@ -8438,6 +8439,633 @@
   </si>
   <si>
     <t>Yoo Hoo! [m]</t>
+  </si>
+  <si>
+    <t>Centaur</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Dark Horse</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Vertigo</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>Stanley Morse</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Aardvark-Vanaheim</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Abrams Books</t>
+  </si>
+  <si>
+    <t>Accolade</t>
+  </si>
+  <si>
+    <t>Ace</t>
+  </si>
+  <si>
+    <t>Activision</t>
+  </si>
+  <si>
+    <t>AdHouse Books</t>
+  </si>
+  <si>
+    <t>Adult Swim</t>
+  </si>
+  <si>
+    <t>Atlas Seaboard</t>
+  </si>
+  <si>
+    <t>Albatross</t>
+  </si>
+  <si>
+    <t>America's Best</t>
+  </si>
+  <si>
+    <t>American Greetings</t>
+  </si>
+  <si>
+    <t>Apex Novelty</t>
+  </si>
+  <si>
+    <t>Archie</t>
+  </si>
+  <si>
+    <t>Atomeka</t>
+  </si>
+  <si>
+    <t>Avco Embassy</t>
+  </si>
+  <si>
+    <t>Avon</t>
+  </si>
+  <si>
+    <t>BAM</t>
+  </si>
+  <si>
+    <t>Bandai</t>
+  </si>
+  <si>
+    <t>Baronet Books</t>
+  </si>
+  <si>
+    <t>BBC</t>
+  </si>
+  <si>
+    <t>Bird Studio</t>
+  </si>
+  <si>
+    <t>Black Mask Studios</t>
+  </si>
+  <si>
+    <t>Blizzard</t>
+  </si>
+  <si>
+    <t>Brookwood</t>
+  </si>
+  <si>
+    <t>Capcom</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Cartoon Network</t>
+  </si>
+  <si>
+    <t>Casterman</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>Chesler</t>
+  </si>
+  <si>
+    <t>Chilton Books</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Comic Media</t>
+  </si>
+  <si>
+    <t>Continuity Graphics</t>
+  </si>
+  <si>
+    <t>Creators Syndicate</t>
+  </si>
+  <si>
+    <t>Culture Publications</t>
+  </si>
+  <si>
+    <t>Cuples &amp; Leon</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
+    <t>D.S. Publishing</t>
+  </si>
+  <si>
+    <t>Davis McKay</t>
+  </si>
+  <si>
+    <t>DC Thompson</t>
+  </si>
+  <si>
+    <t>Disney</t>
+  </si>
+  <si>
+    <t>Drawn &amp; Quarterly</t>
+  </si>
+  <si>
+    <t>Dynamite Entertainment</t>
+  </si>
+  <si>
+    <t>Eastern Color</t>
+  </si>
+  <si>
+    <t>Eastman</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>Eisner &amp; Iger</t>
+  </si>
+  <si>
+    <t>Elliot Publishing</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Etermity</t>
+  </si>
+  <si>
+    <t>Experimenter</t>
+  </si>
+  <si>
+    <t>Fantagraphics</t>
+  </si>
+  <si>
+    <t>Farrell</t>
+  </si>
+  <si>
+    <t>Fawcett</t>
+  </si>
+  <si>
+    <t>Fiction House</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>First Hand</t>
+  </si>
+  <si>
+    <t>First Second</t>
+  </si>
+  <si>
+    <t>Fishwrap</t>
+  </si>
+  <si>
+    <t>Gainax</t>
+  </si>
+  <si>
+    <t>Ged Dunn</t>
+  </si>
+  <si>
+    <t>Gredown</t>
+  </si>
+  <si>
+    <t>Green Publishing</t>
+  </si>
+  <si>
+    <t>Hanna-Barbera</t>
+  </si>
+  <si>
+    <t>Harvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasbro </t>
+  </si>
+  <si>
+    <t>HBO</t>
+  </si>
+  <si>
+    <t>Hearst</t>
+  </si>
+  <si>
+    <t>Heilx</t>
+  </si>
+  <si>
+    <t>Hi-Fructose</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>High Speed</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Howard, Ainslee &amp; Co</t>
+  </si>
+  <si>
+    <t>Hummanoid</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>IDW</t>
+  </si>
+  <si>
+    <t>Iger</t>
+  </si>
+  <si>
+    <t>IPC</t>
+  </si>
+  <si>
+    <t>J.K. Rowling</t>
+  </si>
+  <si>
+    <t>J.R.R. Tolkien</t>
+  </si>
+  <si>
+    <t>James Swinerton</t>
+  </si>
+  <si>
+    <t>Jane Webb</t>
+  </si>
+  <si>
+    <t>Jim Henson Company</t>
+  </si>
+  <si>
+    <t>Jim Henson Productions</t>
+  </si>
+  <si>
+    <t>Johan et Prilouit</t>
+  </si>
+  <si>
+    <t>JQ/LAF</t>
+  </si>
+  <si>
+    <t>Kenzer &amp; Company</t>
+  </si>
+  <si>
+    <t>King Comics</t>
+  </si>
+  <si>
+    <t>King Features</t>
+  </si>
+  <si>
+    <t>King Hell</t>
+  </si>
+  <si>
+    <t>Kitchen Sink</t>
+  </si>
+  <si>
+    <t>Kobunsha</t>
+  </si>
+  <si>
+    <t>Koyama Press</t>
+  </si>
+  <si>
+    <t>Last Gasp</t>
+  </si>
+  <si>
+    <t>Legendary</t>
+  </si>
+  <si>
+    <t>Lev Gleason</t>
+  </si>
+  <si>
+    <t>Lucasfilm</t>
+  </si>
+  <si>
+    <t>Magazine Enterprises</t>
+  </si>
+  <si>
+    <t>Mattel</t>
+  </si>
+  <si>
+    <t>McCombs</t>
+  </si>
+  <si>
+    <t>Metal Mammoth</t>
+  </si>
+  <si>
+    <t>MGM</t>
+  </si>
+  <si>
+    <t>Microsoft Studios</t>
+  </si>
+  <si>
+    <t>Midway</t>
+  </si>
+  <si>
+    <t>Mirage</t>
+  </si>
+  <si>
+    <t>MLJ</t>
+  </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>MTV</t>
+  </si>
+  <si>
+    <t>National Allied</t>
+  </si>
+  <si>
+    <t>Naughty Dog</t>
+  </si>
+  <si>
+    <t>NBC</t>
+  </si>
+  <si>
+    <t>Nedor</t>
+  </si>
+  <si>
+    <t>Neople</t>
+  </si>
+  <si>
+    <t>New Line Cinema</t>
+  </si>
+  <si>
+    <t>New York American</t>
+  </si>
+  <si>
+    <t>New York Globe</t>
+  </si>
+  <si>
+    <t>New York Herald</t>
+  </si>
+  <si>
+    <t>Newspaper Enterprise</t>
+  </si>
+  <si>
+    <t>Nickelodeon</t>
+  </si>
+  <si>
+    <t>Nintendo</t>
+  </si>
+  <si>
+    <t>No Starch Press</t>
+  </si>
+  <si>
+    <t>Novelty Press</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>Outer Himalayan</t>
+  </si>
+  <si>
+    <t>Pantheon Books</t>
+  </si>
+  <si>
+    <t>Paramount</t>
+  </si>
+  <si>
+    <t>Pendulum Press</t>
+  </si>
+  <si>
+    <t>Penguin Books</t>
+  </si>
+  <si>
+    <t>Pilote</t>
+  </si>
+  <si>
+    <t>Pines</t>
+  </si>
+  <si>
+    <t>Prianha</t>
+  </si>
+  <si>
+    <t>Pixar</t>
+  </si>
+  <si>
+    <t>Post-Hall</t>
+  </si>
+  <si>
+    <t>Premier</t>
+  </si>
+  <si>
+    <t>Prize Publications</t>
+  </si>
+  <si>
+    <t>Public Affairs</t>
+  </si>
+  <si>
+    <t>Top Shelf</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Bill Gaines</t>
+  </si>
+  <si>
+    <t>Puck Publishing</t>
+  </si>
+  <si>
+    <t>Quality Comics</t>
+  </si>
+  <si>
+    <t>Random House</t>
+  </si>
+  <si>
+    <t>Raw Books</t>
+  </si>
+  <si>
+    <t>Renaissance Pictures</t>
+  </si>
+  <si>
+    <t>Rip Off Press</t>
+  </si>
+  <si>
+    <t>RKO</t>
+  </si>
+  <si>
+    <t>Rual Publishing</t>
+  </si>
+  <si>
+    <t>Rural Home</t>
+  </si>
+  <si>
+    <t>Saban</t>
+  </si>
+  <si>
+    <t>Sega</t>
+  </si>
+  <si>
+    <t>SFCC</t>
+  </si>
+  <si>
+    <t>Shiny Entertainment</t>
+  </si>
+  <si>
+    <t>Shogakukan</t>
+  </si>
+  <si>
+    <t>Skywald</t>
+  </si>
+  <si>
+    <t>St John</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Star Publications</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Street &amp; Smith</t>
+  </si>
+  <si>
+    <t>Sullivan Studios</t>
+  </si>
+  <si>
+    <t>Sunrise</t>
+  </si>
+  <si>
+    <t>Superior</t>
+  </si>
+  <si>
+    <t>Taito</t>
+  </si>
+  <si>
+    <t>Takara Tomy</t>
+  </si>
+  <si>
+    <t>TBS</t>
+  </si>
+  <si>
+    <t>Temerson</t>
+  </si>
+  <si>
+    <t>Timely</t>
+  </si>
+  <si>
+    <t>Toby</t>
+  </si>
+  <si>
+    <t>Toei</t>
+  </si>
+  <si>
+    <t>Toho</t>
+  </si>
+  <si>
+    <t>Tokyo TV</t>
+  </si>
+  <si>
+    <t>Tokyopop</t>
+  </si>
+  <si>
+    <t>Tribune Media Services</t>
+  </si>
+  <si>
+    <t>Troma</t>
+  </si>
+  <si>
+    <t>Tyrannosaurus Press</t>
+  </si>
+  <si>
+    <t>Uncivilized Books</t>
+  </si>
+  <si>
+    <t>United Features</t>
+  </si>
+  <si>
+    <t>Universal</t>
+  </si>
+  <si>
+    <t>Universal Press Syndicate</t>
+  </si>
+  <si>
+    <t>USA Network</t>
+  </si>
+  <si>
+    <t>Verve</t>
+  </si>
+  <si>
+    <t>Viacom</t>
+  </si>
+  <si>
+    <t>VideoWest</t>
+  </si>
+  <si>
+    <t>Wallace Wood</t>
+  </si>
+  <si>
+    <t>Warner Bros</t>
+  </si>
+  <si>
+    <t>WARP Graphics</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>Wheelan</t>
+  </si>
+  <si>
+    <t>Whitman</t>
+  </si>
+  <si>
+    <t>Wilson &amp; Co</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>American Comics Group (ACG)</t>
+  </si>
+  <si>
+    <t>Pacific Comics (PC)</t>
   </si>
 </sst>
 </file>
@@ -9011,1266 +9639,3510 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:C210"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="1025" width="5.7265625" customWidth="1"/>
+    <col min="1" max="1" width="32.6328125" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>2812</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>657</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1951</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" t="s">
-        <v>63</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>67</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" t="s">
-        <v>69</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>71</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
+      <c r="A37" t="s">
+        <v>2844</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>75</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" t="s">
-        <v>79</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" t="s">
-        <v>81</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>83</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" t="s">
-        <v>85</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>2803</v>
+      </c>
+      <c r="B45" s="8">
+        <v>1986</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" t="s">
-        <v>91</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>2811</v>
+      </c>
+      <c r="B47" s="8">
+        <v>1934</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" t="s">
-        <v>95</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" t="s">
-        <v>97</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" t="s">
-        <v>99</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" t="s">
-        <v>101</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>2857</v>
+      </c>
+      <c r="B52" s="8">
+        <v>2005</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" t="s">
-        <v>105</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" t="s">
-        <v>107</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>109</v>
+        <v>2804</v>
+      </c>
+      <c r="B55" s="8">
+        <v>1944</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2954</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" t="s">
-        <v>111</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" t="s">
-        <v>113</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" t="s">
-        <v>115</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" t="s">
-        <v>117</v>
+      <c r="A59" t="s">
+        <v>2862</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" t="s">
-        <v>119</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" t="s">
-        <v>121</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" t="s">
-        <v>123</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>125</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>2867</v>
+      </c>
+      <c r="B64" s="8">
+        <v>1976</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>142</v>
-      </c>
-      <c r="C71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>154</v>
-      </c>
-      <c r="C77" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>156</v>
-      </c>
-      <c r="C78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>158</v>
-      </c>
-      <c r="C79" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>160</v>
-      </c>
-      <c r="C80" t="s">
-        <v>159</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>162</v>
-      </c>
-      <c r="C81" t="s">
-        <v>161</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>164</v>
-      </c>
-      <c r="C82" t="s">
-        <v>163</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>166</v>
-      </c>
-      <c r="C83" t="s">
-        <v>165</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>168</v>
-      </c>
-      <c r="C84" t="s">
-        <v>167</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85" t="s">
-        <v>169</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>172</v>
-      </c>
-      <c r="C86" t="s">
-        <v>171</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>174</v>
-      </c>
-      <c r="C87" t="s">
-        <v>173</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>176</v>
-      </c>
-      <c r="C88" t="s">
-        <v>175</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>2892</v>
+      </c>
+      <c r="B89" s="8">
+        <v>1999</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>180</v>
-      </c>
-      <c r="C90" t="s">
-        <v>132</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>2805</v>
+      </c>
+      <c r="B91" s="8">
+        <v>1992</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>184</v>
-      </c>
-      <c r="C92" t="s">
-        <v>181</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>186</v>
-      </c>
-      <c r="C93" t="s">
-        <v>183</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>188</v>
-      </c>
-      <c r="C94" t="s">
-        <v>185</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>190</v>
-      </c>
-      <c r="B95" s="3"/>
-      <c r="C95" t="s">
-        <v>187</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>192</v>
-      </c>
-      <c r="B96" s="5"/>
-      <c r="C96" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>194</v>
-      </c>
-      <c r="C97" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>196</v>
-      </c>
-      <c r="C98" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>198</v>
-      </c>
-      <c r="C99" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>200</v>
-      </c>
-      <c r="C100" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>202</v>
-      </c>
-      <c r="C101" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C102" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C103" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>208</v>
-      </c>
-      <c r="C104" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>212</v>
-      </c>
-      <c r="C105" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>218</v>
-      </c>
-      <c r="C108" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>220</v>
-      </c>
-      <c r="C109" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>222</v>
-      </c>
-      <c r="C110" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>226</v>
-      </c>
-      <c r="C112" t="s">
-        <v>215</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>228</v>
+        <v>2810</v>
+      </c>
+      <c r="B113" s="8">
+        <v>1961</v>
       </c>
       <c r="C113" t="s">
-        <v>217</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>230</v>
-      </c>
-      <c r="C114" t="s">
-        <v>219</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>232</v>
-      </c>
-      <c r="C115" t="s">
-        <v>221</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>234</v>
-      </c>
-      <c r="C116" t="s">
-        <v>223</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>238</v>
-      </c>
-      <c r="C117" t="s">
-        <v>225</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>240</v>
-      </c>
-      <c r="C118" t="s">
-        <v>227</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>242</v>
-      </c>
-      <c r="C119" t="s">
-        <v>229</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>244</v>
-      </c>
-      <c r="C120" t="s">
-        <v>231</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>246</v>
-      </c>
-      <c r="C121" t="s">
-        <v>233</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>250</v>
-      </c>
-      <c r="C122" t="s">
-        <v>235</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>252</v>
-      </c>
-      <c r="C123" t="s">
-        <v>237</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>254</v>
-      </c>
-      <c r="B124" s="3"/>
-      <c r="C124" t="s">
-        <v>239</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>256</v>
-      </c>
-      <c r="C125" t="s">
-        <v>241</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>258</v>
-      </c>
-      <c r="C126" t="s">
-        <v>243</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>260</v>
-      </c>
-      <c r="C127" t="s">
-        <v>245</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>262</v>
-      </c>
-      <c r="C128" t="s">
-        <v>247</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>263</v>
-      </c>
-      <c r="C129" t="s">
-        <v>249</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C130" t="s">
-        <v>251</v>
+      <c r="A130" t="s">
+        <v>2930</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>265</v>
-      </c>
-      <c r="C131" t="s">
-        <v>253</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>266</v>
-      </c>
-      <c r="C132" t="s">
-        <v>255</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>267</v>
-      </c>
-      <c r="C133" t="s">
-        <v>257</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>268</v>
-      </c>
-      <c r="C134" t="s">
-        <v>259</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>269</v>
-      </c>
-      <c r="C135" t="s">
-        <v>261</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>270</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>271</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>272</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>273</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>274</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>275</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>276</v>
+        <v>3009</v>
+      </c>
+      <c r="B142" s="8">
+        <v>1981</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2954</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>277</v>
+        <v>2941</v>
+      </c>
+      <c r="B143" s="8">
+        <v>1942</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2954</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>288</v>
-      </c>
-      <c r="B154" s="3"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>294</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>295</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="3" t="s">
-        <v>296</v>
+      <c r="A162" t="s">
+        <v>2963</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D177" s="6"/>
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B189" s="8">
+        <v>1997</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>3007</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A167">
-    <sortCondition ref="A2"/>
+  <sortState ref="A1:C211">
+    <sortCondition ref="A1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B382"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="2" max="1025" width="8.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="10">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="11" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="11" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="11" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="11" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="11" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="11" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="11" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="11" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="11" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="11" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="11" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="11" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="11" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="11" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="11" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="11" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="11" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="11" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="11" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="11" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="11" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="11" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="11" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="11" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="11" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="11" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="11" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="11" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="11" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="11" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="11" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="11" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="11" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="11" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="11" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="11" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="11" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="11" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="11" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="11" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="11" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="11" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="11" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="11" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="11" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="11" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="11" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="11" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="11" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="11" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="11" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="11" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="11" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="11" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="11" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="11" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="11" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="11" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="11" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="11" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="11" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="11" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="11" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="11" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="11" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="11" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="11" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="11" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="11" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="11" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="11" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="11" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="11" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="11" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="11" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="11" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="11" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="11" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="11" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="11" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="11" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="11" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="11" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="11" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="11" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="11" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="11" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="11" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="11" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="11" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="11" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="11" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="11" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="11" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="11" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="11" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="11" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="11" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="11" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="11" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="11" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="11" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="11" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="11" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="11" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="11" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="11" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="11" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="11" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="11" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="11" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="11" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="11" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="11" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="11" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="11" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="11" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="11" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="11" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="11" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="11" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="11" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="11" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="11" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="11" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="11" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="11" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="11" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="11" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="11" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="11" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="11" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="11" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="11" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="11" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="11" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="11" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="11" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="11" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="11" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="11" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="11" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="12" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="11" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="11" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="11" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="11" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="11" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="11" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="11" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="11" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="11" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="11" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="11" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="11" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="11" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="11" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="11" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="11" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="11" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="11" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="11" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="11" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="11" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="11" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="11" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="11" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="11" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="11" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="11" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="11" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="11" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="11" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="11" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="11" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="11" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="11" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="11" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="11" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="11" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="11" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="11" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="11" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="11" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="11" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="11" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="12" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="12" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="11" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="11" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="11" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="11" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="11" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="11" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="11" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="11" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="11" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" s="11" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" s="11" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259" s="11" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260" s="11" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261" s="11" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262" s="11" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263" s="11" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A264" s="11" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265" s="11" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266" s="11" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267" s="11" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268" s="11" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269" s="11" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A270" s="11" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271" s="11" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272" s="11" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="11" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="11" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="11" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="11" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="11" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="11" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="11" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="11" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="11" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="11" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="11" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="11" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="11" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="11" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="11" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="11" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" s="11" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" s="11" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" s="11" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" s="11" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" s="11" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" s="11" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" s="11" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" s="11" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" s="11" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" s="11" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="11" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" s="11" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" s="11" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" s="11" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" s="11" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" s="11" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" s="11" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" s="11" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" s="11" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" s="11" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" s="11" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" s="11" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" s="11" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" s="11" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" s="11" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" s="11" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" s="11" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" s="11" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" s="11" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" s="11" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" s="11" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" s="11" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" s="11" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" s="11" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" s="11" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" s="11" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" s="11" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" s="11" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" s="11" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" s="11" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" s="13" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" s="11" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" s="11" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" s="11" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" s="11" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" s="11" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" s="11" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" s="11" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A337" s="11" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A338" s="11" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A339" s="11" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A340" s="11" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A341" s="11" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A342" s="11" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A343" s="11" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A344" s="11" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A345" s="11" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A346" s="11" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A347" s="11" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A348" s="11" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A349" s="11" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A350" s="11" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A351" s="11" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A352" s="11" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" s="11" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" s="11" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" s="11" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" s="11" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" s="11" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358" s="11" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" s="11" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360" s="11" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" s="11" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362" s="11" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" s="11" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" s="11" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365" s="11" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" s="11" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" s="11" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" s="11" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" s="11" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" s="11" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" s="11" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372" s="11" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373" s="11" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374" s="11" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375" s="11" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A376" s="11" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A377" s="11" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A378" s="11" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A379" s="11" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A380" s="11" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A381" s="11" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A382" s="11" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -10505,7 +13377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
@@ -11703,7 +14575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -12235,6 +15107,1271 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D177"/>
+  <sheetViews>
+    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.26953125" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="1025" width="5.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>238</v>
+      </c>
+      <c r="C117" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>240</v>
+      </c>
+      <c r="C118" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>242</v>
+      </c>
+      <c r="C119" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>244</v>
+      </c>
+      <c r="C120" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>246</v>
+      </c>
+      <c r="C121" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>250</v>
+      </c>
+      <c r="C122" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>252</v>
+      </c>
+      <c r="C123" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>254</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>258</v>
+      </c>
+      <c r="C126" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>262</v>
+      </c>
+      <c r="C128" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>263</v>
+      </c>
+      <c r="C129" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C130" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>265</v>
+      </c>
+      <c r="C131" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>268</v>
+      </c>
+      <c r="C134" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>270</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D136" s="8"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>288</v>
+      </c>
+      <c r="B154" s="3"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D177" s="6"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A167">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
@@ -12623,11 +16760,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -13054,11 +17191,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
@@ -14389,7 +18526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1027"/>
   <sheetViews>
@@ -19546,7 +23683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
@@ -19855,7 +23992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK400"/>
   <sheetViews>
@@ -25782,7 +29919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
@@ -26155,2361 +30292,4 @@
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B382"/>
-  <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="64" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="10">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>2203</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>2204</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>2205</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>2206</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>2207</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>2208</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>2209</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>2210</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>2211</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>2212</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>2213</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>2214</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>2215</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>2216</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
-        <v>2217</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>2218</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
-        <v>2219</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
-        <v>2220</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
-        <v>2221</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>2222</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
-        <v>2223</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
-        <v>2225</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
-        <v>2226</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
-        <v>2227</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>2228</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
-        <v>2229</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
-        <v>2230</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
-        <v>2232</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
-        <v>2233</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>2234</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="s">
-        <v>2235</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
-        <v>2236</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
-        <v>2237</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
-        <v>2238</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
-        <v>2239</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
-        <v>2242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
-        <v>2243</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
-        <v>2244</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="11" t="s">
-        <v>2245</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="11" t="s">
-        <v>2246</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="11" t="s">
-        <v>2247</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="11" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="11" t="s">
-        <v>2249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="11" t="s">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="11" t="s">
-        <v>2251</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="11" t="s">
-        <v>2252</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="11" t="s">
-        <v>2253</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="11" t="s">
-        <v>2254</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="11" t="s">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
-        <v>2256</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="11" t="s">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="11" t="s">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="11" t="s">
-        <v>2259</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="11" t="s">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="11" t="s">
-        <v>2261</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="11" t="s">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="11" t="s">
-        <v>2263</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="11" t="s">
-        <v>2264</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="11" t="s">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="11" t="s">
-        <v>2266</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="11" t="s">
-        <v>2267</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="11" t="s">
-        <v>2268</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="11" t="s">
-        <v>2269</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="11" t="s">
-        <v>2270</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="11" t="s">
-        <v>2271</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="11" t="s">
-        <v>2272</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="11" t="s">
-        <v>2273</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="11" t="s">
-        <v>2274</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="11" t="s">
-        <v>2275</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="11" t="s">
-        <v>2276</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="11" t="s">
-        <v>2277</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="11" t="s">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="11" t="s">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="11" t="s">
-        <v>2280</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="11" t="s">
-        <v>2281</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="11" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="11" t="s">
-        <v>2283</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="11" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="11" t="s">
-        <v>2285</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="11" t="s">
-        <v>2286</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="11" t="s">
-        <v>2287</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="11" t="s">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="11" t="s">
-        <v>2289</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="11" t="s">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="11" t="s">
-        <v>2291</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="11" t="s">
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="11" t="s">
-        <v>2293</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="11" t="s">
-        <v>2294</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="11" t="s">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="11" t="s">
-        <v>2296</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="11" t="s">
-        <v>2297</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="11" t="s">
-        <v>2298</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="11" t="s">
-        <v>2299</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="11" t="s">
-        <v>2300</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="11" t="s">
-        <v>2301</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="11" t="s">
-        <v>2302</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="11" t="s">
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="11" t="s">
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="11" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="11" t="s">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="11" t="s">
-        <v>2307</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="11" t="s">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="11" t="s">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="11" t="s">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="11" t="s">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="11" t="s">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="11" t="s">
-        <v>2313</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="11" t="s">
-        <v>2314</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="11" t="s">
-        <v>2315</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="11" t="s">
-        <v>2316</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="11" t="s">
-        <v>2317</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="11" t="s">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="11" t="s">
-        <v>2319</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="11" t="s">
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="11" t="s">
-        <v>2321</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="11" t="s">
-        <v>2322</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="11" t="s">
-        <v>2323</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="11" t="s">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="11" t="s">
-        <v>2325</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="11" t="s">
-        <v>2326</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="11" t="s">
-        <v>2327</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="11" t="s">
-        <v>2328</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="11" t="s">
-        <v>2329</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="11" t="s">
-        <v>2330</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="11" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="11" t="s">
-        <v>2332</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="11" t="s">
-        <v>2333</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="11" t="s">
-        <v>2334</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="11" t="s">
-        <v>2335</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="11" t="s">
-        <v>2336</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="11" t="s">
-        <v>2337</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="11" t="s">
-        <v>2338</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="11" t="s">
-        <v>2339</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="11" t="s">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="11" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="11" t="s">
-        <v>2342</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="11" t="s">
-        <v>2343</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="11" t="s">
-        <v>2344</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="11" t="s">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="11" t="s">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="11" t="s">
-        <v>2347</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="11" t="s">
-        <v>2348</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="11" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B150" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="11" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="11" t="s">
-        <v>2351</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="11" t="s">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="11" t="s">
-        <v>2353</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="11" t="s">
-        <v>2354</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="11" t="s">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="11" t="s">
-        <v>2356</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="11" t="s">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="11" t="s">
-        <v>2358</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="11" t="s">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="11" t="s">
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="11" t="s">
-        <v>2361</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="11" t="s">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="11" t="s">
-        <v>2363</v>
-      </c>
-      <c r="B164" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="11" t="s">
-        <v>2364</v>
-      </c>
-      <c r="B165" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="11" t="s">
-        <v>2365</v>
-      </c>
-      <c r="B166" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="11" t="s">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="11" t="s">
-        <v>2367</v>
-      </c>
-      <c r="B168" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="11" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="11" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="11" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="11" t="s">
-        <v>2370</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="11" t="s">
-        <v>2371</v>
-      </c>
-      <c r="B173" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="11" t="s">
-        <v>2372</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="11" t="s">
-        <v>2373</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="11" t="s">
-        <v>2374</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="11" t="s">
-        <v>2375</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="11" t="s">
-        <v>2376</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="11" t="s">
-        <v>2377</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="11" t="s">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="11" t="s">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="11" t="s">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="11" t="s">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="11" t="s">
-        <v>2382</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="11" t="s">
-        <v>2383</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="11" t="s">
-        <v>2384</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="11" t="s">
-        <v>2385</v>
-      </c>
-      <c r="B187" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="11" t="s">
-        <v>2386</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="11" t="s">
-        <v>2387</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="11" t="s">
-        <v>2388</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="11" t="s">
-        <v>2389</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="11" t="s">
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="11" t="s">
-        <v>2391</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="11" t="s">
-        <v>2392</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" s="11" t="s">
-        <v>2393</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="11" t="s">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="11" t="s">
-        <v>2395</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="11" t="s">
-        <v>2396</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="11" t="s">
-        <v>2397</v>
-      </c>
-      <c r="B199" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="11" t="s">
-        <v>2398</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="11" t="s">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" s="12" t="s">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="11" t="s">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="11" t="s">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="11" t="s">
-        <v>2403</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="11" t="s">
-        <v>2404</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="11" t="s">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="11" t="s">
-        <v>2406</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" s="11" t="s">
-        <v>2407</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="11" t="s">
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" s="11" t="s">
-        <v>2409</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" s="11" t="s">
-        <v>2410</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" s="11" t="s">
-        <v>2411</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" s="11" t="s">
-        <v>2412</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" s="11" t="s">
-        <v>2413</v>
-      </c>
-      <c r="B215" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="11" t="s">
-        <v>2414</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" s="11" t="s">
-        <v>2415</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" s="11" t="s">
-        <v>2416</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" s="11" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" s="11" t="s">
-        <v>2418</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" s="11" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" s="11" t="s">
-        <v>2420</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" s="11" t="s">
-        <v>2421</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="11" t="s">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" s="11" t="s">
-        <v>2423</v>
-      </c>
-      <c r="B225" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" s="11" t="s">
-        <v>2424</v>
-      </c>
-      <c r="B226" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" s="11" t="s">
-        <v>2425</v>
-      </c>
-      <c r="B227" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="11" t="s">
-        <v>2426</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" s="11" t="s">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" s="11" t="s">
-        <v>2428</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" s="11" t="s">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" s="11" t="s">
-        <v>2430</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="11" t="s">
-        <v>2431</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" s="11" t="s">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" s="11" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" s="11" t="s">
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" s="11" t="s">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" s="11" t="s">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" s="11" t="s">
-        <v>2437</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="11" t="s">
-        <v>2438</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" s="11" t="s">
-        <v>2439</v>
-      </c>
-      <c r="B241" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A242" s="11" t="s">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" s="11" t="s">
-        <v>2441</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" s="11" t="s">
-        <v>2442</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" s="11" t="s">
-        <v>2443</v>
-      </c>
-      <c r="B245" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" s="12" t="s">
-        <v>2444</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" s="12" t="s">
-        <v>2445</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A248" s="11" t="s">
-        <v>2446</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A249" s="11" t="s">
-        <v>2447</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A250" s="11" t="s">
-        <v>2448</v>
-      </c>
-      <c r="B250" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A251" s="11" t="s">
-        <v>2449</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A252" s="11" t="s">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" s="11" t="s">
-        <v>2451</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A254" s="11" t="s">
-        <v>2452</v>
-      </c>
-      <c r="B254" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A255" s="11" t="s">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A256" s="11" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257" s="11" t="s">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A258" s="11" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A259" s="11" t="s">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A260" s="11" t="s">
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A261" s="11" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A262" s="11" t="s">
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A263" s="11" t="s">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A264" s="11" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A265" s="11" t="s">
-        <v>2463</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A266" s="11" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A267" s="11" t="s">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A268" s="11" t="s">
-        <v>2466</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A269" s="11" t="s">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A270" s="11" t="s">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A271" s="11" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A272" s="11" t="s">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A273" s="11" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A274" s="11" t="s">
-        <v>2472</v>
-      </c>
-      <c r="B274" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A275" s="11" t="s">
-        <v>2473</v>
-      </c>
-      <c r="B275" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A276" s="11" t="s">
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A277" s="11" t="s">
-        <v>2475</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A278" s="11" t="s">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A279" s="11" t="s">
-        <v>2477</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A280" s="11" t="s">
-        <v>2478</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A281" s="11" t="s">
-        <v>2479</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A282" s="11" t="s">
-        <v>2480</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A283" s="11" t="s">
-        <v>2481</v>
-      </c>
-      <c r="B283" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A284" s="11" t="s">
-        <v>2482</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A285" s="11" t="s">
-        <v>2483</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A286" s="11" t="s">
-        <v>2484</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A287" s="11" t="s">
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A288" s="11" t="s">
-        <v>2486</v>
-      </c>
-      <c r="B288" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A289" s="11" t="s">
-        <v>2487</v>
-      </c>
-      <c r="B289" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A290" s="11" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A291" s="11" t="s">
-        <v>2489</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A292" s="11" t="s">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A293" s="11" t="s">
-        <v>2491</v>
-      </c>
-      <c r="B293" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A294" s="11" t="s">
-        <v>2492</v>
-      </c>
-      <c r="B294" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A295" s="11" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A296" s="11" t="s">
-        <v>2494</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A297" s="11" t="s">
-        <v>2494</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A298" s="11" t="s">
-        <v>2495</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A299" s="11" t="s">
-        <v>2496</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A300" s="11" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A301" s="11" t="s">
-        <v>2498</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A302" s="11" t="s">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A303" s="11" t="s">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A304" s="11" t="s">
-        <v>2501</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A305" s="11" t="s">
-        <v>2502</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A306" s="11" t="s">
-        <v>2503</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A307" s="11" t="s">
-        <v>2504</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A308" s="11" t="s">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A309" s="11" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A310" s="11" t="s">
-        <v>2507</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A311" s="11" t="s">
-        <v>2508</v>
-      </c>
-      <c r="B311" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A312" s="11" t="s">
-        <v>2509</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A313" s="11" t="s">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A314" s="11" t="s">
-        <v>2511</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A315" s="11" t="s">
-        <v>2512</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A316" s="11" t="s">
-        <v>2513</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A317" s="11" t="s">
-        <v>2514</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A318" s="11" t="s">
-        <v>2515</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A319" s="11" t="s">
-        <v>2516</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A320" s="11" t="s">
-        <v>2517</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A321" s="11" t="s">
-        <v>2518</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A322" s="11" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A323" s="11" t="s">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A324" s="11" t="s">
-        <v>2521</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A325" s="11" t="s">
-        <v>2522</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A326" s="11" t="s">
-        <v>2523</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A327" s="11" t="s">
-        <v>2524</v>
-      </c>
-      <c r="B327" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A328" s="11" t="s">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A329" s="13" t="s">
-        <v>2526</v>
-      </c>
-      <c r="B329" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A330" s="11" t="s">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A331" s="11" t="s">
-        <v>2528</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A332" s="11" t="s">
-        <v>2529</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A333" s="11" t="s">
-        <v>2530</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A334" s="11" t="s">
-        <v>2531</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A335" s="11" t="s">
-        <v>2532</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A336" s="11" t="s">
-        <v>2533</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A337" s="11" t="s">
-        <v>2534</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A338" s="11" t="s">
-        <v>2535</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A339" s="11" t="s">
-        <v>2536</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A340" s="11" t="s">
-        <v>2537</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A341" s="11" t="s">
-        <v>2538</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A342" s="11" t="s">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A343" s="11" t="s">
-        <v>2540</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A344" s="11" t="s">
-        <v>2541</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A345" s="11" t="s">
-        <v>2542</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A346" s="11" t="s">
-        <v>2543</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A347" s="11" t="s">
-        <v>2544</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A348" s="11" t="s">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A349" s="11" t="s">
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A350" s="11" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A351" s="11" t="s">
-        <v>2548</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A352" s="11" t="s">
-        <v>2549</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A353" s="11" t="s">
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A354" s="11" t="s">
-        <v>2551</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A355" s="11" t="s">
-        <v>2552</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A356" s="11" t="s">
-        <v>2553</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A357" s="11" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A358" s="11" t="s">
-        <v>2555</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A359" s="11" t="s">
-        <v>2556</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A360" s="11" t="s">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A361" s="11" t="s">
-        <v>2558</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A362" s="11" t="s">
-        <v>2559</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A363" s="11" t="s">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A364" s="11" t="s">
-        <v>2561</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A365" s="11" t="s">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A366" s="11" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A367" s="11" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A368" s="11" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A369" s="11" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A370" s="11" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A371" s="11" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A372" s="11" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A373" s="11" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A374" s="11" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A375" s="11" t="s">
-        <v>2572</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A376" s="11" t="s">
-        <v>2573</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A377" s="11" t="s">
-        <v>2574</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A378" s="11" t="s">
-        <v>2575</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A379" s="11" t="s">
-        <v>2576</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A380" s="11" t="s">
-        <v>2577</v>
-      </c>
-      <c r="B380" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A381" s="11" t="s">
-        <v>2578</v>
-      </c>
-      <c r="B381" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A382" s="11" t="s">
-        <v>2579</v>
-      </c>
-      <c r="B382" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -15210,10 +15210,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16057,9 +16057,6 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>216</v>
-      </c>
       <c r="C104" t="s">
         <v>3020</v>
       </c>
@@ -16608,6 +16605,11 @@
     <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
         <v>3042</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C180" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3982" uniqueCount="3043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3983" uniqueCount="3044">
   <si>
     <t>WANT</t>
   </si>
@@ -9165,6 +9165,9 @@
   </si>
   <si>
     <t>Yoann Lossel</t>
+  </si>
+  <si>
+    <t>Gilbert Shelton</t>
   </si>
 </sst>
 </file>
@@ -9462,8 +9465,8 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C2:I303" headerRowCount="0" totalsRowShown="0">
-  <sortState ref="C2:D229">
-    <sortCondition ref="C229"/>
+  <sortState ref="C2:D186">
+    <sortCondition ref="C2"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Column1"/>
@@ -15210,10 +15213,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15469,7 +15472,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
         <v>57</v>
@@ -15477,7 +15480,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -15486,7 +15489,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
         <v>59</v>
@@ -15494,15 +15497,15 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>68</v>
+      <c r="A35" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -15510,7 +15513,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
         <v>2953</v>
@@ -15518,8 +15521,8 @@
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>72</v>
+      <c r="A37" t="s">
+        <v>76</v>
       </c>
       <c r="C37" t="s">
         <v>65</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
         <v>67</v>
@@ -15535,7 +15538,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
         <v>69</v>
@@ -15543,7 +15546,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
@@ -15551,7 +15554,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
         <v>3011</v>
@@ -15559,7 +15562,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
         <v>73</v>
@@ -15567,7 +15570,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
         <v>75</v>
@@ -15575,7 +15578,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
         <v>77</v>
@@ -15583,7 +15586,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
         <v>79</v>
@@ -15591,7 +15594,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
         <v>81</v>
@@ -15599,7 +15602,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
         <v>3012</v>
@@ -15607,7 +15610,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
         <v>83</v>
@@ -15615,7 +15618,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
         <v>85</v>
@@ -15623,7 +15626,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
@@ -15631,7 +15634,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s">
         <v>89</v>
@@ -15639,15 +15642,15 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>110</v>
+      <c r="A53" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C53" t="s">
         <v>93</v>
@@ -15655,7 +15658,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
@@ -15664,15 +15667,15 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>116</v>
+      <c r="A56" t="s">
+        <v>122</v>
       </c>
       <c r="C56" t="s">
         <v>3013</v>
@@ -15680,7 +15683,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C57" t="s">
         <v>99</v>
@@ -15688,7 +15691,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
         <v>101</v>
@@ -15696,7 +15699,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
         <v>103</v>
@@ -15704,7 +15707,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C60" t="s">
         <v>105</v>
@@ -15712,7 +15715,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
         <v>107</v>
@@ -15720,7 +15723,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>109</v>
@@ -15728,7 +15731,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
         <v>111</v>
@@ -15736,7 +15739,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C64" t="s">
         <v>113</v>
@@ -15744,7 +15747,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C65" t="s">
         <v>115</v>
@@ -15752,7 +15755,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
         <v>117</v>
@@ -15760,7 +15763,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
         <v>119</v>
@@ -15768,7 +15771,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
         <v>121</v>
@@ -15776,7 +15779,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
         <v>123</v>
@@ -15784,7 +15787,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C70" t="s">
         <v>3014</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>125</v>
@@ -15800,7 +15803,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
         <v>127</v>
@@ -15808,7 +15811,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
         <v>129</v>
@@ -15816,7 +15819,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
         <v>131</v>
@@ -15824,7 +15827,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
         <v>133</v>
@@ -15832,7 +15835,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C76" t="s">
         <v>135</v>
@@ -15840,7 +15843,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
         <v>137</v>
@@ -15848,7 +15851,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C78" t="s">
         <v>3015</v>
@@ -15856,7 +15859,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C79" t="s">
         <v>139</v>
@@ -15864,7 +15867,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C80" t="s">
         <v>141</v>
@@ -15872,7 +15875,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C81" t="s">
         <v>143</v>
@@ -15880,7 +15883,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C82" t="s">
         <v>145</v>
@@ -15888,7 +15891,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C83" t="s">
         <v>147</v>
@@ -15896,7 +15899,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C84" t="s">
         <v>149</v>
@@ -15904,7 +15907,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C85" t="s">
         <v>3016</v>
@@ -15912,7 +15915,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C86" t="s">
         <v>151</v>
@@ -15920,7 +15923,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C87" t="s">
         <v>153</v>
@@ -15928,692 +15931,707 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C88" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C89" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C90" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C91" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C92" t="s">
-        <v>161</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C93" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C94" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>196</v>
+      <c r="A95" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>198</v>
+      <c r="A96" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" t="s">
-        <v>3017</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C97" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C98" t="s">
-        <v>3018</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
-        <v>204</v>
+      <c r="A99" t="s">
+        <v>214</v>
       </c>
       <c r="C99" t="s">
-        <v>167</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
-        <v>206</v>
+      <c r="A100" t="s">
+        <v>218</v>
       </c>
       <c r="C100" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C101" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C102" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C103" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>228</v>
+      </c>
       <c r="C104" t="s">
-        <v>3020</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C105" t="s">
-        <v>175</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C106" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C107" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C108" t="s">
-        <v>179</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C109" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C110" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="C111" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C113" t="s">
-        <v>3021</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C114" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C115" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C116" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C117" t="s">
-        <v>3022</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C118" t="s">
-        <v>178</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C119" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C120" t="s">
-        <v>3023</v>
-      </c>
-      <c r="D120" s="6"/>
+        <v>189</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>252</v>
+      <c r="A121" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="C121" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C122" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C123" t="s">
-        <v>3025</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C125" t="s">
-        <v>197</v>
-      </c>
+        <v>3023</v>
+      </c>
+      <c r="D125" s="6"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C126" t="s">
-        <v>3026</v>
+        <v>193</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="3" t="s">
-        <v>262</v>
+      <c r="A127" t="s">
+        <v>268</v>
       </c>
       <c r="C127" t="s">
-        <v>210</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C128" t="s">
-        <v>199</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C129" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C130" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C131" t="s">
-        <v>201</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C132" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C133" t="s">
-        <v>3027</v>
+        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C134" t="s">
-        <v>3028</v>
+        <v>216</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C135" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C136" t="s">
-        <v>3029</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C137" t="s">
-        <v>3030</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C138" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C139" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C140" t="s">
-        <v>211</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C141" t="s">
-        <v>213</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C142" t="s">
-        <v>3031</v>
+        <v>205</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C143" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C144" t="s">
-        <v>215</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C145" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C146" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C147" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C148" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C149" t="s">
-        <v>225</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C150" t="s">
-        <v>227</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C151" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C152" t="s">
-        <v>3033</v>
+        <v>217</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>288</v>
+      <c r="A153" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="C153" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" t="s">
-        <v>3034</v>
+        <v>221</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>290</v>
-      </c>
       <c r="C155" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>291</v>
-      </c>
       <c r="C156" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>292</v>
-      </c>
       <c r="C157" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>293</v>
-      </c>
       <c r="C158" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="C159" t="s">
-        <v>239</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>295</v>
-      </c>
       <c r="C160" t="s">
-        <v>3035</v>
+        <v>231</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C161" t="s">
-        <v>241</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C162" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C163" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C164" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C165" t="s">
-        <v>3037</v>
+        <v>237</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C166" t="s">
-        <v>3036</v>
+        <v>239</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C167" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C168" t="s">
-        <v>3039</v>
+        <v>241</v>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C169" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C170" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C171" t="s">
-        <v>3040</v>
+        <v>245</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C172" t="s">
-        <v>251</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C173" t="s">
-        <v>251</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C174" t="s">
-        <v>253</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
-        <v>255</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C176" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
-        <v>3041</v>
+        <v>249</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" t="s">
-        <v>259</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
-        <v>3042</v>
+        <v>251</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C180" t="s">
-        <v>216</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C181" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C182" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C183" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C184" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C185" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C186" t="s">
+        <v>3042</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A163">
+  <sortState ref="A2:A155">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3983" uniqueCount="3044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3984" uniqueCount="3045">
   <si>
     <t>WANT</t>
   </si>
@@ -9168,6 +9168,9 @@
   </si>
   <si>
     <t>Gilbert Shelton</t>
+  </si>
+  <si>
+    <t>Ted McKeever</t>
   </si>
 </sst>
 </file>
@@ -9465,8 +9468,8 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C2:I303" headerRowCount="0" totalsRowShown="0">
-  <sortState ref="C2:D186">
-    <sortCondition ref="C2"/>
+  <sortState ref="C2:D187">
+    <sortCondition ref="C187"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Column1"/>
@@ -15213,10 +15216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16557,42 +16560,42 @@
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C172" t="s">
-        <v>3037</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C173" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C174" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C176" t="s">
-        <v>247</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" t="s">
-        <v>3040</v>
+        <v>249</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
-        <v>251</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.35">
@@ -16602,31 +16605,36 @@
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C181" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C182" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C183" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C184" t="s">
-        <v>3041</v>
+        <v>257</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C185" t="s">
-        <v>259</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C186" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C187" t="s">
         <v>3042</v>
       </c>
     </row>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -9468,8 +9468,8 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C2:I303" headerRowCount="0" totalsRowShown="0">
-  <sortState ref="C2:D187">
-    <sortCondition ref="C187"/>
+  <sortState ref="C2:D188">
+    <sortCondition ref="C188"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Column1"/>
@@ -15216,10 +15216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15283,7 +15283,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -15291,7 +15291,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -15299,7 +15299,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>3008</v>
@@ -15307,7 +15307,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -15315,7 +15315,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -15323,7 +15323,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -15331,7 +15331,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -15339,7 +15339,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -15347,7 +15347,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -15355,7 +15355,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -15363,7 +15363,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -15371,7 +15371,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -15379,7 +15379,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
@@ -15387,7 +15387,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -15395,7 +15395,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -15403,7 +15403,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -15411,7 +15411,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -15419,7 +15419,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -15427,7 +15427,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
@@ -15435,7 +15435,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
         <v>49</v>
@@ -15443,7 +15443,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>3009</v>
@@ -15451,7 +15451,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>
@@ -15459,7 +15459,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>53</v>
@@ -15467,7 +15467,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>55</v>
@@ -15475,7 +15475,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>57</v>
@@ -15483,7 +15483,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -15492,23 +15492,23 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>70</v>
+      <c r="A34" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>72</v>
+      <c r="A35" t="s">
+        <v>74</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -15516,7 +15516,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
         <v>2953</v>
@@ -15525,7 +15525,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
         <v>65</v>
@@ -15533,7 +15533,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
         <v>67</v>
@@ -15541,7 +15541,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
         <v>69</v>
@@ -15549,7 +15549,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
@@ -15557,7 +15557,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
         <v>3011</v>
@@ -15565,7 +15565,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
         <v>73</v>
@@ -15573,7 +15573,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
         <v>75</v>
@@ -15581,7 +15581,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
         <v>77</v>
@@ -15589,7 +15589,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C45" t="s">
         <v>79</v>
@@ -15597,7 +15597,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
         <v>81</v>
@@ -15605,7 +15605,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
         <v>3012</v>
@@ -15613,7 +15613,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
         <v>83</v>
@@ -15621,7 +15621,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
         <v>85</v>
@@ -15629,7 +15629,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
@@ -15637,23 +15637,23 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>114</v>
+      <c r="A52" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C52" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>116</v>
+      <c r="A53" t="s">
+        <v>118</v>
       </c>
       <c r="C53" t="s">
         <v>93</v>
@@ -15661,7 +15661,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
@@ -15670,7 +15670,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
         <v>97</v>
@@ -15678,7 +15678,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
         <v>3013</v>
@@ -15686,7 +15686,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
         <v>99</v>
@@ -15694,7 +15694,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
         <v>101</v>
@@ -15702,7 +15702,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
         <v>103</v>
@@ -15710,7 +15710,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
         <v>105</v>
@@ -15718,7 +15718,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
         <v>107</v>
@@ -15726,7 +15726,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>109</v>
@@ -15734,7 +15734,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C63" t="s">
         <v>111</v>
@@ -15742,7 +15742,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C64" t="s">
         <v>113</v>
@@ -15750,7 +15750,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
         <v>115</v>
@@ -15758,7 +15758,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C66" t="s">
         <v>117</v>
@@ -15766,7 +15766,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
         <v>119</v>
@@ -15774,7 +15774,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C68" t="s">
         <v>121</v>
@@ -15782,7 +15782,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C69" t="s">
         <v>123</v>
@@ -15790,7 +15790,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C70" t="s">
         <v>3014</v>
@@ -15798,7 +15798,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>125</v>
@@ -15806,7 +15806,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
         <v>127</v>
@@ -15814,7 +15814,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
         <v>129</v>
@@ -15822,7 +15822,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
         <v>131</v>
@@ -15830,499 +15830,499 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C75" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C78" t="s">
-        <v>3015</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C79" t="s">
-        <v>139</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C81" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C82" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C83" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C84" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C85" t="s">
-        <v>3016</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C86" t="s">
-        <v>151</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C87" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C88" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C89" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C90" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C91" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C92" t="s">
-        <v>3043</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C93" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>202</v>
-      </c>
-      <c r="C94" t="s">
-        <v>159</v>
-      </c>
-    </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
-        <v>204</v>
+      <c r="A95" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
-        <v>206</v>
+      <c r="A96" t="s">
+        <v>208</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C97" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C98" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C99" t="s">
-        <v>3017</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C100" t="s">
-        <v>92</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C101" t="s">
-        <v>3018</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C102" t="s">
-        <v>167</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C103" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C104" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C105" t="s">
-        <v>3019</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C106" t="s">
-        <v>171</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C107" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C108" t="s">
-        <v>3020</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C109" t="s">
-        <v>175</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C110" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C112" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C113" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C114" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C115" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C116" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C117" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C118" t="s">
-        <v>3021</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C119" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C120" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>261</v>
-      </c>
-      <c r="C120" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>263</v>
+      </c>
+      <c r="C121" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C121" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C122" t="s">
-        <v>3022</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C123" t="s">
-        <v>178</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C125" t="s">
-        <v>3023</v>
-      </c>
-      <c r="D125" s="6"/>
+        <v>191</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C126" t="s">
-        <v>193</v>
-      </c>
+        <v>3023</v>
+      </c>
+      <c r="D126" s="6"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C127" t="s">
-        <v>3024</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C128" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C129" t="s">
-        <v>195</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C130" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C131" t="s">
-        <v>3026</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C132" t="s">
-        <v>210</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C133" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C134" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C135" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C136" t="s">
         <v>224</v>
@@ -16330,277 +16330,274 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C137" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C138" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C139" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C140" t="s">
-        <v>3027</v>
+        <v>203</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C141" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C142" t="s">
-        <v>205</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C143" t="s">
-        <v>3029</v>
+        <v>205</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C144" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C145" t="s">
-        <v>207</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C146" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C147" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C148" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C149" t="s">
-        <v>3031</v>
+        <v>213</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C150" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C151" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C152" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>293</v>
-      </c>
-      <c r="C152" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C153" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C153" t="s">
-        <v>219</v>
-      </c>
-    </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>295</v>
-      </c>
       <c r="B154" s="3"/>
       <c r="C154" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C155" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C156" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C157" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C158" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C159" t="s">
-        <v>3033</v>
+        <v>229</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C160" t="s">
-        <v>231</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C161" t="s">
-        <v>3034</v>
+        <v>231</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C162" t="s">
-        <v>233</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C163" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C164" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C165" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C166" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C167" t="s">
-        <v>3035</v>
+        <v>239</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C168" t="s">
-        <v>241</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C169" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C170" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C171" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C172" t="s">
-        <v>3044</v>
+        <v>245</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C173" t="s">
-        <v>3037</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C174" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C176" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
-        <v>247</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
-        <v>3040</v>
+        <v>249</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C180" t="s">
-        <v>251</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.35">
@@ -16610,36 +16607,41 @@
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C182" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C183" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C184" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C185" t="s">
-        <v>3041</v>
+        <v>257</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C186" t="s">
-        <v>259</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C187" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C188" t="s">
         <v>3042</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A155">
+  <sortState ref="A2:A154">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3984" uniqueCount="3045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="3046">
   <si>
     <t>WANT</t>
   </si>
@@ -9171,6 +9171,9 @@
   </si>
   <si>
     <t>Ted McKeever</t>
+  </si>
+  <si>
+    <t>Scott Adams</t>
   </si>
 </sst>
 </file>
@@ -9468,8 +9471,8 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C2:I303" headerRowCount="0" totalsRowShown="0">
-  <sortState ref="C2:D188">
-    <sortCondition ref="C188"/>
+  <sortState ref="C2:D189">
+    <sortCondition ref="C189"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Column1"/>
@@ -15216,10 +15219,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16522,87 +16525,87 @@
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C165" t="s">
-        <v>235</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C166" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C167" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C168" t="s">
-        <v>3035</v>
+        <v>239</v>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C169" t="s">
-        <v>241</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C170" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C171" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C172" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C173" t="s">
-        <v>3044</v>
+        <v>245</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C174" t="s">
-        <v>3037</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C176" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" t="s">
-        <v>247</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C180" t="s">
-        <v>3040</v>
+        <v>249</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C181" t="s">
-        <v>251</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.35">
@@ -16612,31 +16615,36 @@
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C183" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C184" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C185" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C186" t="s">
-        <v>3041</v>
+        <v>257</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C187" t="s">
-        <v>259</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C188" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C189" t="s">
         <v>3042</v>
       </c>
     </row>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="3046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="3048">
   <si>
     <t>WANT</t>
   </si>
@@ -9174,6 +9174,12 @@
   </si>
   <si>
     <t>Scott Adams</t>
+  </si>
+  <si>
+    <t>Marjorie Liu</t>
+  </si>
+  <si>
+    <t>Sana Takeda</t>
   </si>
 </sst>
 </file>
@@ -9471,8 +9477,8 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C2:I303" headerRowCount="0" totalsRowShown="0">
-  <sortState ref="C2:D189">
-    <sortCondition ref="C189"/>
+  <sortState ref="C2:D193">
+    <sortCondition ref="C193"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Column1"/>
@@ -15219,10 +15225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15286,7 +15292,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -15294,7 +15300,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -15302,7 +15308,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>3008</v>
@@ -15310,7 +15316,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -15318,7 +15324,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -15326,7 +15332,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -15334,7 +15340,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -15342,7 +15348,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -15350,7 +15356,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -15358,7 +15364,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -15366,7 +15372,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -15374,7 +15380,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -15382,7 +15388,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
@@ -15390,7 +15396,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -15398,7 +15404,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -15406,7 +15412,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -15414,7 +15420,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -15422,7 +15428,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -15430,7 +15436,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
@@ -15438,7 +15444,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
         <v>49</v>
@@ -15446,7 +15452,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
         <v>3009</v>
@@ -15454,7 +15460,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>
@@ -15462,7 +15468,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>53</v>
@@ -15470,7 +15476,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
         <v>55</v>
@@ -15478,15 +15484,15 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>68</v>
+      <c r="A32" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -15495,15 +15501,15 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>72</v>
+      <c r="A34" t="s">
+        <v>76</v>
       </c>
       <c r="C34" t="s">
         <v>61</v>
@@ -15511,7 +15517,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -15519,7 +15525,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
         <v>2953</v>
@@ -15528,7 +15534,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
         <v>65</v>
@@ -15536,7 +15542,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
         <v>67</v>
@@ -15544,7 +15550,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
         <v>69</v>
@@ -15552,7 +15558,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
@@ -15560,7 +15566,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
         <v>3011</v>
@@ -15568,7 +15574,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
         <v>73</v>
@@ -15576,7 +15582,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
         <v>75</v>
@@ -15584,7 +15590,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
         <v>77</v>
@@ -15592,7 +15598,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
         <v>79</v>
@@ -15600,7 +15606,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
         <v>81</v>
@@ -15608,7 +15614,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
         <v>3012</v>
@@ -15616,7 +15622,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
         <v>83</v>
@@ -15624,15 +15630,15 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>112</v>
+      <c r="A50" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
@@ -15640,15 +15646,15 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>116</v>
+      <c r="A52" t="s">
+        <v>120</v>
       </c>
       <c r="C52" t="s">
         <v>91</v>
@@ -15656,7 +15662,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
         <v>93</v>
@@ -15664,7 +15670,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
@@ -15673,7 +15679,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
         <v>97</v>
@@ -15681,7 +15687,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
         <v>3013</v>
@@ -15689,7 +15695,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
         <v>99</v>
@@ -15697,7 +15703,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
         <v>101</v>
@@ -15705,7 +15711,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C59" t="s">
         <v>103</v>
@@ -15713,7 +15719,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C60" t="s">
         <v>105</v>
@@ -15721,7 +15727,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
         <v>107</v>
@@ -15729,7 +15735,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>109</v>
@@ -15737,7 +15743,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
         <v>111</v>
@@ -15745,7 +15751,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C64" t="s">
         <v>113</v>
@@ -15753,7 +15759,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s">
         <v>115</v>
@@ -15761,7 +15767,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C66" t="s">
         <v>117</v>
@@ -15769,7 +15775,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
         <v>119</v>
@@ -15777,7 +15783,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s">
         <v>121</v>
@@ -15785,7 +15791,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
         <v>123</v>
@@ -15793,7 +15799,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s">
         <v>3014</v>
@@ -15801,7 +15807,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>125</v>
@@ -15809,7 +15815,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
         <v>127</v>
@@ -15817,7 +15823,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C73" t="s">
         <v>129</v>
@@ -15825,7 +15831,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C74" t="s">
         <v>131</v>
@@ -15833,7 +15839,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -15841,815 +15847,829 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C76" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C77" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C79" t="s">
-        <v>3015</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C80" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C81" t="s">
-        <v>141</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C82" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C83" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C85" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C86" t="s">
-        <v>3016</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C87" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C88" t="s">
-        <v>153</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C89" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C90" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C91" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>200</v>
-      </c>
-      <c r="C92" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>208</v>
+      </c>
+      <c r="C94" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>202</v>
-      </c>
-      <c r="C93" t="s">
-        <v>3043</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C94" t="s">
-        <v>80</v>
-      </c>
-    </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
-        <v>206</v>
+      <c r="A95" t="s">
+        <v>212</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" t="s">
-        <v>159</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C97" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C98" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C99" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C100" t="s">
-        <v>3017</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C101" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C102" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C103" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C104" t="s">
-        <v>108</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C105" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C106" t="s">
-        <v>3019</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C107" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C108" t="s">
-        <v>173</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C109" t="s">
-        <v>3020</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C110" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C111" t="s">
-        <v>177</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C112" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C113" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C114" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C115" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C116" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C117" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>260</v>
+      <c r="A118" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="C118" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C119" t="s">
-        <v>3021</v>
+        <v>185</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="3" t="s">
-        <v>262</v>
+      <c r="A120" t="s">
+        <v>264</v>
       </c>
       <c r="C120" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C121" t="s">
-        <v>189</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C122" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C123" t="s">
-        <v>3022</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C125" t="s">
-        <v>191</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C126" t="s">
-        <v>3023</v>
-      </c>
-      <c r="D126" s="6"/>
+        <v>178</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C127" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C128" t="s">
-        <v>3024</v>
-      </c>
+        <v>3023</v>
+      </c>
+      <c r="D128" s="6"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C129" t="s">
-        <v>3025</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C130" t="s">
-        <v>195</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C131" t="s">
-        <v>197</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C132" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C133" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C134" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C135" t="s">
-        <v>216</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C136" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C137" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C138" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C139" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C140" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C141" t="s">
-        <v>3027</v>
+        <v>236</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C142" t="s">
-        <v>3028</v>
+        <v>201</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C143" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C144" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C145" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C146" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C147" t="s">
-        <v>209</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C148" t="s">
-        <v>211</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C149" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>292</v>
+      <c r="A150" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="C150" t="s">
-        <v>3031</v>
+        <v>209</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C151" t="s">
-        <v>3032</v>
+        <v>211</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="C152" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>295</v>
-      </c>
       <c r="C153" t="s">
-        <v>217</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B154" s="3"/>
       <c r="C154" t="s">
-        <v>219</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C155" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C156" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C157" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C158" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C159" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C160" t="s">
-        <v>3033</v>
+        <v>225</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C161" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C162" t="s">
-        <v>3034</v>
+        <v>229</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C163" t="s">
-        <v>233</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C164" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C165" t="s">
-        <v>3045</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C166" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C167" t="s">
-        <v>237</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C168" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C169" t="s">
-        <v>3035</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C170" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C171" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C172" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C173" t="s">
-        <v>245</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C174" t="s">
-        <v>3044</v>
+        <v>241</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
-        <v>3037</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C176" t="s">
-        <v>3036</v>
+        <v>243</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
-        <v>3038</v>
+        <v>245</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" t="s">
-        <v>3039</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
-        <v>247</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C180" t="s">
-        <v>249</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C181" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C182" t="s">
-        <v>251</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C183" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C184" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C185" t="s">
-        <v>255</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C186" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C187" t="s">
-        <v>3041</v>
+        <v>251</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C188" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C189" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C190" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C191" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C192" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C193" t="s">
         <v>3042</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A154">
+  <sortState ref="A2:A153">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -9477,8 +9477,8 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C2:I303" headerRowCount="0" totalsRowShown="0">
-  <sortState ref="C2:D193">
-    <sortCondition ref="C193"/>
+  <sortState ref="C2:D199">
+    <sortCondition ref="C199"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Column1"/>
@@ -15225,10 +15225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15300,7 +15300,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -15308,7 +15308,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>3008</v>
@@ -15316,7 +15316,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -15324,7 +15324,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -15332,7 +15332,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -15340,7 +15340,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -15348,7 +15348,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -15356,7 +15356,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -15364,7 +15364,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -15372,7 +15372,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -15380,7 +15380,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -15388,7 +15388,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
@@ -15396,7 +15396,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -15404,7 +15404,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -15412,7 +15412,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -15420,7 +15420,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -15428,7 +15428,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -15436,7 +15436,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
@@ -15444,15 +15444,15 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>58</v>
+      <c r="A27" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C27" t="s">
         <v>3009</v>
@@ -15460,7 +15460,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>
@@ -15468,7 +15468,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>53</v>
@@ -15476,7 +15476,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
         <v>55</v>
@@ -15484,15 +15484,15 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>72</v>
+      <c r="A32" t="s">
+        <v>86</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -15501,7 +15501,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
         <v>59</v>
@@ -15509,7 +15509,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
         <v>61</v>
@@ -15517,7 +15517,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -15525,7 +15525,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
         <v>2953</v>
@@ -15534,7 +15534,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
         <v>65</v>
@@ -15542,7 +15542,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
         <v>67</v>
@@ -15550,7 +15550,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
         <v>69</v>
@@ -15558,7 +15558,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
@@ -15566,7 +15566,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
         <v>3011</v>
@@ -15574,7 +15574,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
         <v>73</v>
@@ -15582,15 +15582,15 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>102</v>
+      <c r="A44" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C44" t="s">
         <v>77</v>
@@ -15598,7 +15598,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
         <v>79</v>
@@ -15606,7 +15606,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
         <v>81</v>
@@ -15614,7 +15614,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
         <v>3012</v>
@@ -15622,7 +15622,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
         <v>83</v>
@@ -15630,15 +15630,15 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>116</v>
+      <c r="A50" t="s">
+        <v>128</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
@@ -15646,7 +15646,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
         <v>89</v>
@@ -15654,7 +15654,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
         <v>91</v>
@@ -15662,7 +15662,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
         <v>93</v>
@@ -15670,7 +15670,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
@@ -15679,7 +15679,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
         <v>97</v>
@@ -15687,7 +15687,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
         <v>3013</v>
@@ -15695,7 +15695,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
         <v>99</v>
@@ -15703,7 +15703,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
         <v>101</v>
@@ -15711,7 +15711,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
         <v>103</v>
@@ -15719,7 +15719,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
         <v>105</v>
@@ -15727,7 +15727,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C61" t="s">
         <v>107</v>
@@ -15735,7 +15735,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>109</v>
@@ -15743,7 +15743,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
         <v>111</v>
@@ -15751,7 +15751,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C64" t="s">
         <v>113</v>
@@ -15759,7 +15759,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C65" t="s">
         <v>115</v>
@@ -15767,7 +15767,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
         <v>117</v>
@@ -15775,7 +15775,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C67" t="s">
         <v>119</v>
@@ -15783,7 +15783,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C68" t="s">
         <v>121</v>
@@ -15791,7 +15791,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C69" t="s">
         <v>123</v>
@@ -15799,7 +15799,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C70" t="s">
         <v>3014</v>
@@ -15807,7 +15807,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>125</v>
@@ -15815,7 +15815,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C72" t="s">
         <v>127</v>
@@ -15823,7 +15823,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C73" t="s">
         <v>129</v>
@@ -15831,7 +15831,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
         <v>131</v>
@@ -15839,7 +15839,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -15847,7 +15847,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -15855,7 +15855,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -15863,7 +15863,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C78" t="s">
         <v>133</v>
@@ -15871,806 +15871,818 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C81" t="s">
-        <v>3015</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C82" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C84" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C85" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>192</v>
+      <c r="A86" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="C86" t="s">
-        <v>147</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>194</v>
+      <c r="A87" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="C87" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C88" t="s">
-        <v>3016</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C89" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C90" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C91" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
-        <v>204</v>
+      <c r="A92" t="s">
+        <v>220</v>
       </c>
       <c r="C92" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
-        <v>206</v>
+      <c r="A93" t="s">
+        <v>222</v>
       </c>
       <c r="C93" t="s">
-        <v>66</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C94" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" t="s">
-        <v>3043</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="C97" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C98" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C99" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C100" t="s">
-        <v>165</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C101" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="C102" t="s">
-        <v>3017</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C103" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C104" t="s">
-        <v>3018</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C105" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C107" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C108" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C109" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C110" t="s">
-        <v>173</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C111" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C112" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>263</v>
+      </c>
+      <c r="C113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>264</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>265</v>
+      </c>
+      <c r="C115" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>266</v>
+      </c>
+      <c r="C116" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>267</v>
+      </c>
+      <c r="C117" t="s">
         <v>3020</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>252</v>
-      </c>
-      <c r="C112" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>268</v>
+      </c>
+      <c r="C118" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>254</v>
-      </c>
-      <c r="C113" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>269</v>
+      </c>
+      <c r="C119" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>256</v>
-      </c>
-      <c r="C114" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>270</v>
+      </c>
+      <c r="C120" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>258</v>
-      </c>
-      <c r="C115" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>271</v>
+      </c>
+      <c r="C121" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>260</v>
-      </c>
-      <c r="C116" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>272</v>
+      </c>
+      <c r="C122" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>261</v>
-      </c>
-      <c r="C117" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>273</v>
+      </c>
+      <c r="C123" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C118" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>263</v>
-      </c>
-      <c r="C119" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>264</v>
-      </c>
-      <c r="C120" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>265</v>
-      </c>
-      <c r="C121" t="s">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>266</v>
-      </c>
-      <c r="C122" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>267</v>
-      </c>
-      <c r="C123" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>275</v>
+      </c>
+      <c r="C125" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>276</v>
+      </c>
+      <c r="C126" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>277</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>278</v>
+      </c>
+      <c r="C128" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>279</v>
+      </c>
+      <c r="C129" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>280</v>
+      </c>
+      <c r="C130" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>269</v>
-      </c>
-      <c r="C125" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>281</v>
+      </c>
+      <c r="C131" t="s">
         <v>3022</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>270</v>
-      </c>
-      <c r="C126" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>282</v>
+      </c>
+      <c r="C132" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>271</v>
-      </c>
-      <c r="C127" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>283</v>
+      </c>
+      <c r="C133" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>272</v>
-      </c>
-      <c r="C128" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>284</v>
+      </c>
+      <c r="C134" t="s">
         <v>3023</v>
       </c>
-      <c r="D128" s="6"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>273</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>285</v>
+      </c>
+      <c r="C135" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>274</v>
-      </c>
-      <c r="C130" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>286</v>
+      </c>
+      <c r="C136" t="s">
         <v>3024</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>275</v>
-      </c>
-      <c r="C131" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>287</v>
+      </c>
+      <c r="C137" t="s">
         <v>3046</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>276</v>
-      </c>
-      <c r="C132" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>288</v>
+      </c>
+      <c r="C138" t="s">
         <v>3025</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>277</v>
-      </c>
-      <c r="C133" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>289</v>
+      </c>
+      <c r="C139" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>278</v>
-      </c>
-      <c r="C134" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>290</v>
+      </c>
+      <c r="C140" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>279</v>
-      </c>
-      <c r="C135" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>291</v>
+      </c>
+      <c r="C141" t="s">
         <v>3026</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>280</v>
-      </c>
-      <c r="C136" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>292</v>
+      </c>
+      <c r="C142" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>281</v>
-      </c>
-      <c r="C137" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>293</v>
+      </c>
+      <c r="C143" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>282</v>
-      </c>
-      <c r="C138" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C144" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>283</v>
-      </c>
-      <c r="C139" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>284</v>
-      </c>
-      <c r="C140" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>285</v>
-      </c>
-      <c r="C141" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>286</v>
-      </c>
-      <c r="C142" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>287</v>
-      </c>
-      <c r="C143" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>288</v>
-      </c>
-      <c r="C144" t="s">
-        <v>3027</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C145" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C146" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C147" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C148" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C149" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C150" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C151" t="s">
         <v>3028</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>290</v>
-      </c>
-      <c r="C146" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>291</v>
-      </c>
-      <c r="C147" t="s">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>292</v>
-      </c>
-      <c r="C148" t="s">
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>293</v>
-      </c>
-      <c r="C149" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C150" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>295</v>
-      </c>
-      <c r="C151" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C152" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C153" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B154" s="3"/>
       <c r="C154" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C155" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C156" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C157" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C158" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C159" t="s">
-        <v>223</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C160" t="s">
-        <v>225</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C161" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C162" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C163" t="s">
-        <v>3033</v>
+        <v>219</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C164" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C165" t="s">
-        <v>3034</v>
+        <v>223</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C166" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C167" t="s">
-        <v>3047</v>
+        <v>227</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C168" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C169" t="s">
-        <v>3045</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C170" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C171" t="s">
-        <v>237</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C172" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C173" t="s">
-        <v>3035</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C174" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
-        <v>275</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C176" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" t="s">
-        <v>3044</v>
+        <v>239</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C180" t="s">
-        <v>3036</v>
+        <v>241</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C181" t="s">
-        <v>3038</v>
+        <v>275</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C182" t="s">
-        <v>3039</v>
+        <v>243</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C183" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C184" t="s">
-        <v>249</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C185" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C186" t="s">
-        <v>251</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C187" t="s">
-        <v>251</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C188" t="s">
-        <v>253</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C189" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C190" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C191" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C192" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C193" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C194" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C195" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C196" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C197" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C198" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C199" t="s">
         <v>3042</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A153">
-    <sortCondition ref="A2"/>
+  <sortState ref="A2:A146">
+    <sortCondition ref="A146"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -9477,8 +9477,8 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C2:I303" headerRowCount="0" totalsRowShown="0">
-  <sortState ref="C2:D199">
-    <sortCondition ref="C199"/>
+  <sortState ref="C2:D201">
+    <sortCondition ref="C201"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Column1"/>
@@ -15225,10 +15225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15332,7 +15332,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -15340,7 +15340,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -15348,7 +15348,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -15356,7 +15356,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -15364,7 +15364,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -15372,7 +15372,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -15380,7 +15380,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -15388,7 +15388,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
@@ -15396,7 +15396,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -15404,7 +15404,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -15412,7 +15412,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -15420,7 +15420,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -15428,15 +15428,15 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>68</v>
+      <c r="A25" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
@@ -15444,15 +15444,15 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>72</v>
+      <c r="A27" t="s">
+        <v>76</v>
       </c>
       <c r="C27" t="s">
         <v>3009</v>
@@ -15460,7 +15460,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>
@@ -15468,7 +15468,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>53</v>
@@ -15476,7 +15476,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
         <v>55</v>
@@ -15484,7 +15484,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
         <v>57</v>
@@ -15492,7 +15492,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -15501,7 +15501,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
         <v>59</v>
@@ -15509,7 +15509,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
         <v>61</v>
@@ -15517,7 +15517,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -15525,7 +15525,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
         <v>2953</v>
@@ -15534,7 +15534,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
         <v>65</v>
@@ -15542,7 +15542,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
         <v>67</v>
@@ -15550,7 +15550,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
         <v>69</v>
@@ -15558,7 +15558,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
@@ -15566,15 +15566,15 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
         <v>3011</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>112</v>
+      <c r="A42" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C42" t="s">
         <v>73</v>
@@ -15582,15 +15582,15 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>116</v>
+      <c r="A44" t="s">
+        <v>120</v>
       </c>
       <c r="C44" t="s">
         <v>77</v>
@@ -15598,7 +15598,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
         <v>79</v>
@@ -15606,7 +15606,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
         <v>81</v>
@@ -15614,7 +15614,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
         <v>3012</v>
@@ -15622,7 +15622,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
         <v>83</v>
@@ -15630,7 +15630,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
         <v>85</v>
@@ -15638,7 +15638,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
@@ -15646,7 +15646,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
         <v>89</v>
@@ -15654,7 +15654,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
         <v>91</v>
@@ -15662,7 +15662,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
         <v>93</v>
@@ -15670,7 +15670,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
@@ -15679,7 +15679,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
         <v>97</v>
@@ -15687,7 +15687,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
         <v>3013</v>
@@ -15695,7 +15695,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
         <v>99</v>
@@ -15703,7 +15703,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
         <v>101</v>
@@ -15711,7 +15711,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C59" t="s">
         <v>103</v>
@@ -15719,7 +15719,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
         <v>105</v>
@@ -15727,7 +15727,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
         <v>107</v>
@@ -15735,7 +15735,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>109</v>
@@ -15743,7 +15743,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C63" t="s">
         <v>111</v>
@@ -15751,7 +15751,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s">
         <v>113</v>
@@ -15759,7 +15759,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C65" t="s">
         <v>115</v>
@@ -15767,7 +15767,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C66" t="s">
         <v>117</v>
@@ -15775,7 +15775,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
         <v>119</v>
@@ -15783,7 +15783,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C68" t="s">
         <v>121</v>
@@ -15791,7 +15791,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
         <v>123</v>
@@ -15799,7 +15799,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
         <v>3014</v>
@@ -15807,7 +15807,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>125</v>
@@ -15815,7 +15815,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s">
         <v>127</v>
@@ -15823,7 +15823,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s">
         <v>129</v>
@@ -15831,7 +15831,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C74" t="s">
         <v>131</v>
@@ -15839,7 +15839,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -15847,7 +15847,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -15855,7 +15855,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -15863,7 +15863,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C78" t="s">
         <v>133</v>
@@ -15871,7 +15871,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C79" t="s">
         <v>20</v>
@@ -15879,7 +15879,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
         <v>24</v>
@@ -15887,7 +15887,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C81" t="s">
         <v>26</v>
@@ -15895,7 +15895,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -15903,786 +15903,790 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>200</v>
+      <c r="A84" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="C84" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C85" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>202</v>
-      </c>
-      <c r="C85" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>208</v>
+      </c>
+      <c r="C86" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C86" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>212</v>
+      </c>
+      <c r="C87" t="s">
         <v>3015</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C87" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C88" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C89" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C90" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C91" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C92" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C93" t="s">
-        <v>3016</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C94" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" t="s">
-        <v>153</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C97" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C98" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C99" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C100" t="s">
-        <v>3043</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C101" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C102" t="s">
-        <v>80</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C103" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C104" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C105" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C106" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C108" t="s">
-        <v>3017</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C109" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>260</v>
+      <c r="A110" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="C110" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C111" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="3" t="s">
-        <v>262</v>
+      <c r="A112" t="s">
+        <v>264</v>
       </c>
       <c r="C112" t="s">
-        <v>108</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C113" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C114" t="s">
-        <v>3019</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C115" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C116" t="s">
-        <v>173</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C117" t="s">
-        <v>3020</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C118" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C119" t="s">
-        <v>177</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C120" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C121" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C122" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C123" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C125" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C126" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C127" t="s">
-        <v>3021</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C128" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C129" t="s">
-        <v>189</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C130" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C131" t="s">
-        <v>3022</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C132" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C133" t="s">
-        <v>191</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C134" t="s">
-        <v>3023</v>
-      </c>
-      <c r="D134" s="6"/>
+        <v>178</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C135" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C136" t="s">
-        <v>3024</v>
-      </c>
+        <v>3023</v>
+      </c>
+      <c r="D136" s="6"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C137" t="s">
-        <v>3046</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C138" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C139" t="s">
-        <v>195</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C140" t="s">
-        <v>197</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C141" t="s">
-        <v>3026</v>
+        <v>195</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>292</v>
+      <c r="A142" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="C142" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C143" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C144" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C145" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C144" t="s">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C146" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>295</v>
-      </c>
-      <c r="C145" t="s">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C147" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C146" t="s">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C148" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C147" t="s">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C149" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C148" t="s">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C150" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C149" t="s">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C151" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C150" t="s">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C152" t="s">
         <v>3027</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C151" t="s">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C153" t="s">
         <v>3028</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C152" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C153" t="s">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B154" s="3"/>
       <c r="C154" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C155" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C156" t="s">
         <v>3030</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C155" t="s">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C157" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C156" t="s">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C158" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C157" t="s">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C159" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C158" t="s">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C160" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C159" t="s">
-        <v>3031</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C160" t="s">
-        <v>3032</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C161" t="s">
-        <v>215</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C162" t="s">
-        <v>217</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C163" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C164" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C165" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C166" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C167" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C168" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C169" t="s">
-        <v>3033</v>
+        <v>227</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C170" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C171" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C172" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C173" t="s">
-        <v>3047</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C174" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
-        <v>3045</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C176" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
-        <v>237</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
-        <v>3035</v>
+        <v>237</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C180" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C181" t="s">
-        <v>275</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C182" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C183" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C184" t="s">
-        <v>3044</v>
+        <v>243</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C185" t="s">
-        <v>3037</v>
+        <v>245</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C186" t="s">
-        <v>3036</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C187" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C188" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C189" t="s">
-        <v>247</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C190" t="s">
-        <v>249</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C191" t="s">
-        <v>3040</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C192" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C193" t="s">
-        <v>251</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C194" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C195" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C196" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C197" t="s">
-        <v>3041</v>
+        <v>255</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C198" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C199" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C200" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C201" t="s">
         <v>3042</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A146">
-    <sortCondition ref="A146"/>
+  <sortState ref="A2:A145">
+    <sortCondition ref="A145"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="3048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="3054">
   <si>
     <t>WANT</t>
   </si>
@@ -9180,6 +9180,24 @@
   </si>
   <si>
     <t>Sana Takeda</t>
+  </si>
+  <si>
+    <t>Howard Pyle</t>
+  </si>
+  <si>
+    <t>Edwin Austin Abby</t>
+  </si>
+  <si>
+    <t>Frederic Remington</t>
+  </si>
+  <si>
+    <t>Charles Dana Gibson</t>
+  </si>
+  <si>
+    <t>Rockwell Kent</t>
+  </si>
+  <si>
+    <t>Franklin Booth</t>
   </si>
 </sst>
 </file>
@@ -9477,8 +9495,8 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C2:I303" headerRowCount="0" totalsRowShown="0">
-  <sortState ref="C2:D201">
-    <sortCondition ref="C201"/>
+  <sortState ref="C2:D202">
+    <sortCondition ref="C202"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Column1"/>
@@ -15225,10 +15243,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15284,7 +15302,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>3051</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -15292,7 +15310,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -15300,7 +15318,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -15308,7 +15326,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>3008</v>
@@ -15316,7 +15334,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -15324,7 +15342,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -15332,7 +15350,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -15340,7 +15358,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -15348,7 +15366,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>3049</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -15356,7 +15374,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -15364,7 +15382,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -15372,7 +15390,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -15380,7 +15398,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -15388,7 +15406,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
@@ -15396,7 +15414,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>3053</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -15404,7 +15422,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -15412,7 +15430,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>3050</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -15420,7 +15438,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -15428,15 +15446,15 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>72</v>
+      <c r="A25" t="s">
+        <v>62</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
@@ -15444,7 +15462,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
         <v>49</v>
@@ -15452,7 +15470,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
         <v>3009</v>
@@ -15460,15 +15478,15 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>84</v>
+      <c r="A29" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>53</v>
@@ -15476,7 +15494,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
         <v>55</v>
@@ -15484,7 +15502,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
         <v>57</v>
@@ -15492,7 +15510,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -15501,7 +15519,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
         <v>59</v>
@@ -15509,7 +15527,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
         <v>61</v>
@@ -15517,7 +15535,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -15525,7 +15543,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
         <v>2953</v>
@@ -15534,7 +15552,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
         <v>65</v>
@@ -15542,7 +15560,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
         <v>67</v>
@@ -15550,7 +15568,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
         <v>69</v>
@@ -15558,7 +15576,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
@@ -15566,15 +15584,15 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
         <v>3011</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>116</v>
+      <c r="A42" t="s">
+        <v>106</v>
       </c>
       <c r="C42" t="s">
         <v>73</v>
@@ -15582,7 +15600,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
         <v>75</v>
@@ -15590,7 +15608,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
         <v>77</v>
@@ -15598,15 +15616,15 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>124</v>
+      <c r="A46" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C46" t="s">
         <v>81</v>
@@ -15614,7 +15632,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
         <v>3012</v>
@@ -15622,7 +15640,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
         <v>83</v>
@@ -15630,7 +15648,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
         <v>85</v>
@@ -15638,7 +15656,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
@@ -15646,7 +15664,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
         <v>89</v>
@@ -15654,7 +15672,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
         <v>91</v>
@@ -15662,7 +15680,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
         <v>93</v>
@@ -15670,7 +15688,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
@@ -15679,7 +15697,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
         <v>97</v>
@@ -15687,7 +15705,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C56" t="s">
         <v>3013</v>
@@ -15695,7 +15713,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
         <v>99</v>
@@ -15703,7 +15721,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
         <v>101</v>
@@ -15711,7 +15729,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
         <v>103</v>
@@ -15719,7 +15737,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
         <v>105</v>
@@ -15727,7 +15745,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C61" t="s">
         <v>107</v>
@@ -15735,7 +15753,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>109</v>
@@ -15743,7 +15761,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C63" t="s">
         <v>111</v>
@@ -15751,7 +15769,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C64" t="s">
         <v>113</v>
@@ -15759,7 +15777,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C65" t="s">
         <v>115</v>
@@ -15767,7 +15785,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C66" t="s">
         <v>117</v>
@@ -15775,7 +15793,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C67" t="s">
         <v>119</v>
@@ -15783,7 +15801,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C68" t="s">
         <v>121</v>
@@ -15791,7 +15809,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C69" t="s">
         <v>123</v>
@@ -15799,7 +15817,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C70" t="s">
         <v>3014</v>
@@ -15807,7 +15825,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>125</v>
@@ -15815,7 +15833,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C72" t="s">
         <v>127</v>
@@ -15823,7 +15841,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
         <v>129</v>
@@ -15831,7 +15849,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C74" t="s">
         <v>131</v>
@@ -15839,7 +15857,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -15847,7 +15865,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -15855,7 +15873,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -15863,7 +15881,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C78" t="s">
         <v>133</v>
@@ -15871,7 +15889,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C79" t="s">
         <v>20</v>
@@ -15879,7 +15897,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C80" t="s">
         <v>24</v>
@@ -15887,7 +15905,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C81" t="s">
         <v>26</v>
@@ -15895,7 +15913,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -15903,23 +15921,23 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C83" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
-        <v>204</v>
+      <c r="A84" t="s">
+        <v>196</v>
       </c>
       <c r="C84" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>206</v>
+      <c r="A85" t="s">
+        <v>198</v>
       </c>
       <c r="C85" t="s">
         <v>135</v>
@@ -15927,7 +15945,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C86" t="s">
         <v>137</v>
@@ -15935,23 +15953,23 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
         <v>3015</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>214</v>
+      <c r="A88" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="C88" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>218</v>
+      <c r="A89" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="C89" t="s">
         <v>44</v>
@@ -15959,7 +15977,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C90" t="s">
         <v>141</v>
@@ -15967,7 +15985,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C91" t="s">
         <v>143</v>
@@ -15975,7 +15993,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C92" t="s">
         <v>145</v>
@@ -15983,7 +16001,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C93" t="s">
         <v>147</v>
@@ -15991,7 +16009,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C94" t="s">
         <v>149</v>
@@ -15999,7 +16017,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" t="s">
@@ -16008,7 +16026,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" t="s">
@@ -16017,7 +16035,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C97" t="s">
         <v>153</v>
@@ -16025,7 +16043,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C98" t="s">
         <v>60</v>
@@ -16033,7 +16051,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C99" t="s">
         <v>155</v>
@@ -16041,7 +16059,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C100" t="s">
         <v>66</v>
@@ -16049,7 +16067,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C101" t="s">
         <v>157</v>
@@ -16057,7 +16075,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
         <v>3043</v>
@@ -16065,7 +16083,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C103" t="s">
         <v>78</v>
@@ -16073,7 +16091,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C104" t="s">
         <v>80</v>
@@ -16081,7 +16099,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C105" t="s">
         <v>159</v>
@@ -16089,7 +16107,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C106" t="s">
         <v>161</v>
@@ -16097,7 +16115,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C107" t="s">
         <v>163</v>
@@ -16105,7 +16123,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C108" t="s">
         <v>165</v>
@@ -16113,15 +16131,15 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C109" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="3" t="s">
-        <v>262</v>
+      <c r="A110" t="s">
+        <v>256</v>
       </c>
       <c r="C110" t="s">
         <v>3017</v>
@@ -16129,7 +16147,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C111" t="s">
         <v>92</v>
@@ -16137,516 +16155,531 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C112" t="s">
-        <v>3018</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>265</v>
+        <v>3052</v>
       </c>
       <c r="C113" t="s">
-        <v>167</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C114" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C115" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>267</v>
-      </c>
-      <c r="C115" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C116" t="s">
-        <v>3019</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C117" t="s">
-        <v>171</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C118" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C119" t="s">
-        <v>3020</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C120" t="s">
-        <v>175</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C121" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C123" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C125" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C126" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C127" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C128" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C129" t="s">
-        <v>3021</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C130" t="s">
-        <v>152</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C131" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C132" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C133" t="s">
-        <v>3022</v>
+        <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C134" t="s">
-        <v>178</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C135" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C136" t="s">
-        <v>3023</v>
-      </c>
-      <c r="D136" s="6"/>
+        <v>191</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C137" t="s">
-        <v>193</v>
-      </c>
+        <v>3023</v>
+      </c>
+      <c r="D137" s="6"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C138" t="s">
-        <v>3024</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C139" t="s">
-        <v>3046</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C140" t="s">
-        <v>3025</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C141" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>289</v>
+      </c>
+      <c r="C142" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C142" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>290</v>
+      </c>
+      <c r="C143" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>291</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C147" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>295</v>
       </c>
-      <c r="C143" t="s">
-        <v>3026</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C144" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C145" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C146" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C147" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C148" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C149" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C150" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C150" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C151" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C151" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C152" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C152" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C153" t="s">
         <v>3027</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C153" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B154" s="3"/>
       <c r="C154" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C155" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C155" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C156" t="s">
         <v>3029</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C156" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C157" t="s">
         <v>3030</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C157" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C158" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C158" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C159" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C159" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C160" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C160" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C161" t="s">
-        <v>3031</v>
+        <v>213</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C162" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C163" t="s">
-        <v>215</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C164" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C165" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C166" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C167" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C168" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C169" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C170" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C171" t="s">
-        <v>3033</v>
+        <v>229</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C172" t="s">
-        <v>231</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C173" t="s">
-        <v>3034</v>
+        <v>231</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C174" t="s">
-        <v>233</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
-        <v>3047</v>
+        <v>233</v>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C176" t="s">
-        <v>269</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
-        <v>3045</v>
+        <v>269</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" t="s">
-        <v>235</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C180" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C181" t="s">
-        <v>3035</v>
+        <v>239</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C182" t="s">
-        <v>241</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C183" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C184" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C185" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C186" t="s">
-        <v>3044</v>
+        <v>245</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C187" t="s">
-        <v>3037</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C188" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C189" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C190" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C191" t="s">
-        <v>247</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C192" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C193" t="s">
-        <v>3040</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C194" t="s">
-        <v>251</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.35">
@@ -16656,37 +16689,42 @@
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C196" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C197" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C198" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C199" t="s">
-        <v>3041</v>
+        <v>257</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C200" t="s">
-        <v>259</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C201" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C202" t="s">
         <v>3042</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A145">
-    <sortCondition ref="A145"/>
+  <sortState ref="A2:A148">
+    <sortCondition ref="A148"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="3054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="3055">
   <si>
     <t>WANT</t>
   </si>
@@ -9198,6 +9198,9 @@
   </si>
   <si>
     <t>Franklin Booth</t>
+  </si>
+  <si>
+    <t>Don Martin</t>
   </si>
 </sst>
 </file>
@@ -9495,8 +9498,8 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C2:I303" headerRowCount="0" totalsRowShown="0">
-  <sortState ref="C2:D202">
-    <sortCondition ref="C202"/>
+  <sortState ref="C2:D206">
+    <sortCondition ref="C206"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Column1"/>
@@ -15243,10 +15246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B212" sqref="B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15705,7 +15708,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C56" t="s">
         <v>3013</v>
@@ -15713,7 +15716,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
         <v>99</v>
@@ -15721,7 +15724,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
         <v>101</v>
@@ -15729,7 +15732,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
         <v>103</v>
@@ -15737,7 +15740,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
         <v>105</v>
@@ -15745,7 +15748,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
         <v>107</v>
@@ -15753,7 +15756,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>109</v>
@@ -15761,7 +15764,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
         <v>111</v>
@@ -15769,7 +15772,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
         <v>113</v>
@@ -15777,7 +15780,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
         <v>115</v>
@@ -15785,7 +15788,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s">
         <v>117</v>
@@ -15793,7 +15796,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s">
         <v>119</v>
@@ -15801,7 +15804,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
         <v>121</v>
@@ -15809,7 +15812,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
         <v>123</v>
@@ -15817,7 +15820,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
         <v>3014</v>
@@ -15825,7 +15828,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>125</v>
@@ -15833,7 +15836,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
         <v>127</v>
@@ -15841,7 +15844,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
         <v>129</v>
@@ -15849,7 +15852,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s">
         <v>131</v>
@@ -15857,7 +15860,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -15865,7 +15868,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -15873,7 +15876,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -15881,7 +15884,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
         <v>133</v>
@@ -15889,842 +15892,850 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>198</v>
-      </c>
-      <c r="C85" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>200</v>
-      </c>
-      <c r="C86" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>212</v>
+      </c>
+      <c r="C88" t="s">
         <v>3015</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C88" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>214</v>
+      </c>
+      <c r="C89" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C92" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" t="s">
-        <v>3016</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" t="s">
-        <v>151</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C97" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C98" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C99" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C100" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C101" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C102" t="s">
-        <v>3043</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C103" t="s">
-        <v>78</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C105" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C106" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C107" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C108" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C109" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>256</v>
+        <v>3052</v>
       </c>
       <c r="C110" t="s">
-        <v>3017</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C111" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C112" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>260</v>
-      </c>
-      <c r="C112" t="s">
-        <v>3048</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>3052</v>
+        <v>263</v>
       </c>
       <c r="C113" t="s">
-        <v>3018</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C114" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>265</v>
+      </c>
+      <c r="C115" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C115" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C116" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C117" t="s">
-        <v>3019</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C118" t="s">
-        <v>171</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C119" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C120" t="s">
-        <v>3020</v>
+        <v>173</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C121" t="s">
-        <v>175</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C122" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C123" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C125" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C126" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C127" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C128" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C129" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C130" t="s">
-        <v>3021</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C131" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C132" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C133" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C134" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C135" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C136" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C137" t="s">
-        <v>3023</v>
-      </c>
-      <c r="D137" s="6"/>
+        <v>176</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C138" t="s">
-        <v>193</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C139" t="s">
-        <v>3024</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C140" t="s">
-        <v>3046</v>
+        <v>191</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C141" t="s">
-        <v>3025</v>
-      </c>
+        <v>3023</v>
+      </c>
+      <c r="D141" s="6"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C142" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>290</v>
+      <c r="A143" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="C143" t="s">
-        <v>197</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C144" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C145" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C147" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C148" t="s">
         <v>3026</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>292</v>
-      </c>
-      <c r="C145" t="s">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C149" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>293</v>
-      </c>
-      <c r="C146" t="s">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C150" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C147" t="s">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C151" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>295</v>
-      </c>
-      <c r="C148" t="s">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C152" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C149" t="s">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C153" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C150" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C151" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C152" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C153" t="s">
-        <v>3027</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B154" s="3"/>
       <c r="C154" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C155" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C156" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C157" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C158" t="s">
         <v>3028</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C155" t="s">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C159" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C156" t="s">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C160" t="s">
         <v>3029</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C157" t="s">
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C158" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C159" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C160" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C161" t="s">
-        <v>213</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C162" t="s">
-        <v>3031</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C163" t="s">
-        <v>3032</v>
+        <v>209</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C164" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C165" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C166" t="s">
-        <v>219</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C167" t="s">
-        <v>221</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C168" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C169" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C170" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C171" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C172" t="s">
-        <v>3033</v>
+        <v>223</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C173" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C174" t="s">
-        <v>3034</v>
+        <v>227</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C176" t="s">
-        <v>3047</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" t="s">
-        <v>3045</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C180" t="s">
-        <v>237</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C181" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C182" t="s">
-        <v>3035</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C183" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C184" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C185" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C186" t="s">
-        <v>245</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C187" t="s">
-        <v>3044</v>
+        <v>241</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C188" t="s">
-        <v>3037</v>
+        <v>275</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C189" t="s">
-        <v>3036</v>
+        <v>243</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C190" t="s">
-        <v>3038</v>
+        <v>245</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C191" t="s">
-        <v>3039</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C192" t="s">
-        <v>247</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C193" t="s">
-        <v>249</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C194" t="s">
-        <v>3040</v>
+        <v>289</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C195" t="s">
-        <v>251</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C196" t="s">
-        <v>251</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C197" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C198" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C199" t="s">
-        <v>257</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C200" t="s">
-        <v>3041</v>
+        <v>251</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C201" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C202" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C203" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C204" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C205" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C206" t="s">
         <v>3042</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A148">
-    <sortCondition ref="A148"/>
+  <sortState ref="A2:A146">
+    <sortCondition ref="A146"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -9498,8 +9498,8 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C2:I303" headerRowCount="0" totalsRowShown="0">
-  <sortState ref="C2:D206">
-    <sortCondition ref="C206"/>
+  <sortState ref="C2:D207">
+    <sortCondition ref="C207"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Column1"/>
@@ -15246,10 +15246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B212" sqref="B212"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16407,17 +16407,15 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="3" t="s">
-        <v>294</v>
+      <c r="A143" t="s">
+        <v>295</v>
       </c>
       <c r="C143" t="s">
         <v>3024</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>295</v>
-      </c>
+      <c r="A144" s="3"/>
       <c r="C144" t="s">
         <v>3046</v>
       </c>
@@ -16690,52 +16688,57 @@
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C198" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C199" t="s">
-        <v>3040</v>
+        <v>249</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C200" t="s">
-        <v>251</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C201" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C202" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C203" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C204" t="s">
-        <v>3041</v>
+        <v>257</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C205" t="s">
-        <v>259</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C206" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C207" t="s">
         <v>3042</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A146">
-    <sortCondition ref="A146"/>
+  <sortState ref="A2:A144">
+    <sortCondition ref="A144"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Publishers" sheetId="1" state="visible" r:id="rId2"/>
@@ -14648,7 +14648,7 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -15185,7 +15185,7 @@
   </sheetPr>
   <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A149" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A149" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A181" activeCellId="0" sqref="A181"/>
     </sheetView>
   </sheetViews>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0879490A-7E59-421D-869D-C4C5B9FB6143}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9C9AB7-77B4-4CA8-AB54-AC8CA160DC45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11900" yWindow="1170" windowWidth="14400" windowHeight="7810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4610" yWindow="150" windowWidth="14400" windowHeight="7810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishers" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4084" uniqueCount="3088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="3089">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -9301,6 +9301,9 @@
   </si>
   <si>
     <t>Valiant Comics</t>
+  </si>
+  <si>
+    <t>started</t>
   </si>
 </sst>
 </file>
@@ -9910,8 +9913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10011,16 +10014,25 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
+      <c r="B12" t="s">
+        <v>1825</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
+      <c r="B13" t="s">
+        <v>1825</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
+      <c r="B14" t="s">
+        <v>1825</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -10050,10 +10062,16 @@
       <c r="A18" t="s">
         <v>14</v>
       </c>
+      <c r="B18" t="s">
+        <v>1825</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3088</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -13546,10 +13564,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -13783,9 +13801,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential</oddFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -14981,10 +14999,10 @@
     <hyperlink ref="A93" r:id="rId93" xr:uid="{00000000-0004-0000-0B00-00005C000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId94"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -15514,9 +15532,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential</oddFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9C9AB7-77B4-4CA8-AB54-AC8CA160DC45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B62450-14BA-47F3-A0B5-94967C2358F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4610" yWindow="150" windowWidth="14400" windowHeight="7810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14660" yWindow="20" windowWidth="4540" windowHeight="10460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishers" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="3089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="3088">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -9301,9 +9301,6 @@
   </si>
   <si>
     <t>Valiant Comics</t>
-  </si>
-  <si>
-    <t>started</t>
   </si>
 </sst>
 </file>
@@ -9913,13 +9910,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -10002,7 +10000,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -10071,7 +10069,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>3088</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -15543,7 +15541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B62450-14BA-47F3-A0B5-94967C2358F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402C4A75-96D3-4987-82B3-283A432A36FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14660" yWindow="20" windowWidth="4540" windowHeight="10460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="3088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="3089">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -9301,6 +9301,9 @@
   </si>
   <si>
     <t>Valiant Comics</t>
+  </si>
+  <si>
+    <t>Lego</t>
   </si>
 </sst>
 </file>
@@ -9908,10 +9911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B215"/>
+  <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10089,6 +10092,9 @@
       <c r="A22" t="s">
         <v>18</v>
       </c>
+      <c r="B22" t="s">
+        <v>1825</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -10656,6 +10662,9 @@
       <c r="A118" t="s">
         <v>111</v>
       </c>
+      <c r="B118" t="s">
+        <v>1825</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
@@ -11203,6 +11212,14 @@
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1825</v>
       </c>
     </row>
   </sheetData>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4094" uniqueCount="3086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4098" uniqueCount="3086">
   <si>
     <t xml:space="preserve">Aardvark-Vanaheim</t>
   </si>
@@ -9689,7 +9689,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9934,6 +9934,9 @@
       <c r="A30" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="B30" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -9963,15 +9966,24 @@
       <c r="A34" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="B34" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="B35" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>36</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4098" uniqueCount="3086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4101" uniqueCount="3086">
   <si>
     <t xml:space="preserve">Aardvark-Vanaheim</t>
   </si>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">Comic Media</t>
   </si>
   <si>
-    <t xml:space="preserve">Continuity Graphics</t>
+    <t xml:space="preserve">Continuity Comics</t>
   </si>
   <si>
     <t xml:space="preserve">Creators Syndicate</t>
@@ -9688,8 +9688,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9990,15 +9990,24 @@
       <c r="A37" s="0" t="s">
         <v>37</v>
       </c>
+      <c r="B37" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="B38" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>39</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3911FC0F-3126-4B7E-BB60-0473906E637D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7F0EE2-B130-4E07-9C9D-B729DB7EE600}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4101" uniqueCount="3085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4105" uniqueCount="3085">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -9899,10 +9899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1048573"/>
+  <dimension ref="A1:B212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10243,6 +10243,9 @@
       <c r="A42" t="s">
         <v>42</v>
       </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
@@ -10256,6 +10259,9 @@
       <c r="A44" t="s">
         <v>44</v>
       </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
@@ -10269,6 +10275,9 @@
       <c r="A46" t="s">
         <v>46</v>
       </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
@@ -10290,6 +10299,9 @@
       <c r="A49" t="s">
         <v>49</v>
       </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
@@ -11226,7 +11238,6 @@
         <v>212</v>
       </c>
     </row>
-    <row r="1048573" ht="12.75" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13584,10 +13595,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -13819,9 +13830,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential</oddFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -15015,10 +15026,10 @@
     <hyperlink ref="A93" r:id="rId93" xr:uid="{00000000-0004-0000-0B00-00005C000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId94"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -15546,9 +15557,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential</oddFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -17971,9 +17982,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential</oddFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -19301,10 +19312,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -24458,9 +24469,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential</oddFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -24765,10 +24776,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -30693,9 +30704,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential</oddFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -31067,9 +31078,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;6Internal Use - Confidential</oddFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7625AF78-F29D-4A26-A58C-6C9D0288C30B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320640CB-18DD-4BBD-BC37-73937A9481A1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishers" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3718" uniqueCount="2839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3719" uniqueCount="2839">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -9159,8 +9159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B212"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9572,6 +9572,9 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -12645,7 +12648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A1027"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ED1E68-CDFC-4956-91A8-2819970E3AA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93AA15D-2F49-418F-A350-65D18C17C0BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13460" yWindow="0" windowWidth="5710" windowHeight="10460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishers" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3718" uniqueCount="2838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="2839">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -8548,6 +8548,9 @@
   </si>
   <si>
     <t>Abe Sapien: The Drowning</t>
+  </si>
+  <si>
+    <t>Eerie Publications</t>
   </si>
 </sst>
 </file>
@@ -9157,7 +9160,7 @@
   <dimension ref="A1:B211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9592,12 +9595,18 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>2838</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="580">
   <si>
     <t xml:space="preserve">Aardvark-Vanaheim</t>
   </si>
@@ -2117,7 +2117,7 @@
   <dimension ref="A1:B206"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B74" activeCellId="0" sqref="B74"/>
+      <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2713,6 +2713,9 @@
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>74</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="575">
   <si>
     <t xml:space="preserve">Aardvark-Vanaheim</t>
   </si>
@@ -249,21 +249,6 @@
   </si>
   <si>
     <t xml:space="preserve">Heilx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi-Fructose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Howard, Ainslee &amp; Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hummanoid</t>
   </si>
   <si>
     <t xml:space="preserve">Icon</t>
@@ -2114,10 +2099,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B206"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
+      <selection pane="topLeft" activeCell="B77" activeCellId="0" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2722,16 +2707,25 @@
       <c r="A75" s="0" t="s">
         <v>75</v>
       </c>
+      <c r="B75" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>76</v>
       </c>
+      <c r="B76" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="B77" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
@@ -2742,6 +2736,9 @@
       <c r="A79" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="B79" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
@@ -2757,9 +2754,6 @@
       <c r="A82" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
@@ -2770,9 +2764,6 @@
       <c r="A84" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
@@ -2803,6 +2794,9 @@
       <c r="A90" s="0" t="s">
         <v>90</v>
       </c>
+      <c r="B90" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
@@ -2813,6 +2807,9 @@
       <c r="A92" s="0" t="s">
         <v>92</v>
       </c>
+      <c r="B92" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
@@ -2823,14 +2820,14 @@
       <c r="A94" s="0" t="s">
         <v>94</v>
       </c>
+      <c r="B94" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
@@ -2872,14 +2869,14 @@
       <c r="A102" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>103</v>
       </c>
+      <c r="B103" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
@@ -2908,17 +2905,11 @@
       <c r="A108" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
@@ -2954,11 +2945,17 @@
       <c r="A116" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="B116" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>117</v>
       </c>
+      <c r="B117" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
@@ -2969,6 +2966,9 @@
       <c r="A119" s="0" t="s">
         <v>119</v>
       </c>
+      <c r="B119" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
@@ -2979,17 +2979,11 @@
       <c r="A121" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
@@ -3028,9 +3022,6 @@
       <c r="A129" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B129" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
@@ -3046,16 +3037,25 @@
       <c r="A132" s="0" t="s">
         <v>132</v>
       </c>
+      <c r="B132" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>133</v>
       </c>
+      <c r="B133" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>134</v>
       </c>
+      <c r="B134" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
@@ -3071,9 +3071,6 @@
       <c r="A137" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B137" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
@@ -3087,9 +3084,6 @@
       <c r="A139" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B139" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
@@ -3110,9 +3104,6 @@
       <c r="A143" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B143" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
@@ -3128,6 +3119,9 @@
       <c r="A146" s="0" t="s">
         <v>146</v>
       </c>
+      <c r="B146" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
@@ -3148,14 +3142,14 @@
       <c r="A150" s="0" t="s">
         <v>150</v>
       </c>
+      <c r="B150" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B151" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
@@ -3176,9 +3170,6 @@
       <c r="A155" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
@@ -3204,6 +3195,9 @@
       <c r="A160" s="0" t="s">
         <v>160</v>
       </c>
+      <c r="B160" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
@@ -3214,11 +3208,17 @@
       <c r="A162" s="0" t="s">
         <v>162</v>
       </c>
+      <c r="B162" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>163</v>
       </c>
+      <c r="B163" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
@@ -3229,30 +3229,24 @@
       <c r="A165" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B165" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>166</v>
       </c>
+      <c r="B166" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B167" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B168" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
@@ -3268,9 +3262,6 @@
       <c r="A171" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="B171" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
@@ -3286,6 +3277,9 @@
       <c r="A174" s="0" t="s">
         <v>174</v>
       </c>
+      <c r="B174" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
@@ -3311,14 +3305,14 @@
       <c r="A179" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B179" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>180</v>
       </c>
+      <c r="B180" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
@@ -3344,9 +3338,6 @@
       <c r="A185" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B185" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
@@ -3357,6 +3348,9 @@
       <c r="A187" s="0" t="s">
         <v>187</v>
       </c>
+      <c r="B187" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
@@ -3367,11 +3361,17 @@
       <c r="A189" s="0" t="s">
         <v>189</v>
       </c>
+      <c r="B189" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>190</v>
       </c>
+      <c r="B190" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
@@ -3382,9 +3382,6 @@
       <c r="A192" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B192" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="193" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
@@ -3395,9 +3392,6 @@
       <c r="A194" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B194" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="195" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
@@ -3416,6 +3410,9 @@
       <c r="A197" s="0" t="s">
         <v>197</v>
       </c>
+      <c r="B197" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
@@ -3431,43 +3428,17 @@
       <c r="A200" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B200" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="201" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.3"/>
@@ -3500,1580 +3471,1580 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="0" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="0" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="0" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="0" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="0" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C126" s="0" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D141" s="7"/>
     </row>
     <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="0" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C175" s="0" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C176" s="0" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C177" s="0" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C178" s="0" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C179" s="0" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C180" s="0" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C181" s="0" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C182" s="0" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C183" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C184" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C185" s="0" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C186" s="0" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C187" s="0" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C188" s="0" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C189" s="0" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C190" s="0" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C191" s="0" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C192" s="0" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C193" s="0" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C194" s="0" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C195" s="0" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C196" s="0" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C197" s="0" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C198" s="0" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C199" s="0" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C200" s="0" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C201" s="0" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C202" s="0" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C203" s="0" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C204" s="0" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C205" s="0" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C206" s="0" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C207" s="0" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C208" s="0" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C209" s="0" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C210" s="0" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="575">
   <si>
     <t xml:space="preserve">Aardvark-Vanaheim</t>
   </si>
@@ -2102,7 +2102,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B77" activeCellId="0" sqref="B77"/>
+      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2730,6 +2730,9 @@
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>78</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="575">
   <si>
     <t xml:space="preserve">Aardvark-Vanaheim</t>
   </si>
@@ -2102,7 +2102,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
+      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2746,6 +2746,9 @@
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>80</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Publishers" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="570">
   <si>
     <t xml:space="preserve">Aardvark-Vanaheim</t>
   </si>
@@ -266,22 +266,7 @@
     <t xml:space="preserve">IPC</t>
   </si>
   <si>
-    <t xml:space="preserve">J.K. Rowling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J.R.R. Tolkien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James Swinerton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jane Webb</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jim Henson Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim Henson Productions</t>
   </si>
   <si>
     <t xml:space="preserve">Johan et Prilouit</t>
@@ -2101,8 +2086,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2775,6 +2760,9 @@
       <c r="A85" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="B85" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
@@ -2785,6 +2773,9 @@
       <c r="A87" s="0" t="s">
         <v>87</v>
       </c>
+      <c r="B87" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
@@ -2795,14 +2786,14 @@
       <c r="A89" s="0" t="s">
         <v>89</v>
       </c>
+      <c r="B89" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
@@ -2844,14 +2835,14 @@
       <c r="A97" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="B98" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
@@ -2880,17 +2871,11 @@
       <c r="A103" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
@@ -2926,11 +2911,17 @@
       <c r="A111" s="0" t="s">
         <v>111</v>
       </c>
+      <c r="B111" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>112</v>
       </c>
+      <c r="B112" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
@@ -2941,6 +2932,9 @@
       <c r="A114" s="0" t="s">
         <v>114</v>
       </c>
+      <c r="B114" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
@@ -2951,17 +2945,11 @@
       <c r="A116" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
@@ -3000,9 +2988,6 @@
       <c r="A124" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
@@ -3018,16 +3003,25 @@
       <c r="A127" s="0" t="s">
         <v>127</v>
       </c>
+      <c r="B127" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>128</v>
       </c>
+      <c r="B128" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>129</v>
       </c>
+      <c r="B129" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
@@ -3043,9 +3037,6 @@
       <c r="A132" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B132" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
@@ -3059,9 +3050,6 @@
       <c r="A134" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B134" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
@@ -3082,9 +3070,6 @@
       <c r="A138" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
@@ -3100,6 +3085,9 @@
       <c r="A141" s="0" t="s">
         <v>141</v>
       </c>
+      <c r="B141" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
@@ -3120,14 +3108,14 @@
       <c r="A145" s="0" t="s">
         <v>145</v>
       </c>
+      <c r="B145" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B146" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
@@ -3148,9 +3136,6 @@
       <c r="A150" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B150" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
@@ -3176,6 +3161,9 @@
       <c r="A155" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="B155" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
@@ -3186,11 +3174,17 @@
       <c r="A157" s="0" t="s">
         <v>157</v>
       </c>
+      <c r="B157" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>158</v>
       </c>
+      <c r="B158" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
@@ -3201,30 +3195,24 @@
       <c r="A160" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B160" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>161</v>
       </c>
+      <c r="B161" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B162" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B163" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
@@ -3240,9 +3228,6 @@
       <c r="A166" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B166" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
@@ -3258,6 +3243,9 @@
       <c r="A169" s="0" t="s">
         <v>169</v>
       </c>
+      <c r="B169" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
@@ -3283,14 +3271,14 @@
       <c r="A174" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B174" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>175</v>
       </c>
+      <c r="B175" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
@@ -3316,9 +3304,6 @@
       <c r="A180" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B180" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
@@ -3329,6 +3314,9 @@
       <c r="A182" s="0" t="s">
         <v>182</v>
       </c>
+      <c r="B182" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
@@ -3339,11 +3327,17 @@
       <c r="A184" s="0" t="s">
         <v>184</v>
       </c>
+      <c r="B184" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>185</v>
       </c>
+      <c r="B185" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
@@ -3354,9 +3348,6 @@
       <c r="A187" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
@@ -3367,9 +3358,6 @@
       <c r="A189" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B189" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
@@ -3388,6 +3376,9 @@
       <c r="A192" s="0" t="s">
         <v>192</v>
       </c>
+      <c r="B192" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
@@ -3403,43 +3394,17 @@
       <c r="A195" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B195" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3463,7 +3428,7 @@
   </sheetPr>
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C210" activeCellId="0" sqref="C210"/>
     </sheetView>
   </sheetViews>
@@ -3477,1580 +3442,1580 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="0" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="0" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="0" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="0" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="0" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C126" s="0" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D141" s="7"/>
     </row>
     <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="0" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C175" s="0" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C176" s="0" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C177" s="0" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C178" s="0" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C179" s="0" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C180" s="0" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C181" s="0" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C182" s="0" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C183" s="0" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C184" s="0" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C185" s="0" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C186" s="0" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C187" s="0" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C188" s="0" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C189" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C190" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C191" s="0" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C192" s="0" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C193" s="0" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C194" s="0" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C195" s="0" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C196" s="0" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C197" s="0" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C198" s="0" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C199" s="0" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C200" s="0" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C201" s="0" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C202" s="0" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C203" s="0" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C204" s="0" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C205" s="0" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C206" s="0" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C207" s="0" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C208" s="0" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C209" s="0" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C210" s="0" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B46DDA-836A-42C0-88C6-5FCD8EE1FD29}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602EC8F1-D2BC-4000-9511-1ACCD58CA36C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="650" windowWidth="12510" windowHeight="10030" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3170" yWindow="1030" windowWidth="12510" windowHeight="10030" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="564">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -274,22 +274,10 @@
     <t>Jim Henson Company</t>
   </si>
   <si>
-    <t>King Comics</t>
-  </si>
-  <si>
     <t>King Features</t>
   </si>
   <si>
-    <t>King Hell</t>
-  </si>
-  <si>
     <t>Kitchen Sink</t>
-  </si>
-  <si>
-    <t>Kobunsha</t>
-  </si>
-  <si>
-    <t>Koyama Press</t>
   </si>
   <si>
     <t>Last Gasp</t>
@@ -2305,10 +2293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B194"/>
+  <dimension ref="A1:B190"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2863,7 +2851,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -2975,7 +2963,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
@@ -2985,6 +2973,9 @@
       <c r="A84" t="s">
         <v>82</v>
       </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
@@ -2998,19 +2989,22 @@
       <c r="A86" t="s">
         <v>84</v>
       </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>86</v>
       </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
@@ -3021,9 +3015,6 @@
       <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
@@ -3042,6 +3033,9 @@
       <c r="A93" t="s">
         <v>91</v>
       </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
@@ -3057,17 +3051,11 @@
       <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
@@ -3108,11 +3096,17 @@
       <c r="A105" t="s">
         <v>103</v>
       </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>104</v>
       </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
@@ -3123,22 +3117,19 @@
       <c r="A108" t="s">
         <v>106</v>
       </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -3149,14 +3140,14 @@
       <c r="A112" t="s">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>111</v>
       </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
@@ -3177,9 +3168,6 @@
       <c r="A117" t="s">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
@@ -3200,16 +3188,25 @@
       <c r="A121" t="s">
         <v>119</v>
       </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>120</v>
       </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>121</v>
       </c>
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
@@ -3220,17 +3217,11 @@
       <c r="A125" t="s">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>124</v>
       </c>
-      <c r="B126" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
@@ -3259,9 +3250,6 @@
       <c r="A131" t="s">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
@@ -3282,6 +3270,9 @@
       <c r="A135" t="s">
         <v>133</v>
       </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
@@ -3325,9 +3316,6 @@
       <c r="A143" t="s">
         <v>141</v>
       </c>
-      <c r="B143" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
@@ -3358,6 +3346,9 @@
       <c r="A149" t="s">
         <v>147</v>
       </c>
+      <c r="B149" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
@@ -3368,19 +3359,22 @@
       <c r="A151" t="s">
         <v>149</v>
       </c>
+      <c r="B151" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>150</v>
       </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>151</v>
       </c>
-      <c r="B153" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
@@ -3399,9 +3393,6 @@
       <c r="A156" t="s">
         <v>154</v>
       </c>
-      <c r="B156" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
@@ -3417,9 +3408,6 @@
       <c r="A159" t="s">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
@@ -3440,6 +3428,9 @@
       <c r="A163" t="s">
         <v>161</v>
       </c>
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
@@ -3460,9 +3451,6 @@
       <c r="A167" t="s">
         <v>165</v>
       </c>
-      <c r="B167" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
@@ -3473,6 +3461,9 @@
       <c r="A169" t="s">
         <v>167</v>
       </c>
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
@@ -3493,9 +3484,6 @@
       <c r="A173" t="s">
         <v>171</v>
       </c>
-      <c r="B173" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
@@ -3511,6 +3499,9 @@
       <c r="A176" t="s">
         <v>174</v>
       </c>
+      <c r="B176" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
@@ -3521,19 +3512,22 @@
       <c r="A178" t="s">
         <v>176</v>
       </c>
+      <c r="B178" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>177</v>
       </c>
+      <c r="B179" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>178</v>
       </c>
-      <c r="B180" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
@@ -3544,22 +3538,19 @@
       <c r="A182" t="s">
         <v>180</v>
       </c>
-      <c r="B182" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>181</v>
       </c>
-      <c r="B183" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>182</v>
       </c>
+      <c r="B184" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
@@ -3570,6 +3561,9 @@
       <c r="A186" t="s">
         <v>184</v>
       </c>
+      <c r="B186" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
@@ -3580,9 +3574,6 @@
       <c r="A188" t="s">
         <v>186</v>
       </c>
-      <c r="B188" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
@@ -3593,33 +3584,10 @@
       <c r="A190" t="s">
         <v>188</v>
       </c>
-      <c r="B190" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>192</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B194">
-    <sortCondition ref="A194"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B190">
+    <sortCondition ref="A190"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3647,1580 +3615,1580 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C23" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C24" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C25" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C26" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C27" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C31" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C33" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C34" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C35" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C36" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C37" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C39" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C40" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C41" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C42" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C43" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C44" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C45" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C46" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C47" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C48" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C49" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C50" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C51" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C52" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C53" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C55" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C56" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C57" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C58" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C59" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C60" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C61" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C63" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C64" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C65" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C66" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C67" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C68" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C69" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C70" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C72" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C73" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C74" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C75" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C76" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C77" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C78" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C79" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C80" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C81" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C82" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C83" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C84" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C85" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C86" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C87" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C88" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C89" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C90" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C91" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C92" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C93" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C94" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C97" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C98" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C99" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C100" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C101" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C102" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C103" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C104" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C105" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C106" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C107" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C108" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C109" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C110" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C111" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C112" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C113" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C114" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C115" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C116" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C117" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C118" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C119" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C120" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C121" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C122" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C123" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C125" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C126" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C127" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C128" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C129" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C130" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C131" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C132" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C133" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C134" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C135" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C136" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C137" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C138" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C139" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C140" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C141" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C142" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C143" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C144" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C145" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C146" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C147" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C148" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C149" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C150" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C151" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C152" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C153" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C155" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C156" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C157" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C158" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C159" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C160" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C161" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C162" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C163" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C164" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C165" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C166" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C167" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C168" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C169" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C170" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C171" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C172" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C173" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C174" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C176" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C180" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C181" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C182" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C183" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C184" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C185" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C186" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C187" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C188" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C189" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C190" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C191" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C192" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C193" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C194" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C195" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C196" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C197" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C198" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C199" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C200" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C201" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C202" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C203" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C204" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C205" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C206" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C207" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C208" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C209" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C210" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602EC8F1-D2BC-4000-9511-1ACCD58CA36C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57318B4-D3B0-4B05-9915-4E6697DEE133}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3170" yWindow="1030" windowWidth="12510" windowHeight="10030" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3170" yWindow="770" windowWidth="12510" windowHeight="10030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="564">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -2295,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B190"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2997,6 +2997,9 @@
       <c r="A87" t="s">
         <v>85</v>
       </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
@@ -3009,6 +3012,9 @@
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -3601,7 +3607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57318B4-D3B0-4B05-9915-4E6697DEE133}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54D484D-1FDD-4210-A9E8-5F91FD49BF5A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3170" yWindow="770" windowWidth="12510" windowHeight="10030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3170" yWindow="770" windowWidth="12510" windowHeight="10030" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="564">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -2295,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3020,6 +3020,9 @@
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -3607,7 +3610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54D484D-1FDD-4210-A9E8-5F91FD49BF5A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B077E5-1580-4A88-BC16-384226347EDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3170" yWindow="770" windowWidth="12510" windowHeight="10030" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3170" yWindow="770" windowWidth="12510" windowHeight="10030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="564">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -2295,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B190"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3028,6 +3028,9 @@
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -3610,7 +3613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B077E5-1580-4A88-BC16-384226347EDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0410BC45-1E0A-4863-A59B-19EE4B12D4E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3170" yWindow="770" windowWidth="12510" windowHeight="10030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="562">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -302,12 +302,6 @@
   </si>
   <si>
     <t>Mattel</t>
-  </si>
-  <si>
-    <t>McCombs</t>
-  </si>
-  <si>
-    <t>Metal Mammoth</t>
   </si>
   <si>
     <t>MGM</t>
@@ -2293,10 +2287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B190"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2851,7 +2845,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -2963,7 +2957,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
@@ -3098,19 +3092,22 @@
       <c r="A103" t="s">
         <v>101</v>
       </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>102</v>
       </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
@@ -3129,9 +3126,6 @@
       <c r="A108" t="s">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -3147,6 +3141,9 @@
       <c r="A111" t="s">
         <v>109</v>
       </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -3157,9 +3154,6 @@
       <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
@@ -3190,11 +3184,17 @@
       <c r="A119" t="s">
         <v>117</v>
       </c>
+      <c r="B119" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>118</v>
       </c>
+      <c r="B120" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
@@ -3208,17 +3208,11 @@
       <c r="A122" t="s">
         <v>120</v>
       </c>
-      <c r="B122" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
@@ -3229,6 +3223,9 @@
       <c r="A125" t="s">
         <v>123</v>
       </c>
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
@@ -3239,9 +3236,6 @@
       <c r="A127" t="s">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
@@ -3272,6 +3266,9 @@
       <c r="A133" t="s">
         <v>131</v>
       </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
@@ -3282,9 +3279,6 @@
       <c r="A135" t="s">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
@@ -3295,6 +3289,9 @@
       <c r="A137" t="s">
         <v>135</v>
       </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
@@ -3305,9 +3302,6 @@
       <c r="A139" t="s">
         <v>137</v>
       </c>
-      <c r="B139" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
@@ -3348,6 +3342,9 @@
       <c r="A147" t="s">
         <v>145</v>
       </c>
+      <c r="B147" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
@@ -3366,27 +3363,27 @@
       <c r="A150" t="s">
         <v>148</v>
       </c>
+      <c r="B150" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>149</v>
       </c>
-      <c r="B151" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>150</v>
       </c>
-      <c r="B152" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>151</v>
       </c>
+      <c r="B153" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
@@ -3397,9 +3394,6 @@
       <c r="A155" t="s">
         <v>153</v>
       </c>
-      <c r="B155" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
@@ -3430,6 +3424,9 @@
       <c r="A161" t="s">
         <v>159</v>
       </c>
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
@@ -3440,9 +3437,6 @@
       <c r="A163" t="s">
         <v>161</v>
       </c>
-      <c r="B163" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
@@ -3463,6 +3457,9 @@
       <c r="A167" t="s">
         <v>165</v>
       </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
@@ -3473,9 +3470,6 @@
       <c r="A169" t="s">
         <v>167</v>
       </c>
-      <c r="B169" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
@@ -3501,6 +3495,9 @@
       <c r="A174" t="s">
         <v>172</v>
       </c>
+      <c r="B174" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
@@ -3519,22 +3516,19 @@
       <c r="A177" t="s">
         <v>175</v>
       </c>
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>176</v>
       </c>
-      <c r="B178" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>177</v>
       </c>
-      <c r="B179" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
@@ -3550,6 +3544,9 @@
       <c r="A182" t="s">
         <v>180</v>
       </c>
+      <c r="B182" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
@@ -3573,9 +3570,6 @@
       <c r="A186" t="s">
         <v>184</v>
       </c>
-      <c r="B186" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
@@ -3587,19 +3581,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>188</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B190">
-    <sortCondition ref="A190"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B188">
+    <sortCondition ref="A188"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3613,7 +3597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
@@ -3627,1336 +3611,1336 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C36" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C38" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C40" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C42" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C45" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C46" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C47" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C48" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C49" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C50" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C52" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C53" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C55" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C56" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C57" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C58" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C59" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C60" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C61" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C63" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C64" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C65" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C66" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C67" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C68" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C69" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C70" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C72" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C73" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C74" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C75" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C76" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C77" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C78" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C79" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C80" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C81" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C82" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C83" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C84" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C85" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C86" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C87" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C88" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C89" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C90" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C91" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C92" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C93" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C94" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C97" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C98" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>381</v>
+      </c>
+      <c r="C99" t="s">
         <v>383</v>
-      </c>
-      <c r="C99" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C100" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C101" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C102" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C103" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C104" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C105" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C106" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C107" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C108" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C109" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C110" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C111" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C112" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C113" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C114" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C115" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C116" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C117" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C118" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C119" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C120" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C121" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C122" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C123" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C125" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C126" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C127" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C128" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C129" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C130" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C131" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C132" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C133" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C134" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C135" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C136" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C137" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C138" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C139" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C140" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C141" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C142" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C143" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C144" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C145" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C146" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C147" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C148" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C149" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C150" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C151" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C152" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C153" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C155" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C156" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C157" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C158" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C159" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C160" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C161" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C162" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C163" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C164" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C165" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C166" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
@@ -4964,243 +4948,243 @@
         <v>87</v>
       </c>
       <c r="C167" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C168" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C169" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C170" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C171" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C172" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C173" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C174" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C176" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C180" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C181" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C182" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C183" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C184" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C185" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C186" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C187" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C188" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C189" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C190" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C191" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C192" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C193" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C194" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C195" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C196" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C197" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C198" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C199" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C200" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C201" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C202" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C203" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C204" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C205" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C206" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C207" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C208" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C209" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C210" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0410BC45-1E0A-4863-A59B-19EE4B12D4E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3520D7-A6B2-42C7-81D4-21F7C881BA7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="562">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -2289,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B188"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:XFD94"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3046,6 +3046,9 @@
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -3597,7 +3600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3520D7-A6B2-42C7-81D4-21F7C881BA7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F58780E-222C-4DE4-8E61-D3C42580EE48}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="560">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -305,12 +305,6 @@
   </si>
   <si>
     <t>MGM</t>
-  </si>
-  <si>
-    <t>Microsoft Studios</t>
-  </si>
-  <si>
-    <t>Midway</t>
   </si>
   <si>
     <t>Mirage</t>
@@ -2287,10 +2281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2845,7 +2839,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -2957,7 +2951,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
@@ -3055,11 +3049,17 @@
       <c r="A95" t="s">
         <v>93</v>
       </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>94</v>
       </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
@@ -3085,19 +3085,22 @@
       <c r="A101" t="s">
         <v>99</v>
       </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>100</v>
       </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
@@ -3116,9 +3119,6 @@
       <c r="A106" t="s">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
@@ -3134,6 +3134,9 @@
       <c r="A109" t="s">
         <v>107</v>
       </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -3144,9 +3147,6 @@
       <c r="A111" t="s">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -3177,11 +3177,17 @@
       <c r="A117" t="s">
         <v>115</v>
       </c>
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>116</v>
       </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
@@ -3195,17 +3201,11 @@
       <c r="A120" t="s">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
@@ -3216,6 +3216,9 @@
       <c r="A123" t="s">
         <v>121</v>
       </c>
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
@@ -3226,9 +3229,6 @@
       <c r="A125" t="s">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
@@ -3259,6 +3259,9 @@
       <c r="A131" t="s">
         <v>129</v>
       </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
@@ -3269,9 +3272,6 @@
       <c r="A133" t="s">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
@@ -3282,6 +3282,9 @@
       <c r="A135" t="s">
         <v>133</v>
       </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
@@ -3292,9 +3295,6 @@
       <c r="A137" t="s">
         <v>135</v>
       </c>
-      <c r="B137" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
@@ -3335,6 +3335,9 @@
       <c r="A145" t="s">
         <v>143</v>
       </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
@@ -3353,27 +3356,27 @@
       <c r="A148" t="s">
         <v>146</v>
       </c>
+      <c r="B148" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>147</v>
       </c>
-      <c r="B149" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>148</v>
       </c>
-      <c r="B150" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>149</v>
       </c>
+      <c r="B151" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
@@ -3384,9 +3387,6 @@
       <c r="A153" t="s">
         <v>151</v>
       </c>
-      <c r="B153" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
@@ -3417,6 +3417,9 @@
       <c r="A159" t="s">
         <v>157</v>
       </c>
+      <c r="B159" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
@@ -3427,9 +3430,6 @@
       <c r="A161" t="s">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
@@ -3450,6 +3450,9 @@
       <c r="A165" t="s">
         <v>163</v>
       </c>
+      <c r="B165" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
@@ -3460,9 +3463,6 @@
       <c r="A167" t="s">
         <v>165</v>
       </c>
-      <c r="B167" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
@@ -3488,6 +3488,9 @@
       <c r="A172" t="s">
         <v>170</v>
       </c>
+      <c r="B172" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
@@ -3506,22 +3509,19 @@
       <c r="A175" t="s">
         <v>173</v>
       </c>
+      <c r="B175" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>174</v>
       </c>
-      <c r="B176" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>175</v>
       </c>
-      <c r="B177" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
@@ -3537,6 +3537,9 @@
       <c r="A180" t="s">
         <v>178</v>
       </c>
+      <c r="B180" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
@@ -3560,9 +3563,6 @@
       <c r="A184" t="s">
         <v>182</v>
       </c>
-      <c r="B184" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
@@ -3574,19 +3574,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>186</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B188">
-    <sortCondition ref="A188"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B186">
+    <sortCondition ref="A186"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3614,1336 +3604,1336 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C36" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C39" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C40" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C41" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C43" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C44" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C45" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C47" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C48" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C50" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C51" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C52" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C53" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C55" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C56" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C57" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C58" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C59" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C60" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C61" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C63" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C64" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C65" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C66" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C67" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C68" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C69" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C70" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C72" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C73" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C74" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C75" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C76" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C77" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C78" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C79" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C80" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C81" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C82" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C83" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C84" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C85" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C86" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C87" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C88" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C89" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C90" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C91" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C92" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C93" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C94" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C97" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C98" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>379</v>
+      </c>
+      <c r="C99" t="s">
         <v>381</v>
-      </c>
-      <c r="C99" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C100" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C101" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C102" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C103" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C104" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C105" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C106" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C107" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C108" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C109" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C110" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C111" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C112" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C113" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C114" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C115" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C116" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C117" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C118" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C119" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C120" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C121" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C122" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C123" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C125" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C126" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C127" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C128" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C129" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C130" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C131" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C132" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C133" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C134" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C135" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C136" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C137" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C138" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C139" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C140" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C141" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C142" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C143" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C144" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C145" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C146" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C147" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C148" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C149" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C150" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C151" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C152" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C153" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C155" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C156" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C157" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C158" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C159" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C160" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C161" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C162" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C163" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C164" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C165" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C166" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
@@ -4951,243 +4941,243 @@
         <v>87</v>
       </c>
       <c r="C167" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C168" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C169" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C170" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C171" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C172" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C173" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C174" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C176" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C180" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C181" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C182" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C183" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C184" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C185" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C186" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C187" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C188" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C189" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C190" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C191" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C192" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C193" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C194" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C195" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C196" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C197" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C198" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C199" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C200" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C201" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C202" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C203" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C204" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C205" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C206" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C207" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C208" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C209" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C210" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F58780E-222C-4DE4-8E61-D3C42580EE48}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E641199-3A05-4F96-9C2C-3EB58AC3526F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="555">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -313,25 +313,10 @@
     <t>MLJ</t>
   </si>
   <si>
-    <t>MPI</t>
-  </si>
-  <si>
-    <t>MTV</t>
-  </si>
-  <si>
-    <t>National Allied</t>
-  </si>
-  <si>
-    <t>Naughty Dog</t>
-  </si>
-  <si>
     <t>NBC</t>
   </si>
   <si>
     <t>Nedor</t>
-  </si>
-  <si>
-    <t>Neople</t>
   </si>
   <si>
     <t>Netflix</t>
@@ -2281,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2839,7 +2824,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -2951,7 +2936,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
@@ -3065,16 +3050,25 @@
       <c r="A97" t="s">
         <v>95</v>
       </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>96</v>
       </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>97</v>
       </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
@@ -3085,17 +3079,11 @@
       <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
@@ -3114,6 +3102,9 @@
       <c r="A105" t="s">
         <v>103</v>
       </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
@@ -3134,9 +3125,6 @@
       <c r="A109" t="s">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -3152,16 +3140,25 @@
       <c r="A112" t="s">
         <v>110</v>
       </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>111</v>
       </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>112</v>
       </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
@@ -3177,9 +3174,6 @@
       <c r="A117" t="s">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
@@ -3193,9 +3187,6 @@
       <c r="A119" t="s">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
@@ -3216,9 +3207,6 @@
       <c r="A123" t="s">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
@@ -3234,6 +3222,9 @@
       <c r="A126" t="s">
         <v>124</v>
       </c>
+      <c r="B126" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
@@ -3254,14 +3245,14 @@
       <c r="A130" t="s">
         <v>128</v>
       </c>
+      <c r="B130" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
@@ -3282,9 +3273,6 @@
       <c r="A135" t="s">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
@@ -3310,6 +3298,9 @@
       <c r="A140" t="s">
         <v>138</v>
       </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
@@ -3320,11 +3311,17 @@
       <c r="A142" t="s">
         <v>140</v>
       </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>141</v>
       </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
@@ -3335,30 +3332,24 @@
       <c r="A145" t="s">
         <v>143</v>
       </c>
-      <c r="B145" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>144</v>
       </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>145</v>
       </c>
-      <c r="B147" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>146</v>
       </c>
-      <c r="B148" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
@@ -3374,9 +3365,6 @@
       <c r="A151" t="s">
         <v>149</v>
       </c>
-      <c r="B151" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
@@ -3392,6 +3380,9 @@
       <c r="A154" t="s">
         <v>152</v>
       </c>
+      <c r="B154" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
@@ -3417,14 +3408,14 @@
       <c r="A159" t="s">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>158</v>
       </c>
+      <c r="B160" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
@@ -3450,9 +3441,6 @@
       <c r="A165" t="s">
         <v>163</v>
       </c>
-      <c r="B165" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
@@ -3463,6 +3451,9 @@
       <c r="A167" t="s">
         <v>165</v>
       </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
@@ -3473,11 +3464,17 @@
       <c r="A169" t="s">
         <v>167</v>
       </c>
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>168</v>
       </c>
+      <c r="B170" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
@@ -3488,9 +3485,6 @@
       <c r="A172" t="s">
         <v>170</v>
       </c>
-      <c r="B172" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
@@ -3501,9 +3495,6 @@
       <c r="A174" t="s">
         <v>172</v>
       </c>
-      <c r="B174" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
@@ -3522,6 +3513,9 @@
       <c r="A177" t="s">
         <v>175</v>
       </c>
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
@@ -3537,46 +3531,15 @@
       <c r="A180" t="s">
         <v>178</v>
       </c>
-      <c r="B180" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>180</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>184</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B186">
-    <sortCondition ref="A186"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B181">
+    <sortCondition ref="A181"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3604,1336 +3567,1336 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C24" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C28" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C30" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C31" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C33" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C34" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C35" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C36" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C37" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C38" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C39" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C40" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C41" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C42" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C43" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C44" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C45" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C46" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C48" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C49" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C50" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C51" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C52" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C53" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C55" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C56" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C57" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C58" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C59" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C60" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C61" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C64" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C65" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C66" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C67" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C68" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C69" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C70" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C72" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C73" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C74" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C75" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C76" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C77" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C78" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C79" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C80" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C81" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C82" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C83" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C84" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C85" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C86" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C87" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C88" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C89" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C90" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C91" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C92" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C93" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C94" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C97" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C98" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C99" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C100" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C101" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C102" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C103" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C104" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C105" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C106" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C107" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C108" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C109" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C110" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C111" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C112" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C113" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C114" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C115" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C116" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C117" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C118" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C119" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C120" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C121" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C122" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C123" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C125" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C126" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C127" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C128" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C129" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C130" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C131" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C132" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C133" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C134" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C135" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C136" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C137" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C138" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C139" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C140" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C141" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C142" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C143" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C144" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C145" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C146" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C147" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C148" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C149" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C150" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C151" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C152" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C153" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C155" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C156" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C157" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C158" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C159" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C160" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C161" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C162" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C163" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C164" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C165" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C166" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
@@ -4941,243 +4904,243 @@
         <v>87</v>
       </c>
       <c r="C167" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C168" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C169" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C170" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C171" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C172" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C173" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C174" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C176" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C180" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C181" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C182" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C183" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C184" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C185" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C186" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C187" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C188" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C189" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C190" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C191" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C192" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C193" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C194" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C195" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C196" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C197" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C198" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C199" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C200" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C201" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C202" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C203" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C204" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C205" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C206" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C207" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C208" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C209" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C210" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E641199-3A05-4F96-9C2C-3EB58AC3526F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08847E49-7C4D-4008-BD41-847AC38B5451}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="555">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -2269,7 +2269,7 @@
   <dimension ref="A1:B181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3073,6 +3073,9 @@
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08847E49-7C4D-4008-BD41-847AC38B5451}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC35783-9555-4A61-9793-AEC4C4F8E0C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="556">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -1691,6 +1691,9 @@
   </si>
   <si>
     <t>Gold Key</t>
+  </si>
+  <si>
+    <t>Capstone</t>
   </si>
 </sst>
 </file>
@@ -2266,10 +2269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2512,7 +2515,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>555</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -2520,7 +2523,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -2528,7 +2531,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -2536,7 +2539,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -2544,7 +2547,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -2552,7 +2555,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -2560,7 +2563,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -2568,7 +2571,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -2576,7 +2579,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -2584,7 +2587,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -2592,7 +2595,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -2600,7 +2603,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -2608,7 +2611,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -2616,7 +2619,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -2624,7 +2627,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -2632,7 +2635,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -2640,7 +2643,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -2648,7 +2651,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -2656,7 +2659,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -2664,7 +2667,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -2672,7 +2675,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -2680,7 +2683,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -2688,7 +2691,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -2696,7 +2699,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -2704,7 +2707,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -2712,7 +2715,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -2720,7 +2723,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -2728,7 +2731,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -2736,7 +2739,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -2744,7 +2747,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
@@ -2752,7 +2755,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -2760,7 +2763,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -2768,7 +2771,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
@@ -2776,7 +2779,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
@@ -2784,7 +2787,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -2792,7 +2795,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -2800,7 +2803,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -2808,7 +2811,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
@@ -2816,7 +2819,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
@@ -2824,7 +2827,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>554</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -2832,7 +2835,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>554</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -2840,7 +2843,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -2856,7 +2859,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -2864,7 +2867,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
@@ -2872,7 +2875,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
@@ -2880,7 +2883,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
@@ -2888,7 +2891,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
@@ -2896,7 +2899,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
@@ -2904,7 +2907,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
@@ -2912,7 +2915,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
@@ -2920,7 +2923,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
@@ -2928,7 +2931,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
@@ -2936,7 +2939,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>553</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
@@ -2944,7 +2947,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>553</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
@@ -2952,7 +2955,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
@@ -2960,7 +2963,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
@@ -2968,7 +2971,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -2976,7 +2979,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -2984,7 +2987,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
@@ -2992,7 +2995,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -3000,7 +3003,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
@@ -3008,7 +3011,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
         <v>1</v>
@@ -3016,7 +3019,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
         <v>1</v>
@@ -3024,7 +3027,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
         <v>1</v>
@@ -3032,7 +3035,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
         <v>1</v>
@@ -3040,7 +3043,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
         <v>1</v>
@@ -3048,7 +3051,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
         <v>1</v>
@@ -3056,7 +3059,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
@@ -3064,7 +3067,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
         <v>1</v>
@@ -3072,7 +3075,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
         <v>1</v>
@@ -3080,30 +3083,30 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" t="s">
         <v>1</v>
@@ -3111,45 +3114,45 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
         <v>1</v>
@@ -3157,7 +3160,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
         <v>1</v>
@@ -3165,162 +3168,162 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>140</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" t="s">
         <v>1</v>
@@ -3328,152 +3331,152 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>144</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>165</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>167</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B170" t="s">
         <v>1</v>
@@ -3481,68 +3484,76 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>173</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>175</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B181">
-    <sortCondition ref="A181"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B182">
+    <sortCondition ref="A182"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC35783-9555-4A61-9793-AEC4C4F8E0C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C55949-96AC-40AD-A933-BFB8CA0E8A0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="553">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -323,15 +323,6 @@
   </si>
   <si>
     <t>New Line Cinema</t>
-  </si>
-  <si>
-    <t>New York American</t>
-  </si>
-  <si>
-    <t>New York Globe</t>
-  </si>
-  <si>
-    <t>New York Herald</t>
   </si>
   <si>
     <t>Newspaper Enterprise</t>
@@ -2269,10 +2260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B182"/>
+  <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2515,7 +2506,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -2835,7 +2826,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -2947,7 +2938,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
@@ -3093,32 +3084,35 @@
       <c r="A102" t="s">
         <v>99</v>
       </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>100</v>
       </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>101</v>
       </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>102</v>
       </c>
-      <c r="B105" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>103</v>
       </c>
-      <c r="B106" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
@@ -3139,45 +3133,48 @@
       <c r="A110" t="s">
         <v>107</v>
       </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>108</v>
       </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>109</v>
       </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>110</v>
       </c>
-      <c r="B113" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>111</v>
       </c>
-      <c r="B114" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>112</v>
       </c>
-      <c r="B115" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>113</v>
       </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
@@ -3193,9 +3190,6 @@
       <c r="A119" t="s">
         <v>116</v>
       </c>
-      <c r="B119" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
@@ -3221,6 +3215,9 @@
       <c r="A124" t="s">
         <v>121</v>
       </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
@@ -3236,14 +3233,14 @@
       <c r="A127" t="s">
         <v>124</v>
       </c>
-      <c r="B127" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>125</v>
       </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
@@ -3259,9 +3256,6 @@
       <c r="A131" t="s">
         <v>128</v>
       </c>
-      <c r="B131" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
@@ -3297,6 +3291,9 @@
       <c r="A138" t="s">
         <v>135</v>
       </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
@@ -3307,6 +3304,9 @@
       <c r="A140" t="s">
         <v>137</v>
       </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
@@ -3325,9 +3325,6 @@
       <c r="A143" t="s">
         <v>140</v>
       </c>
-      <c r="B143" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
@@ -3351,9 +3348,6 @@
       <c r="A147" t="s">
         <v>144</v>
       </c>
-      <c r="B147" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
@@ -3379,6 +3373,9 @@
       <c r="A152" t="s">
         <v>149</v>
       </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
@@ -3394,9 +3391,6 @@
       <c r="A155" t="s">
         <v>152</v>
       </c>
-      <c r="B155" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
@@ -3412,6 +3406,9 @@
       <c r="A158" t="s">
         <v>155</v>
       </c>
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
@@ -3427,9 +3424,6 @@
       <c r="A161" t="s">
         <v>158</v>
       </c>
-      <c r="B161" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
@@ -3450,6 +3444,9 @@
       <c r="A165" t="s">
         <v>162</v>
       </c>
+      <c r="B165" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
@@ -3460,6 +3457,9 @@
       <c r="A167" t="s">
         <v>164</v>
       </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
@@ -3478,17 +3478,11 @@
       <c r="A170" t="s">
         <v>167</v>
       </c>
-      <c r="B170" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>168</v>
       </c>
-      <c r="B171" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
@@ -3499,6 +3493,9 @@
       <c r="A173" t="s">
         <v>170</v>
       </c>
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
@@ -3509,51 +3506,33 @@
       <c r="A175" t="s">
         <v>172</v>
       </c>
+      <c r="B175" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>173</v>
       </c>
-      <c r="B176" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>175</v>
       </c>
-      <c r="B178" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>179</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B182">
-    <sortCondition ref="A182"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B179">
+    <sortCondition ref="A179"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3581,1336 +3560,1336 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C28" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C33" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C34" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C35" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C36" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C37" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C38" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C39" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C41" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C42" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C43" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C44" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C45" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C46" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C47" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C48" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C49" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C50" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C51" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C52" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C53" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C55" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C56" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C57" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C58" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C60" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C61" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C63" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C64" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C65" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C66" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C67" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C68" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C69" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C70" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C72" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C73" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C74" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C75" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C76" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C77" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C78" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C79" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C80" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C81" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C82" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C83" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C84" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C85" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C86" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C87" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C89" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C90" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C91" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C92" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C93" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C94" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C97" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C98" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C99" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C100" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C101" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C102" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C103" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C104" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C105" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C106" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C107" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C108" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C109" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C110" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C111" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C112" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C113" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C114" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C115" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C116" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C117" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C118" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C119" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C120" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C121" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C122" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C123" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C125" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C126" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C127" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C128" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C129" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C130" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C131" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C132" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C133" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C134" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C135" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C136" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C137" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C138" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C139" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C140" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C141" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C142" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C143" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C144" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C145" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C146" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C147" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C148" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C149" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C150" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C151" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C152" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C153" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C155" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C156" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C157" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C158" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C159" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C160" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C161" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C162" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C163" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C164" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C165" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C166" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
@@ -4918,243 +4897,243 @@
         <v>87</v>
       </c>
       <c r="C167" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C168" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C169" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C170" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C171" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C172" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C173" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C174" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C176" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C180" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C181" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C182" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C183" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C184" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C185" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C186" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C187" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C188" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C189" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C190" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C191" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C192" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C193" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C194" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C195" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C196" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C197" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C198" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C199" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C200" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C201" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C202" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C203" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C204" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C205" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C206" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C207" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C208" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C209" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C210" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C55949-96AC-40AD-A933-BFB8CA0E8A0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803FAB1C-2D58-4F28-B050-C9E42A4D3717}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="553">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -2262,17 +2262,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.84375" customWidth="1"/>
+    <col min="2" max="2" width="6.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>552</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>551</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>550</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -3104,32 +3104,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -3137,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -3153,22 +3156,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -3176,42 +3179,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -3219,22 +3222,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -3242,52 +3245,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -3295,12 +3298,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -3316,17 +3319,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -3334,42 +3337,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -3377,32 +3380,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -3410,37 +3413,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -3448,12 +3451,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -3461,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -3469,27 +3472,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -3497,12 +3500,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -3510,22 +3513,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -3550,15 +3553,15 @@
       <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="5.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" customWidth="1"/>
-    <col min="5" max="5" width="36.36328125" customWidth="1"/>
+    <col min="1" max="1" width="28.23046875" customWidth="1"/>
+    <col min="2" max="2" width="2.69140625" customWidth="1"/>
+    <col min="3" max="3" width="29.4609375" customWidth="1"/>
+    <col min="5" max="5" width="36.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
@@ -3567,7 +3570,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>179</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -3583,7 +3586,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -3591,7 +3594,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -3599,7 +3602,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -3607,7 +3610,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>189</v>
       </c>
@@ -3615,7 +3618,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -3623,7 +3626,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>193</v>
       </c>
@@ -3631,7 +3634,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>195</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -3647,7 +3650,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -3655,7 +3658,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -3663,7 +3666,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -3671,7 +3674,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>207</v>
       </c>
@@ -3687,7 +3690,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>209</v>
       </c>
@@ -3695,7 +3698,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>211</v>
       </c>
@@ -3703,7 +3706,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -3711,7 +3714,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -3719,7 +3722,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -3735,7 +3738,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>221</v>
       </c>
@@ -3743,7 +3746,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>223</v>
       </c>
@@ -3751,7 +3754,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>225</v>
       </c>
@@ -3759,7 +3762,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>227</v>
       </c>
@@ -3767,7 +3770,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>229</v>
       </c>
@@ -3775,7 +3778,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>231</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>233</v>
       </c>
@@ -3791,7 +3794,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>235</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>237</v>
       </c>
@@ -3807,7 +3810,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>239</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>241</v>
       </c>
@@ -3824,7 +3827,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>243</v>
       </c>
@@ -3832,7 +3835,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>245</v>
       </c>
@@ -3840,7 +3843,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -3849,7 +3852,7 @@
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>249</v>
       </c>
@@ -3857,7 +3860,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>251</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>253</v>
       </c>
@@ -3873,7 +3876,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>255</v>
       </c>
@@ -3881,7 +3884,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>257</v>
       </c>
@@ -3889,7 +3892,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>259</v>
       </c>
@@ -3897,7 +3900,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>261</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>263</v>
       </c>
@@ -3913,7 +3916,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>265</v>
       </c>
@@ -3921,7 +3924,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>267</v>
       </c>
@@ -3929,7 +3932,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>269</v>
       </c>
@@ -3937,7 +3940,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>271</v>
       </c>
@@ -3945,7 +3948,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>273</v>
       </c>
@@ -3953,7 +3956,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>275</v>
       </c>
@@ -3961,7 +3964,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>277</v>
       </c>
@@ -3969,7 +3972,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>279</v>
       </c>
@@ -3977,7 +3980,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>281</v>
       </c>
@@ -3985,7 +3988,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>283</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>285</v>
       </c>
@@ -4002,7 +4005,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>287</v>
       </c>
@@ -4010,7 +4013,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>289</v>
       </c>
@@ -4018,7 +4021,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -4026,7 +4029,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>293</v>
       </c>
@@ -4034,7 +4037,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>295</v>
       </c>
@@ -4042,7 +4045,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>297</v>
       </c>
@@ -4050,7 +4053,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>299</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>301</v>
       </c>
@@ -4066,7 +4069,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>303</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>305</v>
       </c>
@@ -4082,7 +4085,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>307</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>309</v>
       </c>
@@ -4098,7 +4101,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>311</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>313</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>315</v>
       </c>
@@ -4122,7 +4125,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>317</v>
       </c>
@@ -4130,7 +4133,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>319</v>
       </c>
@@ -4138,7 +4141,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>321</v>
       </c>
@@ -4146,7 +4149,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>323</v>
       </c>
@@ -4154,7 +4157,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>325</v>
       </c>
@@ -4162,7 +4165,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>327</v>
       </c>
@@ -4170,7 +4173,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>329</v>
       </c>
@@ -4178,7 +4181,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>331</v>
       </c>
@@ -4186,7 +4189,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>333</v>
       </c>
@@ -4194,7 +4197,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>335</v>
       </c>
@@ -4202,7 +4205,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>337</v>
       </c>
@@ -4210,7 +4213,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>339</v>
       </c>
@@ -4218,7 +4221,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>341</v>
       </c>
@@ -4226,7 +4229,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>343</v>
       </c>
@@ -4234,7 +4237,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>345</v>
       </c>
@@ -4242,7 +4245,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>347</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>349</v>
       </c>
@@ -4258,7 +4261,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>351</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>353</v>
       </c>
@@ -4274,7 +4277,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>355</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>357</v>
       </c>
@@ -4290,7 +4293,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>359</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>361</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>363</v>
       </c>
@@ -4314,7 +4317,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>365</v>
       </c>
@@ -4323,7 +4326,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>367</v>
       </c>
@@ -4332,7 +4335,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>369</v>
       </c>
@@ -4340,7 +4343,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>371</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>371</v>
       </c>
@@ -4356,7 +4359,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>374</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
         <v>376</v>
       </c>
@@ -4372,7 +4375,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
         <v>378</v>
       </c>
@@ -4380,7 +4383,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>380</v>
       </c>
@@ -4388,7 +4391,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>382</v>
       </c>
@@ -4396,7 +4399,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>384</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>386</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>388</v>
       </c>
@@ -4420,7 +4423,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>390</v>
       </c>
@@ -4428,7 +4431,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>392</v>
       </c>
@@ -4436,7 +4439,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>394</v>
       </c>
@@ -4444,7 +4447,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>396</v>
       </c>
@@ -4452,7 +4455,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>398</v>
       </c>
@@ -4460,7 +4463,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>400</v>
       </c>
@@ -4468,7 +4471,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>402</v>
       </c>
@@ -4476,7 +4479,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>404</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>406</v>
       </c>
@@ -4492,7 +4495,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>408</v>
       </c>
@@ -4500,7 +4503,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>410</v>
       </c>
@@ -4508,7 +4511,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>412</v>
       </c>
@@ -4516,7 +4519,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>414</v>
       </c>
@@ -4524,7 +4527,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>416</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>418</v>
       </c>
@@ -4540,7 +4543,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>420</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>422</v>
       </c>
@@ -4557,7 +4560,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>424</v>
       </c>
@@ -4565,12 +4568,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>427</v>
       </c>
@@ -4578,7 +4581,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>429</v>
       </c>
@@ -4586,7 +4589,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>431</v>
       </c>
@@ -4594,7 +4597,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="3" t="s">
         <v>433</v>
       </c>
@@ -4602,7 +4605,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>435</v>
       </c>
@@ -4610,7 +4613,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>437</v>
       </c>
@@ -4618,7 +4621,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>439</v>
       </c>
@@ -4626,7 +4629,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>441</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>443</v>
       </c>
@@ -4642,7 +4645,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>444</v>
       </c>
@@ -4650,7 +4653,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>446</v>
       </c>
@@ -4658,7 +4661,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>447</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>449</v>
       </c>
@@ -4674,7 +4677,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>450</v>
       </c>
@@ -4682,7 +4685,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>452</v>
       </c>
@@ -4691,7 +4694,7 @@
       </c>
       <c r="D141" s="7"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>454</v>
       </c>
@@ -4699,7 +4702,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>456</v>
       </c>
@@ -4707,7 +4710,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>458</v>
       </c>
@@ -4715,7 +4718,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>460</v>
       </c>
@@ -4723,7 +4726,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>462</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>464</v>
       </c>
@@ -4739,7 +4742,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>466</v>
       </c>
@@ -4747,7 +4750,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>468</v>
       </c>
@@ -4755,7 +4758,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>470</v>
       </c>
@@ -4763,7 +4766,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>472</v>
       </c>
@@ -4771,7 +4774,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>474</v>
       </c>
@@ -4779,7 +4782,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>476</v>
       </c>
@@ -4787,7 +4790,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>477</v>
       </c>
@@ -4796,7 +4799,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>479</v>
       </c>
@@ -4804,7 +4807,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>481</v>
       </c>
@@ -4812,7 +4815,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>483</v>
       </c>
@@ -4820,7 +4823,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>485</v>
       </c>
@@ -4828,7 +4831,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>487</v>
       </c>
@@ -4836,7 +4839,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>489</v>
       </c>
@@ -4844,7 +4847,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>491</v>
       </c>
@@ -4852,7 +4855,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>493</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>495</v>
       </c>
@@ -4868,7 +4871,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>497</v>
       </c>
@@ -4876,7 +4879,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>499</v>
       </c>
@@ -4884,7 +4887,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>501</v>
       </c>
@@ -4892,7 +4895,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>87</v>
       </c>
@@ -4900,7 +4903,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>504</v>
       </c>
@@ -4908,7 +4911,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>506</v>
       </c>
@@ -4916,7 +4919,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>291</v>
       </c>
@@ -4924,7 +4927,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>306</v>
       </c>
@@ -4932,7 +4935,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>510</v>
       </c>
@@ -4940,7 +4943,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>512</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>514</v>
       </c>
@@ -4956,182 +4959,182 @@
         <v>515</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C175" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C176" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C177" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C178" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C179" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C180" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C181" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C182" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C183" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C184" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C185" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C186" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C187" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C188" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C189" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C190" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C191" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C192" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C193" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C194" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C195" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C196" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C197" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C198" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C199" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C200" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C201" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C202" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C203" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C204" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C205" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C206" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C207" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C208" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C209" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C210" t="s">
         <v>549</v>
       </c>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803FAB1C-2D58-4F28-B050-C9E42A4D3717}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256940F7-B134-428D-AD14-82968AC4A4B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="554">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -1685,6 +1685,9 @@
   </si>
   <si>
     <t>Capstone</t>
+  </si>
+  <si>
+    <t>Oni Press</t>
   </si>
 </sst>
 </file>
@@ -2260,10 +2263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B179"/>
+  <dimension ref="A1:B180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3121,20 +3124,26 @@
       <c r="A107" t="s">
         <v>104</v>
       </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>553</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B110" t="s">
         <v>1</v>
@@ -3142,7 +3151,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B111" t="s">
         <v>1</v>
@@ -3150,7 +3159,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
         <v>1</v>
@@ -3158,22 +3167,22 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
         <v>1</v>
@@ -3181,42 +3190,42 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B124" t="s">
         <v>1</v>
@@ -3224,22 +3233,22 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B128" t="s">
         <v>1</v>
@@ -3247,52 +3256,52 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B138" t="s">
         <v>1</v>
@@ -3300,12 +3309,12 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
         <v>1</v>
@@ -3313,7 +3322,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" t="s">
         <v>1</v>
@@ -3321,17 +3330,17 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
         <v>1</v>
@@ -3339,42 +3348,42 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B152" t="s">
         <v>1</v>
@@ -3382,32 +3391,32 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B158" t="s">
         <v>1</v>
@@ -3415,37 +3424,37 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B165" t="s">
         <v>1</v>
@@ -3453,12 +3462,12 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B167" t="s">
         <v>1</v>
@@ -3466,7 +3475,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B168" t="s">
         <v>1</v>
@@ -3474,27 +3483,27 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B173" t="s">
         <v>1</v>
@@ -3502,12 +3511,12 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B175" t="s">
         <v>1</v>
@@ -3515,27 +3524,32 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
         <v>176</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B179">
-    <sortCondition ref="A179"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B180">
+    <sortCondition ref="A180"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256940F7-B134-428D-AD14-82968AC4A4B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B475F768-499D-485E-8EDF-C5CFDD241F80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="555">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -1688,6 +1688,9 @@
   </si>
   <si>
     <t>Oni Press</t>
+  </si>
+  <si>
+    <t>Tundra</t>
   </si>
 </sst>
 </file>
@@ -2263,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B180"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3439,22 +3442,22 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>158</v>
+        <v>554</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B165" t="s">
         <v>1</v>
@@ -3462,12 +3465,12 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B167" t="s">
         <v>1</v>
@@ -3475,7 +3478,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B168" t="s">
         <v>1</v>
@@ -3483,27 +3486,27 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B173" t="s">
         <v>1</v>
@@ -3511,12 +3514,12 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B175" t="s">
         <v>1</v>
@@ -3524,32 +3527,37 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
         <v>176</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B180">
-    <sortCondition ref="A180"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B181">
+    <sortCondition ref="A181"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Creators.xlsx
+++ b/Creators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimmeb5\Documents\GitHub\blzimg.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B475F768-499D-485E-8EDF-C5CFDD241F80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D828B2F-40FF-4FED-83F5-F4D3170EFA6B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="554">
   <si>
     <t>Aardvark-Vanaheim</t>
   </si>
@@ -341,9 +341,6 @@
   </si>
   <si>
     <t>Now</t>
-  </si>
-  <si>
-    <t>Orion</t>
   </si>
   <si>
     <t>Outer Himalayan</t>
@@ -2266,10 +2263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2512,7 +2509,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -2832,7 +2829,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -2944,7 +2941,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
@@ -3133,7 +3130,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B108" t="s">
         <v>1</v>
@@ -3143,6 +3140,9 @@
       <c r="A109" t="s">
         <v>105</v>
       </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
@@ -3172,6 +3172,9 @@
       <c r="A113" t="s">
         <v>109</v>
       </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
@@ -3182,14 +3185,14 @@
       <c r="A115" t="s">
         <v>111</v>
       </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>112</v>
       </c>
-      <c r="B116" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
@@ -3225,14 +3228,14 @@
       <c r="A123" t="s">
         <v>119</v>
       </c>
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>120</v>
       </c>
-      <c r="B124" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
@@ -3248,14 +3251,14 @@
       <c r="A127" t="s">
         <v>123</v>
       </c>
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>124</v>
       </c>
-      <c r="B128" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
@@ -3301,19 +3304,22 @@
       <c r="A137" t="s">
         <v>133</v>
       </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>134</v>
       </c>
-      <c r="B138" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>135</v>
       </c>
+      <c r="B139" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
@@ -3327,9 +3333,6 @@
       <c r="A141" t="s">
         <v>137</v>
       </c>
-      <c r="B141" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
@@ -3340,14 +3343,14 @@
       <c r="A143" t="s">
         <v>139</v>
       </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>140</v>
       </c>
-      <c r="B144" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
@@ -3383,14 +3386,14 @@
       <c r="A151" t="s">
         <v>147</v>
       </c>
+      <c r="B151" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>148</v>
       </c>
-      <c r="B152" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
@@ -3416,14 +3419,14 @@
       <c r="A157" t="s">
         <v>153</v>
       </c>
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>154</v>
       </c>
-      <c r="B158" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
@@ -3437,12 +3440,12 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>157</v>
+        <v>553</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>554</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.4">
@@ -3454,19 +3457,22 @@
       <c r="A164" t="s">
         <v>159</v>
       </c>
+      <c r="B164" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>160</v>
       </c>
-      <c r="B165" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>161</v>
       </c>
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
@@ -3480,9 +3486,6 @@
       <c r="A168" t="s">
         <v>163</v>
       </c>
-      <c r="B168" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
@@ -3503,27 +3506,27 @@
       <c r="A172" t="s">
         <v>167</v>
       </c>
+      <c r="B172" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>168</v>
       </c>
-      <c r="B173" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>169</v>
       </c>
+      <c r="B174" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>170</v>
       </c>
-      <c r="B175" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
@@ -3550,14 +3553,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A181" t="s">
-        <v>176</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B181">
-    <sortCondition ref="A181"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B180">
+    <sortCondition ref="A180"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3585,1336 +3583,1336 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
         <v>179</v>
-      </c>
-      <c r="C2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
         <v>181</v>
-      </c>
-      <c r="C3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" t="s">
         <v>183</v>
-      </c>
-      <c r="C4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" t="s">
         <v>185</v>
-      </c>
-      <c r="C5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" t="s">
         <v>187</v>
-      </c>
-      <c r="C6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
         <v>189</v>
-      </c>
-      <c r="C7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" t="s">
         <v>191</v>
-      </c>
-      <c r="C8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" t="s">
         <v>193</v>
-      </c>
-      <c r="C9" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" t="s">
         <v>195</v>
-      </c>
-      <c r="C10" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" t="s">
         <v>197</v>
-      </c>
-      <c r="C11" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" t="s">
         <v>199</v>
-      </c>
-      <c r="C12" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
         <v>201</v>
-      </c>
-      <c r="C13" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" t="s">
         <v>203</v>
-      </c>
-      <c r="C14" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" t="s">
         <v>205</v>
-      </c>
-      <c r="C15" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" t="s">
         <v>207</v>
-      </c>
-      <c r="C16" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" t="s">
         <v>209</v>
-      </c>
-      <c r="C17" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" t="s">
         <v>211</v>
-      </c>
-      <c r="C18" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" t="s">
         <v>213</v>
-      </c>
-      <c r="C19" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" t="s">
         <v>215</v>
-      </c>
-      <c r="C20" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" t="s">
         <v>217</v>
-      </c>
-      <c r="C21" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" t="s">
         <v>219</v>
-      </c>
-      <c r="C22" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" t="s">
         <v>221</v>
-      </c>
-      <c r="C23" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" t="s">
         <v>223</v>
-      </c>
-      <c r="C24" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" t="s">
         <v>225</v>
-      </c>
-      <c r="C25" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" t="s">
         <v>227</v>
-      </c>
-      <c r="C26" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" t="s">
         <v>229</v>
-      </c>
-      <c r="C27" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" t="s">
         <v>231</v>
-      </c>
-      <c r="C28" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" t="s">
         <v>235</v>
-      </c>
-      <c r="C30" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" t="s">
         <v>237</v>
-      </c>
-      <c r="C31" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" t="s">
         <v>241</v>
-      </c>
-      <c r="C33" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" t="s">
         <v>243</v>
-      </c>
-      <c r="C34" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" t="s">
         <v>245</v>
-      </c>
-      <c r="C35" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" t="s">
         <v>247</v>
-      </c>
-      <c r="C36" t="s">
-        <v>248</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" t="s">
         <v>249</v>
-      </c>
-      <c r="C37" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" t="s">
         <v>251</v>
-      </c>
-      <c r="C38" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" t="s">
         <v>253</v>
-      </c>
-      <c r="C39" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" t="s">
         <v>255</v>
-      </c>
-      <c r="C40" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" t="s">
         <v>257</v>
-      </c>
-      <c r="C41" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" t="s">
         <v>259</v>
-      </c>
-      <c r="C42" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" t="s">
         <v>261</v>
-      </c>
-      <c r="C43" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" t="s">
         <v>263</v>
-      </c>
-      <c r="C44" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
+        <v>264</v>
+      </c>
+      <c r="C45" t="s">
         <v>265</v>
-      </c>
-      <c r="C45" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" t="s">
         <v>267</v>
-      </c>
-      <c r="C46" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" t="s">
         <v>269</v>
-      </c>
-      <c r="C47" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" t="s">
         <v>271</v>
-      </c>
-      <c r="C48" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
+        <v>272</v>
+      </c>
+      <c r="C49" t="s">
         <v>273</v>
-      </c>
-      <c r="C49" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" t="s">
         <v>275</v>
-      </c>
-      <c r="C50" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" t="s">
         <v>277</v>
-      </c>
-      <c r="C51" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
+        <v>278</v>
+      </c>
+      <c r="C52" t="s">
         <v>279</v>
-      </c>
-      <c r="C52" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" t="s">
         <v>281</v>
-      </c>
-      <c r="C53" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" t="s">
         <v>285</v>
-      </c>
-      <c r="C55" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C56" t="s">
         <v>287</v>
-      </c>
-      <c r="C56" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
+        <v>288</v>
+      </c>
+      <c r="C57" t="s">
         <v>289</v>
-      </c>
-      <c r="C57" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
+        <v>290</v>
+      </c>
+      <c r="C58" t="s">
         <v>291</v>
-      </c>
-      <c r="C58" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
+        <v>292</v>
+      </c>
+      <c r="C59" t="s">
         <v>293</v>
-      </c>
-      <c r="C59" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
+        <v>294</v>
+      </c>
+      <c r="C60" t="s">
         <v>295</v>
-      </c>
-      <c r="C60" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
+        <v>296</v>
+      </c>
+      <c r="C61" t="s">
         <v>297</v>
-      </c>
-      <c r="C61" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
+        <v>298</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
+        <v>300</v>
+      </c>
+      <c r="C63" t="s">
         <v>301</v>
-      </c>
-      <c r="C63" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
+        <v>302</v>
+      </c>
+      <c r="C64" t="s">
         <v>303</v>
-      </c>
-      <c r="C64" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
+        <v>304</v>
+      </c>
+      <c r="C65" t="s">
         <v>305</v>
-      </c>
-      <c r="C65" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
+        <v>306</v>
+      </c>
+      <c r="C66" t="s">
         <v>307</v>
-      </c>
-      <c r="C66" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
+        <v>308</v>
+      </c>
+      <c r="C67" t="s">
         <v>309</v>
-      </c>
-      <c r="C67" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
+        <v>310</v>
+      </c>
+      <c r="C68" t="s">
         <v>311</v>
-      </c>
-      <c r="C68" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
+        <v>312</v>
+      </c>
+      <c r="C69" t="s">
         <v>313</v>
-      </c>
-      <c r="C69" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
+        <v>314</v>
+      </c>
+      <c r="C70" t="s">
         <v>315</v>
-      </c>
-      <c r="C70" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
+        <v>316</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
+        <v>318</v>
+      </c>
+      <c r="C72" t="s">
         <v>319</v>
-      </c>
-      <c r="C72" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
+        <v>320</v>
+      </c>
+      <c r="C73" t="s">
         <v>321</v>
-      </c>
-      <c r="C73" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
+        <v>322</v>
+      </c>
+      <c r="C74" t="s">
         <v>323</v>
-      </c>
-      <c r="C74" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
+        <v>324</v>
+      </c>
+      <c r="C75" t="s">
         <v>325</v>
-      </c>
-      <c r="C75" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
+        <v>326</v>
+      </c>
+      <c r="C76" t="s">
         <v>327</v>
-      </c>
-      <c r="C76" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
+        <v>328</v>
+      </c>
+      <c r="C77" t="s">
         <v>329</v>
-      </c>
-      <c r="C77" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
+        <v>330</v>
+      </c>
+      <c r="C78" t="s">
         <v>331</v>
-      </c>
-      <c r="C78" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
+        <v>332</v>
+      </c>
+      <c r="C79" t="s">
         <v>333</v>
-      </c>
-      <c r="C79" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
+        <v>334</v>
+      </c>
+      <c r="C80" t="s">
         <v>335</v>
-      </c>
-      <c r="C80" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
+        <v>336</v>
+      </c>
+      <c r="C81" t="s">
         <v>337</v>
-      </c>
-      <c r="C81" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
+        <v>338</v>
+      </c>
+      <c r="C82" t="s">
         <v>339</v>
-      </c>
-      <c r="C82" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
+        <v>340</v>
+      </c>
+      <c r="C83" t="s">
         <v>341</v>
-      </c>
-      <c r="C83" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
+        <v>342</v>
+      </c>
+      <c r="C84" t="s">
         <v>343</v>
-      </c>
-      <c r="C84" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C85" t="s">
         <v>345</v>
-      </c>
-      <c r="C85" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
+        <v>346</v>
+      </c>
+      <c r="C86" t="s">
         <v>347</v>
-      </c>
-      <c r="C86" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
+        <v>348</v>
+      </c>
+      <c r="C87" t="s">
         <v>349</v>
-      </c>
-      <c r="C87" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
+        <v>350</v>
+      </c>
+      <c r="C88" t="s">
         <v>351</v>
-      </c>
-      <c r="C88" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
+        <v>352</v>
+      </c>
+      <c r="C89" t="s">
         <v>353</v>
-      </c>
-      <c r="C89" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
+        <v>354</v>
+      </c>
+      <c r="C90" t="s">
         <v>355</v>
-      </c>
-      <c r="C90" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
+        <v>356</v>
+      </c>
+      <c r="C91" t="s">
         <v>357</v>
-      </c>
-      <c r="C91" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
+        <v>358</v>
+      </c>
+      <c r="C92" t="s">
         <v>359</v>
-      </c>
-      <c r="C92" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
+        <v>360</v>
+      </c>
+      <c r="C93" t="s">
         <v>361</v>
-      </c>
-      <c r="C93" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
+        <v>362</v>
+      </c>
+      <c r="C94" t="s">
         <v>363</v>
-      </c>
-      <c r="C94" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
+        <v>368</v>
+      </c>
+      <c r="C97" t="s">
         <v>369</v>
-      </c>
-      <c r="C97" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
+        <v>370</v>
+      </c>
+      <c r="C98" t="s">
         <v>371</v>
-      </c>
-      <c r="C98" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
+        <v>373</v>
+      </c>
+      <c r="C100" t="s">
         <v>374</v>
-      </c>
-      <c r="C100" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C101" t="s">
         <v>376</v>
-      </c>
-      <c r="C101" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C102" t="s">
         <v>378</v>
-      </c>
-      <c r="C1